--- a/historico_s10.xlsx
+++ b/historico_s10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FBCE63C-6DE3-47D4-9C79-4A2F5FF736C2}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09DD1D5-5996-4474-9F60-75437C9DC15A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
   </bookViews>
@@ -901,10 +901,10 @@
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B2" s="3">
-        <v>3.8275000000000001</v>
+        <v>3.8259000000000003</v>
       </c>
       <c r="C2" s="3">
         <v>4.0478000000000005</v>
@@ -1008,7 +1008,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3">
-        <v>3.9596</v>
+        <v>3.8214999999999999</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3">

--- a/historico_s10.xlsx
+++ b/historico_s10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09DD1D5-5996-4474-9F60-75437C9DC15A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32CD9C2-D594-49E9-889F-944BBFC6E176}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
   </bookViews>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5CD062-3D08-4454-801C-4DAE85031235}">
-  <dimension ref="A1:BY809"/>
+  <dimension ref="A1:BY808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BY2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,109 +901,109 @@
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45007</v>
+        <v>45010</v>
       </c>
       <c r="B2" s="3">
-        <v>3.8259000000000003</v>
+        <v>3.8368000000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>4.0478000000000005</v>
+        <v>3.8678000000000003</v>
       </c>
       <c r="D2" s="3">
-        <v>4.0500999999999996</v>
+        <v>3.8700999999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>4.0563000000000002</v>
+        <v>3.8763000000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>4.0579999999999998</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="G2" s="3">
-        <v>3.9599000000000002</v>
+        <v>3.7739000000000003</v>
       </c>
       <c r="H2" s="3">
-        <v>4.0030999999999999</v>
+        <v>3.8230999999999997</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3">
-        <v>4.1555</v>
+        <v>3.9754999999999998</v>
       </c>
       <c r="K2" s="3">
-        <v>4.1577999999999999</v>
+        <v>3.9778000000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>4.1126000000000005</v>
+        <v>3.9325999999999999</v>
       </c>
       <c r="M2" s="3">
-        <v>4.1242999999999999</v>
+        <v>3.9443000000000001</v>
       </c>
       <c r="N2" s="3">
-        <v>4.1657999999999999</v>
+        <v>3.9858000000000002</v>
       </c>
       <c r="O2" s="3">
-        <v>4.1675000000000004</v>
+        <v>3.9874999999999998</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3">
-        <v>4.0289000000000001</v>
+        <v>3.8489</v>
       </c>
       <c r="R2" s="3">
-        <v>4.0312000000000001</v>
+        <v>3.8512</v>
       </c>
       <c r="S2" s="3">
-        <v>4.0206999999999997</v>
+        <v>3.8407</v>
       </c>
       <c r="T2" s="3">
-        <v>4.0229999999999997</v>
+        <v>3.843</v>
       </c>
       <c r="U2" s="3">
-        <v>4.0999999999999996</v>
+        <v>3.92</v>
       </c>
       <c r="V2" s="3">
-        <v>4.1023000000000005</v>
+        <v>3.9223000000000003</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3">
-        <v>3.9199000000000002</v>
+        <v>3.7399</v>
       </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3">
-        <v>4.0970000000000004</v>
+        <v>3.9169999999999998</v>
       </c>
       <c r="AA2" s="3">
-        <v>4.1086</v>
+        <v>3.9285999999999999</v>
       </c>
       <c r="AB2" s="3">
-        <v>4.0650000000000004</v>
+        <v>3.8849999999999998</v>
       </c>
       <c r="AC2" s="3">
-        <v>4.0845000000000002</v>
+        <v>3.9045000000000001</v>
       </c>
       <c r="AD2" s="3">
-        <v>3.9129</v>
+        <v>3.7328999999999999</v>
       </c>
       <c r="AE2" s="3">
-        <v>3.9329000000000001</v>
+        <v>3.7528999999999999</v>
       </c>
       <c r="AF2" s="3">
-        <v>3.9146000000000001</v>
+        <v>3.7345999999999999</v>
       </c>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3">
-        <v>3.9746999999999999</v>
+        <v>3.7946999999999997</v>
       </c>
       <c r="AJ2" s="3">
-        <v>3.9746999999999999</v>
+        <v>3.7946999999999997</v>
       </c>
       <c r="AK2" s="3">
-        <v>3.9636999999999998</v>
+        <v>3.7836999999999996</v>
       </c>
       <c r="AL2" s="3">
-        <v>4.1126000000000005</v>
+        <v>3.9325999999999999</v>
       </c>
       <c r="AM2" s="3">
-        <v>4.1269999999999998</v>
+        <v>3.9470000000000001</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
@@ -1012,257 +1012,513 @@
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3">
-        <v>3.9318</v>
+        <v>3.7518000000000002</v>
       </c>
       <c r="AS2" s="3">
-        <v>4.0318000000000005</v>
+        <v>3.8518000000000003</v>
       </c>
       <c r="AT2" s="3">
-        <v>4.0766</v>
+        <v>3.8965999999999998</v>
       </c>
       <c r="AU2" s="3">
-        <v>4.0789</v>
+        <v>3.8989000000000003</v>
       </c>
       <c r="AV2" s="3">
-        <v>4.1071999999999997</v>
+        <v>3.9241999999999999</v>
       </c>
       <c r="AW2" s="3">
-        <v>4.1127000000000002</v>
+        <v>3.9326999999999996</v>
       </c>
       <c r="AX2" s="3">
-        <v>4.0190999999999999</v>
+        <v>3.8390999999999997</v>
       </c>
       <c r="AY2" s="3">
-        <v>4.2966000000000006</v>
+        <v>4.1166</v>
       </c>
       <c r="AZ2" s="3">
-        <v>4.3366000000000007</v>
+        <v>4.1566000000000001</v>
       </c>
       <c r="BA2" s="3">
-        <v>3.9653</v>
+        <v>3.7853000000000003</v>
       </c>
       <c r="BB2" s="3">
-        <v>4.0457000000000001</v>
+        <v>3.8656999999999999</v>
       </c>
       <c r="BC2" s="3">
-        <v>4.0488</v>
+        <v>3.8688000000000002</v>
       </c>
       <c r="BD2" s="3"/>
       <c r="BE2" s="3">
-        <v>4.0674000000000001</v>
+        <v>3.8874</v>
       </c>
       <c r="BF2" s="3">
-        <v>4.0697000000000001</v>
+        <v>3.8896999999999999</v>
       </c>
       <c r="BG2" s="3">
-        <v>3.8984999999999999</v>
+        <v>3.7185000000000001</v>
       </c>
       <c r="BH2" s="3">
-        <v>3.9460000000000002</v>
+        <v>3.766</v>
       </c>
       <c r="BI2" s="3">
-        <v>3.9235000000000002</v>
+        <v>3.7435</v>
       </c>
       <c r="BJ2" s="3"/>
       <c r="BK2" s="3">
-        <v>3.8984999999999999</v>
+        <v>3.7185000000000001</v>
       </c>
       <c r="BL2" s="3">
-        <v>4.1571999999999996</v>
+        <v>3.9771999999999998</v>
       </c>
       <c r="BM2" s="3">
-        <v>4.1698999999999993</v>
+        <v>3.9899</v>
       </c>
       <c r="BN2" s="3">
-        <v>4.1654999999999998</v>
+        <v>3.9855</v>
       </c>
       <c r="BO2" s="3">
-        <v>4.1413000000000002</v>
+        <v>3.9613</v>
       </c>
       <c r="BP2" s="3">
-        <v>4.1532</v>
+        <v>3.9731999999999998</v>
       </c>
       <c r="BQ2" s="3">
-        <v>4.1496000000000004</v>
+        <v>3.9695999999999998</v>
       </c>
       <c r="BR2" s="3">
-        <v>4.1642999999999999</v>
+        <v>3.9843000000000002</v>
       </c>
       <c r="BS2" s="3">
-        <v>3.9429000000000003</v>
+        <v>3.7629000000000001</v>
       </c>
       <c r="BT2" s="3"/>
       <c r="BU2" s="3">
-        <v>4.0301</v>
+        <v>3.8500999999999999</v>
       </c>
       <c r="BV2" s="3"/>
       <c r="BW2" s="3">
-        <v>4.0301</v>
+        <v>3.8500999999999999</v>
       </c>
       <c r="BX2" s="3">
-        <v>4.0595203389830514</v>
+        <v>3.8793677966101709</v>
       </c>
       <c r="BY2" s="3">
-        <v>4.0701772727272729</v>
+        <v>3.8900409090909083</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.8368000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.8678000000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.8700999999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.8763000000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.7739000000000003</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.8230999999999997</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="J3" s="3">
+        <v>3.9754999999999998</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.9778000000000002</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.9325999999999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3.9443000000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3.9858000000000002</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3.9874999999999998</v>
+      </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="Q3" s="3">
+        <v>3.8489</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.8512</v>
+      </c>
+      <c r="S3" s="3">
+        <v>3.8407</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3.843</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="V3" s="3">
+        <v>3.9223000000000003</v>
+      </c>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="3">
+        <v>3.7399</v>
+      </c>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="Z3" s="3">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>3.9285999999999999</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>3.9045000000000001</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>3.7328999999999999</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>3.7528999999999999</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>3.7345999999999999</v>
+      </c>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
+      <c r="AI3" s="3">
+        <v>3.7946999999999997</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>3.7946999999999997</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>3.7836999999999996</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>3.9325999999999999</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>3.9470000000000001</v>
+      </c>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="3">
+        <v>3.8214999999999999</v>
+      </c>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
+      <c r="AR3" s="3">
+        <v>3.7518000000000002</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>3.8518000000000003</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>3.8965999999999998</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>3.8989000000000003</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>3.9241999999999999</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>3.9326999999999996</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>3.8390999999999997</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>4.1166</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>4.1566000000000001</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>3.7853000000000003</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>3.8656999999999999</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>3.8688000000000002</v>
+      </c>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
+      <c r="BE3" s="3">
+        <v>3.8874</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>3.8896999999999999</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>3.7185000000000001</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>3.766</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>3.7435</v>
+      </c>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
+      <c r="BK3" s="3">
+        <v>3.7185000000000001</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>3.9771999999999998</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>3.9899</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>3.9855</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>3.9613</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>3.9731999999999998</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>3.9695999999999998</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>3.9843000000000002</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>3.7629000000000001</v>
+      </c>
       <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
+      <c r="BU3" s="3">
+        <v>3.8500999999999999</v>
+      </c>
       <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
+      <c r="BW3" s="3">
+        <v>3.8500999999999999</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>3.8793677966101709</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>3.8900409090909083</v>
+      </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.8191999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.8678000000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.8700999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.8763000000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.8780000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.7739000000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.8230999999999997</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="J4" s="3">
+        <v>3.9754999999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.9778000000000002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3.9325999999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3.9443000000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3.9858000000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3.9874999999999998</v>
+      </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
+      <c r="Q4" s="3">
+        <v>3.8489</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3.8512</v>
+      </c>
+      <c r="S4" s="3">
+        <v>3.8407</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3.843</v>
+      </c>
+      <c r="U4" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="V4" s="3">
+        <v>3.9223000000000003</v>
+      </c>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="3">
+        <v>3.7399</v>
+      </c>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="Z4" s="3">
+        <v>3.9169999999999998</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>3.9285999999999999</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>3.9045000000000001</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>3.7328999999999999</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>3.7528999999999999</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>3.7345999999999999</v>
+      </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
+      <c r="AI4" s="3">
+        <v>3.7946999999999997</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>3.7946999999999997</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>3.7836999999999996</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>3.9325999999999999</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>3.9470000000000001</v>
+      </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
+      <c r="AP4" s="3">
+        <v>3.8214999999999999</v>
+      </c>
       <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
+      <c r="AR4" s="3">
+        <v>3.7518000000000002</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>3.8518000000000003</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>3.8965999999999998</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>3.8989000000000003</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>3.9241999999999999</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>3.9326999999999996</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>3.8390999999999997</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>4.1166</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>4.1566000000000001</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>3.7853000000000003</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>3.8656999999999999</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>3.8688000000000002</v>
+      </c>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
+      <c r="BE4" s="3">
+        <v>3.8874</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>3.8896999999999999</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>3.7185000000000001</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>3.766</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>3.7435</v>
+      </c>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
+      <c r="BK4" s="3">
+        <v>3.7185000000000001</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>3.9771999999999998</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>3.9899</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>3.9855</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>3.9613</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>3.9731999999999998</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>3.9695999999999998</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>3.9843000000000002</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>3.7629000000000001</v>
+      </c>
       <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
+      <c r="BU4" s="3">
+        <v>3.8500999999999999</v>
+      </c>
       <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
+      <c r="BW4" s="3">
+        <v>3.8500999999999999</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>3.8793677966101709</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>3.8900409090909083</v>
+      </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -64780,85 +65036,6 @@
       <c r="BX808" s="3"/>
       <c r="BY808" s="3"/>
     </row>
-    <row r="809" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A809" s="2"/>
-      <c r="B809" s="3"/>
-      <c r="C809" s="3"/>
-      <c r="D809" s="3"/>
-      <c r="E809" s="3"/>
-      <c r="F809" s="3"/>
-      <c r="G809" s="3"/>
-      <c r="H809" s="3"/>
-      <c r="I809" s="3"/>
-      <c r="J809" s="3"/>
-      <c r="K809" s="3"/>
-      <c r="L809" s="3"/>
-      <c r="M809" s="3"/>
-      <c r="N809" s="3"/>
-      <c r="O809" s="3"/>
-      <c r="P809" s="3"/>
-      <c r="Q809" s="3"/>
-      <c r="R809" s="3"/>
-      <c r="S809" s="3"/>
-      <c r="T809" s="3"/>
-      <c r="U809" s="3"/>
-      <c r="V809" s="3"/>
-      <c r="W809" s="3"/>
-      <c r="X809" s="3"/>
-      <c r="Y809" s="3"/>
-      <c r="Z809" s="3"/>
-      <c r="AA809" s="3"/>
-      <c r="AB809" s="3"/>
-      <c r="AC809" s="3"/>
-      <c r="AD809" s="3"/>
-      <c r="AE809" s="3"/>
-      <c r="AF809" s="3"/>
-      <c r="AG809" s="3"/>
-      <c r="AH809" s="3"/>
-      <c r="AI809" s="3"/>
-      <c r="AJ809" s="3"/>
-      <c r="AK809" s="3"/>
-      <c r="AL809" s="3"/>
-      <c r="AM809" s="3"/>
-      <c r="AN809" s="3"/>
-      <c r="AO809" s="3"/>
-      <c r="AP809" s="3"/>
-      <c r="AQ809" s="3"/>
-      <c r="AR809" s="3"/>
-      <c r="AS809" s="3"/>
-      <c r="AT809" s="3"/>
-      <c r="AU809" s="3"/>
-      <c r="AV809" s="3"/>
-      <c r="AW809" s="3"/>
-      <c r="AX809" s="3"/>
-      <c r="AY809" s="3"/>
-      <c r="AZ809" s="3"/>
-      <c r="BA809" s="3"/>
-      <c r="BB809" s="3"/>
-      <c r="BC809" s="3"/>
-      <c r="BD809" s="3"/>
-      <c r="BE809" s="3"/>
-      <c r="BF809" s="3"/>
-      <c r="BG809" s="3"/>
-      <c r="BH809" s="3"/>
-      <c r="BI809" s="3"/>
-      <c r="BJ809" s="3"/>
-      <c r="BK809" s="3"/>
-      <c r="BL809" s="3"/>
-      <c r="BM809" s="3"/>
-      <c r="BN809" s="3"/>
-      <c r="BO809" s="3"/>
-      <c r="BP809" s="3"/>
-      <c r="BQ809" s="3"/>
-      <c r="BR809" s="3"/>
-      <c r="BS809" s="3"/>
-      <c r="BT809" s="3"/>
-      <c r="BU809" s="3"/>
-      <c r="BV809" s="3"/>
-      <c r="BW809" s="3"/>
-      <c r="BX809" s="3"/>
-      <c r="BY809" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_s10.xlsx
+++ b/historico_s10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32CD9C2-D594-49E9-889F-944BBFC6E176}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EEDA1D-4330-4A69-9AE3-B0A5534975A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -658,15 +658,15 @@
   <dimension ref="A1:BY808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,9 +899,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45010</v>
+        <v>45013</v>
       </c>
       <c r="B2" s="3">
         <v>3.8368000000000002</v>
@@ -1106,421 +1106,165 @@
         <v>3.8900409090909083</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45011</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.8368000000000002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.8678000000000003</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.8700999999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.8763000000000001</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <v>3.7739000000000003</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.8230999999999997</v>
-      </c>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>3.9754999999999998</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3.9778000000000002</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3.9443000000000001</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3.9858000000000002</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3.9874999999999998</v>
-      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3">
-        <v>3.8489</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3.8512</v>
-      </c>
-      <c r="S3" s="3">
-        <v>3.8407</v>
-      </c>
-      <c r="T3" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="U3" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="V3" s="3">
-        <v>3.9223000000000003</v>
-      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3">
-        <v>3.7399</v>
-      </c>
+      <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3">
-        <v>3.9169999999999998</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>3.9285999999999999</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>3.9045000000000001</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>3.7328999999999999</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>3.7528999999999999</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>3.7345999999999999</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>3.7836999999999996</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>3.9470000000000001</v>
-      </c>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
-      <c r="AP3" s="3">
-        <v>3.8214999999999999</v>
-      </c>
+      <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
-      <c r="AR3" s="3">
-        <v>3.7518000000000002</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>3.8518000000000003</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>3.8965999999999998</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>3.8989000000000003</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>3.9241999999999999</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>3.9326999999999996</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>3.8390999999999997</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>4.1166</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>4.1566000000000001</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>3.7853000000000003</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>3.8656999999999999</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>3.8688000000000002</v>
-      </c>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
       <c r="BD3" s="3"/>
-      <c r="BE3" s="3">
-        <v>3.8874</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>3.766</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>3.7435</v>
-      </c>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>3.9899</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>3.9855</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>3.9613</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>3.9731999999999998</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>3.9695999999999998</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>3.9843000000000002</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>3.7629000000000001</v>
-      </c>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
       <c r="BT3" s="3"/>
-      <c r="BU3" s="3">
-        <v>3.8500999999999999</v>
-      </c>
+      <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
-      <c r="BW3" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>3.8793677966101709</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>3.8900409090909083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45012</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3.8191999999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3.8678000000000003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3.8700999999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.8763000000000001</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.8780000000000001</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.7739000000000003</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3.8230999999999997</v>
-      </c>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3">
-        <v>3.9754999999999998</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3.9778000000000002</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="M4" s="3">
-        <v>3.9443000000000001</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3.9858000000000002</v>
-      </c>
-      <c r="O4" s="3">
-        <v>3.9874999999999998</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <v>3.8489</v>
-      </c>
-      <c r="R4" s="3">
-        <v>3.8512</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3.8407</v>
-      </c>
-      <c r="T4" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="U4" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3.9223000000000003</v>
-      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3">
-        <v>3.7399</v>
-      </c>
+      <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
-        <v>3.9169999999999998</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>3.9285999999999999</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>3.8849999999999998</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>3.9045000000000001</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>3.7328999999999999</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>3.7528999999999999</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>3.7345999999999999</v>
-      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>3.7946999999999997</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>3.7836999999999996</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>3.9325999999999999</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>3.9470000000000001</v>
-      </c>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-      <c r="AP4" s="3">
-        <v>3.8214999999999999</v>
-      </c>
+      <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
-      <c r="AR4" s="3">
-        <v>3.7518000000000002</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>3.8518000000000003</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>3.8965999999999998</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>3.8989000000000003</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>3.9241999999999999</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>3.9326999999999996</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>3.8390999999999997</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>4.1166</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>4.1566000000000001</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>3.7853000000000003</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>3.8656999999999999</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>3.8688000000000002</v>
-      </c>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
       <c r="BD4" s="3"/>
-      <c r="BE4" s="3">
-        <v>3.8874</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>3.8896999999999999</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>3.766</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>3.7435</v>
-      </c>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="3">
-        <v>3.7185000000000001</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>3.9771999999999998</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>3.9899</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>3.9855</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>3.9613</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>3.9731999999999998</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>3.9695999999999998</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>3.9843000000000002</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>3.7629000000000001</v>
-      </c>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
       <c r="BT4" s="3"/>
-      <c r="BU4" s="3">
-        <v>3.8500999999999999</v>
-      </c>
+      <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
-      <c r="BW4" s="3">
-        <v>3.8500999999999999</v>
-      </c>
-      <c r="BX4" s="3">
-        <v>3.8793677966101709</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>3.8900409090909083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1599,7 +1343,7 @@
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1678,7 +1422,7 @@
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1757,7 +1501,7 @@
       <c r="BX7" s="3"/>
       <c r="BY7" s="3"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1836,7 +1580,7 @@
       <c r="BX8" s="3"/>
       <c r="BY8" s="3"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1915,7 +1659,7 @@
       <c r="BX9" s="3"/>
       <c r="BY9" s="3"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1994,7 +1738,7 @@
       <c r="BX10" s="3"/>
       <c r="BY10" s="3"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2073,7 +1817,7 @@
       <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2152,7 +1896,7 @@
       <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2231,7 +1975,7 @@
       <c r="BX13" s="3"/>
       <c r="BY13" s="3"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2310,7 +2054,7 @@
       <c r="BX14" s="3"/>
       <c r="BY14" s="3"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2389,7 +2133,7 @@
       <c r="BX15" s="3"/>
       <c r="BY15" s="3"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2468,7 +2212,7 @@
       <c r="BX16" s="3"/>
       <c r="BY16" s="3"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2547,7 +2291,7 @@
       <c r="BX17" s="3"/>
       <c r="BY17" s="3"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2626,7 +2370,7 @@
       <c r="BX18" s="3"/>
       <c r="BY18" s="3"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2705,7 +2449,7 @@
       <c r="BX19" s="3"/>
       <c r="BY19" s="3"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2784,7 +2528,7 @@
       <c r="BX20" s="3"/>
       <c r="BY20" s="3"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2863,7 +2607,7 @@
       <c r="BX21" s="3"/>
       <c r="BY21" s="3"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2942,7 +2686,7 @@
       <c r="BX22" s="3"/>
       <c r="BY22" s="3"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3021,7 +2765,7 @@
       <c r="BX23" s="3"/>
       <c r="BY23" s="3"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3100,7 +2844,7 @@
       <c r="BX24" s="3"/>
       <c r="BY24" s="3"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3179,7 +2923,7 @@
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3258,7 +3002,7 @@
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3337,7 +3081,7 @@
       <c r="BX27" s="3"/>
       <c r="BY27" s="3"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3416,7 +3160,7 @@
       <c r="BX28" s="3"/>
       <c r="BY28" s="3"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3495,7 +3239,7 @@
       <c r="BX29" s="3"/>
       <c r="BY29" s="3"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3574,7 +3318,7 @@
       <c r="BX30" s="3"/>
       <c r="BY30" s="3"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3653,7 +3397,7 @@
       <c r="BX31" s="3"/>
       <c r="BY31" s="3"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3732,7 +3476,7 @@
       <c r="BX32" s="3"/>
       <c r="BY32" s="3"/>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3811,7 +3555,7 @@
       <c r="BX33" s="3"/>
       <c r="BY33" s="3"/>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3890,7 +3634,7 @@
       <c r="BX34" s="3"/>
       <c r="BY34" s="3"/>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3969,7 +3713,7 @@
       <c r="BX35" s="3"/>
       <c r="BY35" s="3"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4048,7 +3792,7 @@
       <c r="BX36" s="3"/>
       <c r="BY36" s="3"/>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4127,7 +3871,7 @@
       <c r="BX37" s="3"/>
       <c r="BY37" s="3"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4206,7 +3950,7 @@
       <c r="BX38" s="3"/>
       <c r="BY38" s="3"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4285,7 +4029,7 @@
       <c r="BX39" s="3"/>
       <c r="BY39" s="3"/>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4364,7 +4108,7 @@
       <c r="BX40" s="3"/>
       <c r="BY40" s="3"/>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4443,7 +4187,7 @@
       <c r="BX41" s="3"/>
       <c r="BY41" s="3"/>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4522,7 +4266,7 @@
       <c r="BX42" s="3"/>
       <c r="BY42" s="3"/>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4601,7 +4345,7 @@
       <c r="BX43" s="3"/>
       <c r="BY43" s="3"/>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4680,7 +4424,7 @@
       <c r="BX44" s="3"/>
       <c r="BY44" s="3"/>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4759,7 +4503,7 @@
       <c r="BX45" s="3"/>
       <c r="BY45" s="3"/>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4838,7 +4582,7 @@
       <c r="BX46" s="3"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4917,7 +4661,7 @@
       <c r="BX47" s="3"/>
       <c r="BY47" s="3"/>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4996,7 +4740,7 @@
       <c r="BX48" s="3"/>
       <c r="BY48" s="3"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5075,7 +4819,7 @@
       <c r="BX49" s="3"/>
       <c r="BY49" s="3"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5154,7 +4898,7 @@
       <c r="BX50" s="3"/>
       <c r="BY50" s="3"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5233,7 +4977,7 @@
       <c r="BX51" s="3"/>
       <c r="BY51" s="3"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5312,7 +5056,7 @@
       <c r="BX52" s="3"/>
       <c r="BY52" s="3"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5391,7 +5135,7 @@
       <c r="BX53" s="3"/>
       <c r="BY53" s="3"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5470,7 +5214,7 @@
       <c r="BX54" s="3"/>
       <c r="BY54" s="3"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5549,7 +5293,7 @@
       <c r="BX55" s="3"/>
       <c r="BY55" s="3"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5628,7 +5372,7 @@
       <c r="BX56" s="3"/>
       <c r="BY56" s="3"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5707,7 +5451,7 @@
       <c r="BX57" s="3"/>
       <c r="BY57" s="3"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5786,7 +5530,7 @@
       <c r="BX58" s="3"/>
       <c r="BY58" s="3"/>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5865,7 +5609,7 @@
       <c r="BX59" s="3"/>
       <c r="BY59" s="3"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5944,7 +5688,7 @@
       <c r="BX60" s="3"/>
       <c r="BY60" s="3"/>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6023,7 +5767,7 @@
       <c r="BX61" s="3"/>
       <c r="BY61" s="3"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6102,7 +5846,7 @@
       <c r="BX62" s="3"/>
       <c r="BY62" s="3"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6181,7 +5925,7 @@
       <c r="BX63" s="3"/>
       <c r="BY63" s="3"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6260,7 +6004,7 @@
       <c r="BX64" s="3"/>
       <c r="BY64" s="3"/>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6339,7 +6083,7 @@
       <c r="BX65" s="3"/>
       <c r="BY65" s="3"/>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6418,7 +6162,7 @@
       <c r="BX66" s="3"/>
       <c r="BY66" s="3"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6497,7 +6241,7 @@
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6576,7 +6320,7 @@
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6655,7 +6399,7 @@
       <c r="BX69" s="3"/>
       <c r="BY69" s="3"/>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6734,7 +6478,7 @@
       <c r="BX70" s="3"/>
       <c r="BY70" s="3"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6813,7 +6557,7 @@
       <c r="BX71" s="3"/>
       <c r="BY71" s="3"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6892,7 +6636,7 @@
       <c r="BX72" s="3"/>
       <c r="BY72" s="3"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6971,7 +6715,7 @@
       <c r="BX73" s="3"/>
       <c r="BY73" s="3"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7050,7 +6794,7 @@
       <c r="BX74" s="3"/>
       <c r="BY74" s="3"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7129,7 +6873,7 @@
       <c r="BX75" s="3"/>
       <c r="BY75" s="3"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7208,7 +6952,7 @@
       <c r="BX76" s="3"/>
       <c r="BY76" s="3"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7287,7 +7031,7 @@
       <c r="BX77" s="3"/>
       <c r="BY77" s="3"/>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7366,7 +7110,7 @@
       <c r="BX78" s="3"/>
       <c r="BY78" s="3"/>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7445,7 +7189,7 @@
       <c r="BX79" s="3"/>
       <c r="BY79" s="3"/>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7524,7 +7268,7 @@
       <c r="BX80" s="3"/>
       <c r="BY80" s="3"/>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7603,7 +7347,7 @@
       <c r="BX81" s="3"/>
       <c r="BY81" s="3"/>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7682,7 +7426,7 @@
       <c r="BX82" s="3"/>
       <c r="BY82" s="3"/>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7761,7 +7505,7 @@
       <c r="BX83" s="3"/>
       <c r="BY83" s="3"/>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -7840,7 +7584,7 @@
       <c r="BX84" s="3"/>
       <c r="BY84" s="3"/>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7919,7 +7663,7 @@
       <c r="BX85" s="3"/>
       <c r="BY85" s="3"/>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7998,7 +7742,7 @@
       <c r="BX86" s="3"/>
       <c r="BY86" s="3"/>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -8077,7 +7821,7 @@
       <c r="BX87" s="3"/>
       <c r="BY87" s="3"/>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -8156,7 +7900,7 @@
       <c r="BX88" s="3"/>
       <c r="BY88" s="3"/>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -8235,7 +7979,7 @@
       <c r="BX89" s="3"/>
       <c r="BY89" s="3"/>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -8314,7 +8058,7 @@
       <c r="BX90" s="3"/>
       <c r="BY90" s="3"/>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8393,7 +8137,7 @@
       <c r="BX91" s="3"/>
       <c r="BY91" s="3"/>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -8472,7 +8216,7 @@
       <c r="BX92" s="3"/>
       <c r="BY92" s="3"/>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8551,7 +8295,7 @@
       <c r="BX93" s="3"/>
       <c r="BY93" s="3"/>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -8630,7 +8374,7 @@
       <c r="BX94" s="3"/>
       <c r="BY94" s="3"/>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8709,7 +8453,7 @@
       <c r="BX95" s="3"/>
       <c r="BY95" s="3"/>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -8788,7 +8532,7 @@
       <c r="BX96" s="3"/>
       <c r="BY96" s="3"/>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -8867,7 +8611,7 @@
       <c r="BX97" s="3"/>
       <c r="BY97" s="3"/>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -8946,7 +8690,7 @@
       <c r="BX98" s="3"/>
       <c r="BY98" s="3"/>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -9025,7 +8769,7 @@
       <c r="BX99" s="3"/>
       <c r="BY99" s="3"/>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -9104,7 +8848,7 @@
       <c r="BX100" s="3"/>
       <c r="BY100" s="3"/>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -9183,7 +8927,7 @@
       <c r="BX101" s="3"/>
       <c r="BY101" s="3"/>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -9262,7 +9006,7 @@
       <c r="BX102" s="3"/>
       <c r="BY102" s="3"/>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -9341,7 +9085,7 @@
       <c r="BX103" s="3"/>
       <c r="BY103" s="3"/>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -9420,7 +9164,7 @@
       <c r="BX104" s="3"/>
       <c r="BY104" s="3"/>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -9499,7 +9243,7 @@
       <c r="BX105" s="3"/>
       <c r="BY105" s="3"/>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -9578,7 +9322,7 @@
       <c r="BX106" s="3"/>
       <c r="BY106" s="3"/>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -9657,7 +9401,7 @@
       <c r="BX107" s="3"/>
       <c r="BY107" s="3"/>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -9736,7 +9480,7 @@
       <c r="BX108" s="3"/>
       <c r="BY108" s="3"/>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -9815,7 +9559,7 @@
       <c r="BX109" s="3"/>
       <c r="BY109" s="3"/>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -9894,7 +9638,7 @@
       <c r="BX110" s="3"/>
       <c r="BY110" s="3"/>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -9973,7 +9717,7 @@
       <c r="BX111" s="3"/>
       <c r="BY111" s="3"/>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -10052,7 +9796,7 @@
       <c r="BX112" s="3"/>
       <c r="BY112" s="3"/>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -10131,7 +9875,7 @@
       <c r="BX113" s="3"/>
       <c r="BY113" s="3"/>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -10210,7 +9954,7 @@
       <c r="BX114" s="3"/>
       <c r="BY114" s="3"/>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -10289,7 +10033,7 @@
       <c r="BX115" s="3"/>
       <c r="BY115" s="3"/>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -10368,7 +10112,7 @@
       <c r="BX116" s="3"/>
       <c r="BY116" s="3"/>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -10447,7 +10191,7 @@
       <c r="BX117" s="3"/>
       <c r="BY117" s="3"/>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -10526,7 +10270,7 @@
       <c r="BX118" s="3"/>
       <c r="BY118" s="3"/>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -10605,7 +10349,7 @@
       <c r="BX119" s="3"/>
       <c r="BY119" s="3"/>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -10684,7 +10428,7 @@
       <c r="BX120" s="3"/>
       <c r="BY120" s="3"/>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -10763,7 +10507,7 @@
       <c r="BX121" s="3"/>
       <c r="BY121" s="3"/>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -10842,7 +10586,7 @@
       <c r="BX122" s="3"/>
       <c r="BY122" s="3"/>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -10921,7 +10665,7 @@
       <c r="BX123" s="3"/>
       <c r="BY123" s="3"/>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -11000,7 +10744,7 @@
       <c r="BX124" s="3"/>
       <c r="BY124" s="3"/>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -11079,7 +10823,7 @@
       <c r="BX125" s="3"/>
       <c r="BY125" s="3"/>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -11158,7 +10902,7 @@
       <c r="BX126" s="3"/>
       <c r="BY126" s="3"/>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -11237,7 +10981,7 @@
       <c r="BX127" s="3"/>
       <c r="BY127" s="3"/>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -11316,7 +11060,7 @@
       <c r="BX128" s="3"/>
       <c r="BY128" s="3"/>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -11395,7 +11139,7 @@
       <c r="BX129" s="3"/>
       <c r="BY129" s="3"/>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -11474,7 +11218,7 @@
       <c r="BX130" s="3"/>
       <c r="BY130" s="3"/>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -11553,7 +11297,7 @@
       <c r="BX131" s="3"/>
       <c r="BY131" s="3"/>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -11632,7 +11376,7 @@
       <c r="BX132" s="3"/>
       <c r="BY132" s="3"/>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -11711,7 +11455,7 @@
       <c r="BX133" s="3"/>
       <c r="BY133" s="3"/>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -11790,7 +11534,7 @@
       <c r="BX134" s="3"/>
       <c r="BY134" s="3"/>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -11869,7 +11613,7 @@
       <c r="BX135" s="3"/>
       <c r="BY135" s="3"/>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -11948,7 +11692,7 @@
       <c r="BX136" s="3"/>
       <c r="BY136" s="3"/>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -12027,7 +11771,7 @@
       <c r="BX137" s="3"/>
       <c r="BY137" s="3"/>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -12106,7 +11850,7 @@
       <c r="BX138" s="3"/>
       <c r="BY138" s="3"/>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -12185,7 +11929,7 @@
       <c r="BX139" s="3"/>
       <c r="BY139" s="3"/>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -12264,7 +12008,7 @@
       <c r="BX140" s="3"/>
       <c r="BY140" s="3"/>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -12343,7 +12087,7 @@
       <c r="BX141" s="3"/>
       <c r="BY141" s="3"/>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -12422,7 +12166,7 @@
       <c r="BX142" s="3"/>
       <c r="BY142" s="3"/>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -12501,7 +12245,7 @@
       <c r="BX143" s="3"/>
       <c r="BY143" s="3"/>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -12580,7 +12324,7 @@
       <c r="BX144" s="3"/>
       <c r="BY144" s="3"/>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -12659,7 +12403,7 @@
       <c r="BX145" s="3"/>
       <c r="BY145" s="3"/>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -12738,7 +12482,7 @@
       <c r="BX146" s="3"/>
       <c r="BY146" s="3"/>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -12817,7 +12561,7 @@
       <c r="BX147" s="3"/>
       <c r="BY147" s="3"/>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -12896,7 +12640,7 @@
       <c r="BX148" s="3"/>
       <c r="BY148" s="3"/>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -12975,7 +12719,7 @@
       <c r="BX149" s="3"/>
       <c r="BY149" s="3"/>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -13054,7 +12798,7 @@
       <c r="BX150" s="3"/>
       <c r="BY150" s="3"/>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -13133,7 +12877,7 @@
       <c r="BX151" s="3"/>
       <c r="BY151" s="3"/>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -13212,7 +12956,7 @@
       <c r="BX152" s="3"/>
       <c r="BY152" s="3"/>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -13291,7 +13035,7 @@
       <c r="BX153" s="3"/>
       <c r="BY153" s="3"/>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -13370,7 +13114,7 @@
       <c r="BX154" s="3"/>
       <c r="BY154" s="3"/>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -13449,7 +13193,7 @@
       <c r="BX155" s="3"/>
       <c r="BY155" s="3"/>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -13528,7 +13272,7 @@
       <c r="BX156" s="3"/>
       <c r="BY156" s="3"/>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -13607,7 +13351,7 @@
       <c r="BX157" s="3"/>
       <c r="BY157" s="3"/>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -13686,7 +13430,7 @@
       <c r="BX158" s="3"/>
       <c r="BY158" s="3"/>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -13765,7 +13509,7 @@
       <c r="BX159" s="3"/>
       <c r="BY159" s="3"/>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -13844,7 +13588,7 @@
       <c r="BX160" s="3"/>
       <c r="BY160" s="3"/>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -13923,7 +13667,7 @@
       <c r="BX161" s="3"/>
       <c r="BY161" s="3"/>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -14002,7 +13746,7 @@
       <c r="BX162" s="3"/>
       <c r="BY162" s="3"/>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -14081,7 +13825,7 @@
       <c r="BX163" s="3"/>
       <c r="BY163" s="3"/>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -14160,7 +13904,7 @@
       <c r="BX164" s="3"/>
       <c r="BY164" s="3"/>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -14239,7 +13983,7 @@
       <c r="BX165" s="3"/>
       <c r="BY165" s="3"/>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -14318,7 +14062,7 @@
       <c r="BX166" s="3"/>
       <c r="BY166" s="3"/>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -14397,7 +14141,7 @@
       <c r="BX167" s="3"/>
       <c r="BY167" s="3"/>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -14476,7 +14220,7 @@
       <c r="BX168" s="3"/>
       <c r="BY168" s="3"/>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -14555,7 +14299,7 @@
       <c r="BX169" s="3"/>
       <c r="BY169" s="3"/>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -14634,7 +14378,7 @@
       <c r="BX170" s="3"/>
       <c r="BY170" s="3"/>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -14713,7 +14457,7 @@
       <c r="BX171" s="3"/>
       <c r="BY171" s="3"/>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -14792,7 +14536,7 @@
       <c r="BX172" s="3"/>
       <c r="BY172" s="3"/>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -14871,7 +14615,7 @@
       <c r="BX173" s="3"/>
       <c r="BY173" s="3"/>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -14950,7 +14694,7 @@
       <c r="BX174" s="3"/>
       <c r="BY174" s="3"/>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -15029,7 +14773,7 @@
       <c r="BX175" s="3"/>
       <c r="BY175" s="3"/>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -15108,7 +14852,7 @@
       <c r="BX176" s="3"/>
       <c r="BY176" s="3"/>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -15187,7 +14931,7 @@
       <c r="BX177" s="3"/>
       <c r="BY177" s="3"/>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -15266,7 +15010,7 @@
       <c r="BX178" s="3"/>
       <c r="BY178" s="3"/>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -15345,7 +15089,7 @@
       <c r="BX179" s="3"/>
       <c r="BY179" s="3"/>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -15424,7 +15168,7 @@
       <c r="BX180" s="3"/>
       <c r="BY180" s="3"/>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -15503,7 +15247,7 @@
       <c r="BX181" s="3"/>
       <c r="BY181" s="3"/>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -15582,7 +15326,7 @@
       <c r="BX182" s="3"/>
       <c r="BY182" s="3"/>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -15661,7 +15405,7 @@
       <c r="BX183" s="3"/>
       <c r="BY183" s="3"/>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -15740,7 +15484,7 @@
       <c r="BX184" s="3"/>
       <c r="BY184" s="3"/>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -15819,7 +15563,7 @@
       <c r="BX185" s="3"/>
       <c r="BY185" s="3"/>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -15898,7 +15642,7 @@
       <c r="BX186" s="3"/>
       <c r="BY186" s="3"/>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -15977,7 +15721,7 @@
       <c r="BX187" s="3"/>
       <c r="BY187" s="3"/>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -16056,7 +15800,7 @@
       <c r="BX188" s="3"/>
       <c r="BY188" s="3"/>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -16135,7 +15879,7 @@
       <c r="BX189" s="3"/>
       <c r="BY189" s="3"/>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -16214,7 +15958,7 @@
       <c r="BX190" s="3"/>
       <c r="BY190" s="3"/>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -16293,7 +16037,7 @@
       <c r="BX191" s="3"/>
       <c r="BY191" s="3"/>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -16372,7 +16116,7 @@
       <c r="BX192" s="3"/>
       <c r="BY192" s="3"/>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -16451,7 +16195,7 @@
       <c r="BX193" s="3"/>
       <c r="BY193" s="3"/>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -16530,7 +16274,7 @@
       <c r="BX194" s="3"/>
       <c r="BY194" s="3"/>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -16609,7 +16353,7 @@
       <c r="BX195" s="3"/>
       <c r="BY195" s="3"/>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -16688,7 +16432,7 @@
       <c r="BX196" s="3"/>
       <c r="BY196" s="3"/>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -16767,7 +16511,7 @@
       <c r="BX197" s="3"/>
       <c r="BY197" s="3"/>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -16846,7 +16590,7 @@
       <c r="BX198" s="3"/>
       <c r="BY198" s="3"/>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -16925,7 +16669,7 @@
       <c r="BX199" s="3"/>
       <c r="BY199" s="3"/>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -17004,7 +16748,7 @@
       <c r="BX200" s="3"/>
       <c r="BY200" s="3"/>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -17083,7 +16827,7 @@
       <c r="BX201" s="3"/>
       <c r="BY201" s="3"/>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -17162,7 +16906,7 @@
       <c r="BX202" s="3"/>
       <c r="BY202" s="3"/>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -17241,7 +16985,7 @@
       <c r="BX203" s="3"/>
       <c r="BY203" s="3"/>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -17320,7 +17064,7 @@
       <c r="BX204" s="3"/>
       <c r="BY204" s="3"/>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -17399,7 +17143,7 @@
       <c r="BX205" s="3"/>
       <c r="BY205" s="3"/>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -17478,7 +17222,7 @@
       <c r="BX206" s="3"/>
       <c r="BY206" s="3"/>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -17557,7 +17301,7 @@
       <c r="BX207" s="3"/>
       <c r="BY207" s="3"/>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -17636,7 +17380,7 @@
       <c r="BX208" s="3"/>
       <c r="BY208" s="3"/>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -17715,7 +17459,7 @@
       <c r="BX209" s="3"/>
       <c r="BY209" s="3"/>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -17794,7 +17538,7 @@
       <c r="BX210" s="3"/>
       <c r="BY210" s="3"/>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -17873,7 +17617,7 @@
       <c r="BX211" s="3"/>
       <c r="BY211" s="3"/>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -17952,7 +17696,7 @@
       <c r="BX212" s="3"/>
       <c r="BY212" s="3"/>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -18031,7 +17775,7 @@
       <c r="BX213" s="3"/>
       <c r="BY213" s="3"/>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -18110,7 +17854,7 @@
       <c r="BX214" s="3"/>
       <c r="BY214" s="3"/>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -18189,7 +17933,7 @@
       <c r="BX215" s="3"/>
       <c r="BY215" s="3"/>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -18268,7 +18012,7 @@
       <c r="BX216" s="3"/>
       <c r="BY216" s="3"/>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -18347,7 +18091,7 @@
       <c r="BX217" s="3"/>
       <c r="BY217" s="3"/>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -18426,7 +18170,7 @@
       <c r="BX218" s="3"/>
       <c r="BY218" s="3"/>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -18505,7 +18249,7 @@
       <c r="BX219" s="3"/>
       <c r="BY219" s="3"/>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -18584,7 +18328,7 @@
       <c r="BX220" s="3"/>
       <c r="BY220" s="3"/>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -18663,7 +18407,7 @@
       <c r="BX221" s="3"/>
       <c r="BY221" s="3"/>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -18742,7 +18486,7 @@
       <c r="BX222" s="3"/>
       <c r="BY222" s="3"/>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -18821,7 +18565,7 @@
       <c r="BX223" s="3"/>
       <c r="BY223" s="3"/>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -18900,7 +18644,7 @@
       <c r="BX224" s="3"/>
       <c r="BY224" s="3"/>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -18979,7 +18723,7 @@
       <c r="BX225" s="3"/>
       <c r="BY225" s="3"/>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -19058,7 +18802,7 @@
       <c r="BX226" s="3"/>
       <c r="BY226" s="3"/>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -19137,7 +18881,7 @@
       <c r="BX227" s="3"/>
       <c r="BY227" s="3"/>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -19216,7 +18960,7 @@
       <c r="BX228" s="3"/>
       <c r="BY228" s="3"/>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -19295,7 +19039,7 @@
       <c r="BX229" s="3"/>
       <c r="BY229" s="3"/>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -19374,7 +19118,7 @@
       <c r="BX230" s="3"/>
       <c r="BY230" s="3"/>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -19453,7 +19197,7 @@
       <c r="BX231" s="3"/>
       <c r="BY231" s="3"/>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -19532,7 +19276,7 @@
       <c r="BX232" s="3"/>
       <c r="BY232" s="3"/>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -19611,7 +19355,7 @@
       <c r="BX233" s="3"/>
       <c r="BY233" s="3"/>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -19690,7 +19434,7 @@
       <c r="BX234" s="3"/>
       <c r="BY234" s="3"/>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -19769,7 +19513,7 @@
       <c r="BX235" s="3"/>
       <c r="BY235" s="3"/>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -19848,7 +19592,7 @@
       <c r="BX236" s="3"/>
       <c r="BY236" s="3"/>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -19927,7 +19671,7 @@
       <c r="BX237" s="3"/>
       <c r="BY237" s="3"/>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -20006,7 +19750,7 @@
       <c r="BX238" s="3"/>
       <c r="BY238" s="3"/>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -20085,7 +19829,7 @@
       <c r="BX239" s="3"/>
       <c r="BY239" s="3"/>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -20164,7 +19908,7 @@
       <c r="BX240" s="3"/>
       <c r="BY240" s="3"/>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -20243,7 +19987,7 @@
       <c r="BX241" s="3"/>
       <c r="BY241" s="3"/>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -20322,7 +20066,7 @@
       <c r="BX242" s="3"/>
       <c r="BY242" s="3"/>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -20401,7 +20145,7 @@
       <c r="BX243" s="3"/>
       <c r="BY243" s="3"/>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -20480,7 +20224,7 @@
       <c r="BX244" s="3"/>
       <c r="BY244" s="3"/>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -20559,7 +20303,7 @@
       <c r="BX245" s="3"/>
       <c r="BY245" s="3"/>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -20638,7 +20382,7 @@
       <c r="BX246" s="3"/>
       <c r="BY246" s="3"/>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -20717,7 +20461,7 @@
       <c r="BX247" s="3"/>
       <c r="BY247" s="3"/>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -20796,7 +20540,7 @@
       <c r="BX248" s="3"/>
       <c r="BY248" s="3"/>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -20875,7 +20619,7 @@
       <c r="BX249" s="3"/>
       <c r="BY249" s="3"/>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -20954,7 +20698,7 @@
       <c r="BX250" s="3"/>
       <c r="BY250" s="3"/>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -21033,7 +20777,7 @@
       <c r="BX251" s="3"/>
       <c r="BY251" s="3"/>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -21112,7 +20856,7 @@
       <c r="BX252" s="3"/>
       <c r="BY252" s="3"/>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -21191,7 +20935,7 @@
       <c r="BX253" s="3"/>
       <c r="BY253" s="3"/>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -21270,7 +21014,7 @@
       <c r="BX254" s="3"/>
       <c r="BY254" s="3"/>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -21349,7 +21093,7 @@
       <c r="BX255" s="3"/>
       <c r="BY255" s="3"/>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -21428,7 +21172,7 @@
       <c r="BX256" s="3"/>
       <c r="BY256" s="3"/>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -21507,7 +21251,7 @@
       <c r="BX257" s="3"/>
       <c r="BY257" s="3"/>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -21586,7 +21330,7 @@
       <c r="BX258" s="3"/>
       <c r="BY258" s="3"/>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -21665,7 +21409,7 @@
       <c r="BX259" s="3"/>
       <c r="BY259" s="3"/>
     </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -21744,7 +21488,7 @@
       <c r="BX260" s="3"/>
       <c r="BY260" s="3"/>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -21823,7 +21567,7 @@
       <c r="BX261" s="3"/>
       <c r="BY261" s="3"/>
     </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -21902,7 +21646,7 @@
       <c r="BX262" s="3"/>
       <c r="BY262" s="3"/>
     </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -21981,7 +21725,7 @@
       <c r="BX263" s="3"/>
       <c r="BY263" s="3"/>
     </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -22060,7 +21804,7 @@
       <c r="BX264" s="3"/>
       <c r="BY264" s="3"/>
     </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -22139,7 +21883,7 @@
       <c r="BX265" s="3"/>
       <c r="BY265" s="3"/>
     </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -22218,7 +21962,7 @@
       <c r="BX266" s="3"/>
       <c r="BY266" s="3"/>
     </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -22297,7 +22041,7 @@
       <c r="BX267" s="3"/>
       <c r="BY267" s="3"/>
     </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -22376,7 +22120,7 @@
       <c r="BX268" s="3"/>
       <c r="BY268" s="3"/>
     </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -22455,7 +22199,7 @@
       <c r="BX269" s="3"/>
       <c r="BY269" s="3"/>
     </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -22534,7 +22278,7 @@
       <c r="BX270" s="3"/>
       <c r="BY270" s="3"/>
     </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -22613,7 +22357,7 @@
       <c r="BX271" s="3"/>
       <c r="BY271" s="3"/>
     </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -22692,7 +22436,7 @@
       <c r="BX272" s="3"/>
       <c r="BY272" s="3"/>
     </row>
-    <row r="273" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -22771,7 +22515,7 @@
       <c r="BX273" s="3"/>
       <c r="BY273" s="3"/>
     </row>
-    <row r="274" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -22850,7 +22594,7 @@
       <c r="BX274" s="3"/>
       <c r="BY274" s="3"/>
     </row>
-    <row r="275" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -22929,7 +22673,7 @@
       <c r="BX275" s="3"/>
       <c r="BY275" s="3"/>
     </row>
-    <row r="276" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -23008,7 +22752,7 @@
       <c r="BX276" s="3"/>
       <c r="BY276" s="3"/>
     </row>
-    <row r="277" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -23087,7 +22831,7 @@
       <c r="BX277" s="3"/>
       <c r="BY277" s="3"/>
     </row>
-    <row r="278" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -23166,7 +22910,7 @@
       <c r="BX278" s="3"/>
       <c r="BY278" s="3"/>
     </row>
-    <row r="279" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -23245,7 +22989,7 @@
       <c r="BX279" s="3"/>
       <c r="BY279" s="3"/>
     </row>
-    <row r="280" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -23324,7 +23068,7 @@
       <c r="BX280" s="3"/>
       <c r="BY280" s="3"/>
     </row>
-    <row r="281" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -23403,7 +23147,7 @@
       <c r="BX281" s="3"/>
       <c r="BY281" s="3"/>
     </row>
-    <row r="282" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -23482,7 +23226,7 @@
       <c r="BX282" s="3"/>
       <c r="BY282" s="3"/>
     </row>
-    <row r="283" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -23561,7 +23305,7 @@
       <c r="BX283" s="3"/>
       <c r="BY283" s="3"/>
     </row>
-    <row r="284" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -23640,7 +23384,7 @@
       <c r="BX284" s="3"/>
       <c r="BY284" s="3"/>
     </row>
-    <row r="285" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -23719,7 +23463,7 @@
       <c r="BX285" s="3"/>
       <c r="BY285" s="3"/>
     </row>
-    <row r="286" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -23798,7 +23542,7 @@
       <c r="BX286" s="3"/>
       <c r="BY286" s="3"/>
     </row>
-    <row r="287" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -23877,7 +23621,7 @@
       <c r="BX287" s="3"/>
       <c r="BY287" s="3"/>
     </row>
-    <row r="288" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -23956,7 +23700,7 @@
       <c r="BX288" s="3"/>
       <c r="BY288" s="3"/>
     </row>
-    <row r="289" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -24035,7 +23779,7 @@
       <c r="BX289" s="3"/>
       <c r="BY289" s="3"/>
     </row>
-    <row r="290" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -24114,7 +23858,7 @@
       <c r="BX290" s="3"/>
       <c r="BY290" s="3"/>
     </row>
-    <row r="291" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -24193,7 +23937,7 @@
       <c r="BX291" s="3"/>
       <c r="BY291" s="3"/>
     </row>
-    <row r="292" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -24272,7 +24016,7 @@
       <c r="BX292" s="3"/>
       <c r="BY292" s="3"/>
     </row>
-    <row r="293" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -24351,7 +24095,7 @@
       <c r="BX293" s="3"/>
       <c r="BY293" s="3"/>
     </row>
-    <row r="294" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -24430,7 +24174,7 @@
       <c r="BX294" s="3"/>
       <c r="BY294" s="3"/>
     </row>
-    <row r="295" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -24509,7 +24253,7 @@
       <c r="BX295" s="3"/>
       <c r="BY295" s="3"/>
     </row>
-    <row r="296" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -24588,7 +24332,7 @@
       <c r="BX296" s="3"/>
       <c r="BY296" s="3"/>
     </row>
-    <row r="297" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -24667,7 +24411,7 @@
       <c r="BX297" s="3"/>
       <c r="BY297" s="3"/>
     </row>
-    <row r="298" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -24746,7 +24490,7 @@
       <c r="BX298" s="3"/>
       <c r="BY298" s="3"/>
     </row>
-    <row r="299" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -24825,7 +24569,7 @@
       <c r="BX299" s="3"/>
       <c r="BY299" s="3"/>
     </row>
-    <row r="300" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -24904,7 +24648,7 @@
       <c r="BX300" s="3"/>
       <c r="BY300" s="3"/>
     </row>
-    <row r="301" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -24983,7 +24727,7 @@
       <c r="BX301" s="3"/>
       <c r="BY301" s="3"/>
     </row>
-    <row r="302" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -25062,7 +24806,7 @@
       <c r="BX302" s="3"/>
       <c r="BY302" s="3"/>
     </row>
-    <row r="303" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -25141,7 +24885,7 @@
       <c r="BX303" s="3"/>
       <c r="BY303" s="3"/>
     </row>
-    <row r="304" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -25220,7 +24964,7 @@
       <c r="BX304" s="3"/>
       <c r="BY304" s="3"/>
     </row>
-    <row r="305" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -25299,7 +25043,7 @@
       <c r="BX305" s="3"/>
       <c r="BY305" s="3"/>
     </row>
-    <row r="306" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -25378,7 +25122,7 @@
       <c r="BX306" s="3"/>
       <c r="BY306" s="3"/>
     </row>
-    <row r="307" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -25457,7 +25201,7 @@
       <c r="BX307" s="3"/>
       <c r="BY307" s="3"/>
     </row>
-    <row r="308" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -25536,7 +25280,7 @@
       <c r="BX308" s="3"/>
       <c r="BY308" s="3"/>
     </row>
-    <row r="309" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -25615,7 +25359,7 @@
       <c r="BX309" s="3"/>
       <c r="BY309" s="3"/>
     </row>
-    <row r="310" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -25694,7 +25438,7 @@
       <c r="BX310" s="3"/>
       <c r="BY310" s="3"/>
     </row>
-    <row r="311" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -25773,7 +25517,7 @@
       <c r="BX311" s="3"/>
       <c r="BY311" s="3"/>
     </row>
-    <row r="312" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -25852,7 +25596,7 @@
       <c r="BX312" s="3"/>
       <c r="BY312" s="3"/>
     </row>
-    <row r="313" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -25931,7 +25675,7 @@
       <c r="BX313" s="3"/>
       <c r="BY313" s="3"/>
     </row>
-    <row r="314" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -26010,7 +25754,7 @@
       <c r="BX314" s="3"/>
       <c r="BY314" s="3"/>
     </row>
-    <row r="315" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -26089,7 +25833,7 @@
       <c r="BX315" s="3"/>
       <c r="BY315" s="3"/>
     </row>
-    <row r="316" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -26168,7 +25912,7 @@
       <c r="BX316" s="3"/>
       <c r="BY316" s="3"/>
     </row>
-    <row r="317" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -26247,7 +25991,7 @@
       <c r="BX317" s="3"/>
       <c r="BY317" s="3"/>
     </row>
-    <row r="318" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -26326,7 +26070,7 @@
       <c r="BX318" s="3"/>
       <c r="BY318" s="3"/>
     </row>
-    <row r="319" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -26405,7 +26149,7 @@
       <c r="BX319" s="3"/>
       <c r="BY319" s="3"/>
     </row>
-    <row r="320" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -26484,7 +26228,7 @@
       <c r="BX320" s="3"/>
       <c r="BY320" s="3"/>
     </row>
-    <row r="321" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -26563,7 +26307,7 @@
       <c r="BX321" s="3"/>
       <c r="BY321" s="3"/>
     </row>
-    <row r="322" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -26642,7 +26386,7 @@
       <c r="BX322" s="3"/>
       <c r="BY322" s="3"/>
     </row>
-    <row r="323" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -26721,7 +26465,7 @@
       <c r="BX323" s="3"/>
       <c r="BY323" s="3"/>
     </row>
-    <row r="324" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -26800,7 +26544,7 @@
       <c r="BX324" s="3"/>
       <c r="BY324" s="3"/>
     </row>
-    <row r="325" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -26879,7 +26623,7 @@
       <c r="BX325" s="3"/>
       <c r="BY325" s="3"/>
     </row>
-    <row r="326" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -26958,7 +26702,7 @@
       <c r="BX326" s="3"/>
       <c r="BY326" s="3"/>
     </row>
-    <row r="327" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -27037,7 +26781,7 @@
       <c r="BX327" s="3"/>
       <c r="BY327" s="3"/>
     </row>
-    <row r="328" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -27116,7 +26860,7 @@
       <c r="BX328" s="3"/>
       <c r="BY328" s="3"/>
     </row>
-    <row r="329" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -27195,7 +26939,7 @@
       <c r="BX329" s="3"/>
       <c r="BY329" s="3"/>
     </row>
-    <row r="330" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -27274,7 +27018,7 @@
       <c r="BX330" s="3"/>
       <c r="BY330" s="3"/>
     </row>
-    <row r="331" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -27353,7 +27097,7 @@
       <c r="BX331" s="3"/>
       <c r="BY331" s="3"/>
     </row>
-    <row r="332" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -27432,7 +27176,7 @@
       <c r="BX332" s="3"/>
       <c r="BY332" s="3"/>
     </row>
-    <row r="333" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -27511,7 +27255,7 @@
       <c r="BX333" s="3"/>
       <c r="BY333" s="3"/>
     </row>
-    <row r="334" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -27590,7 +27334,7 @@
       <c r="BX334" s="3"/>
       <c r="BY334" s="3"/>
     </row>
-    <row r="335" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -27669,7 +27413,7 @@
       <c r="BX335" s="3"/>
       <c r="BY335" s="3"/>
     </row>
-    <row r="336" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -27748,7 +27492,7 @@
       <c r="BX336" s="3"/>
       <c r="BY336" s="3"/>
     </row>
-    <row r="337" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -27827,7 +27571,7 @@
       <c r="BX337" s="3"/>
       <c r="BY337" s="3"/>
     </row>
-    <row r="338" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -27906,7 +27650,7 @@
       <c r="BX338" s="3"/>
       <c r="BY338" s="3"/>
     </row>
-    <row r="339" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -27985,7 +27729,7 @@
       <c r="BX339" s="3"/>
       <c r="BY339" s="3"/>
     </row>
-    <row r="340" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -28064,7 +27808,7 @@
       <c r="BX340" s="3"/>
       <c r="BY340" s="3"/>
     </row>
-    <row r="341" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -28143,7 +27887,7 @@
       <c r="BX341" s="3"/>
       <c r="BY341" s="3"/>
     </row>
-    <row r="342" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -28222,7 +27966,7 @@
       <c r="BX342" s="3"/>
       <c r="BY342" s="3"/>
     </row>
-    <row r="343" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -28301,7 +28045,7 @@
       <c r="BX343" s="3"/>
       <c r="BY343" s="3"/>
     </row>
-    <row r="344" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -28380,7 +28124,7 @@
       <c r="BX344" s="3"/>
       <c r="BY344" s="3"/>
     </row>
-    <row r="345" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -28459,7 +28203,7 @@
       <c r="BX345" s="3"/>
       <c r="BY345" s="3"/>
     </row>
-    <row r="346" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -28538,7 +28282,7 @@
       <c r="BX346" s="3"/>
       <c r="BY346" s="3"/>
     </row>
-    <row r="347" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -28617,7 +28361,7 @@
       <c r="BX347" s="3"/>
       <c r="BY347" s="3"/>
     </row>
-    <row r="348" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -28696,7 +28440,7 @@
       <c r="BX348" s="3"/>
       <c r="BY348" s="3"/>
     </row>
-    <row r="349" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -28775,7 +28519,7 @@
       <c r="BX349" s="3"/>
       <c r="BY349" s="3"/>
     </row>
-    <row r="350" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -28854,7 +28598,7 @@
       <c r="BX350" s="3"/>
       <c r="BY350" s="3"/>
     </row>
-    <row r="351" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -28933,7 +28677,7 @@
       <c r="BX351" s="3"/>
       <c r="BY351" s="3"/>
     </row>
-    <row r="352" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -29012,7 +28756,7 @@
       <c r="BX352" s="3"/>
       <c r="BY352" s="3"/>
     </row>
-    <row r="353" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -29091,7 +28835,7 @@
       <c r="BX353" s="3"/>
       <c r="BY353" s="3"/>
     </row>
-    <row r="354" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -29170,7 +28914,7 @@
       <c r="BX354" s="3"/>
       <c r="BY354" s="3"/>
     </row>
-    <row r="355" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -29249,7 +28993,7 @@
       <c r="BX355" s="3"/>
       <c r="BY355" s="3"/>
     </row>
-    <row r="356" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -29328,7 +29072,7 @@
       <c r="BX356" s="3"/>
       <c r="BY356" s="3"/>
     </row>
-    <row r="357" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -29407,7 +29151,7 @@
       <c r="BX357" s="3"/>
       <c r="BY357" s="3"/>
     </row>
-    <row r="358" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -29486,7 +29230,7 @@
       <c r="BX358" s="3"/>
       <c r="BY358" s="3"/>
     </row>
-    <row r="359" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -29565,7 +29309,7 @@
       <c r="BX359" s="3"/>
       <c r="BY359" s="3"/>
     </row>
-    <row r="360" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -29644,7 +29388,7 @@
       <c r="BX360" s="3"/>
       <c r="BY360" s="3"/>
     </row>
-    <row r="361" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -29723,7 +29467,7 @@
       <c r="BX361" s="3"/>
       <c r="BY361" s="3"/>
     </row>
-    <row r="362" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -29802,7 +29546,7 @@
       <c r="BX362" s="3"/>
       <c r="BY362" s="3"/>
     </row>
-    <row r="363" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -29881,7 +29625,7 @@
       <c r="BX363" s="3"/>
       <c r="BY363" s="3"/>
     </row>
-    <row r="364" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -29960,7 +29704,7 @@
       <c r="BX364" s="3"/>
       <c r="BY364" s="3"/>
     </row>
-    <row r="365" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -30039,7 +29783,7 @@
       <c r="BX365" s="3"/>
       <c r="BY365" s="3"/>
     </row>
-    <row r="366" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -30118,7 +29862,7 @@
       <c r="BX366" s="3"/>
       <c r="BY366" s="3"/>
     </row>
-    <row r="367" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -30197,7 +29941,7 @@
       <c r="BX367" s="3"/>
       <c r="BY367" s="3"/>
     </row>
-    <row r="368" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -30276,7 +30020,7 @@
       <c r="BX368" s="3"/>
       <c r="BY368" s="3"/>
     </row>
-    <row r="369" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -30355,7 +30099,7 @@
       <c r="BX369" s="3"/>
       <c r="BY369" s="3"/>
     </row>
-    <row r="370" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -30434,7 +30178,7 @@
       <c r="BX370" s="3"/>
       <c r="BY370" s="3"/>
     </row>
-    <row r="371" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -30513,7 +30257,7 @@
       <c r="BX371" s="3"/>
       <c r="BY371" s="3"/>
     </row>
-    <row r="372" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -30592,7 +30336,7 @@
       <c r="BX372" s="3"/>
       <c r="BY372" s="3"/>
     </row>
-    <row r="373" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -30671,7 +30415,7 @@
       <c r="BX373" s="3"/>
       <c r="BY373" s="3"/>
     </row>
-    <row r="374" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -30750,7 +30494,7 @@
       <c r="BX374" s="3"/>
       <c r="BY374" s="3"/>
     </row>
-    <row r="375" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -30829,7 +30573,7 @@
       <c r="BX375" s="3"/>
       <c r="BY375" s="3"/>
     </row>
-    <row r="376" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -30908,7 +30652,7 @@
       <c r="BX376" s="3"/>
       <c r="BY376" s="3"/>
     </row>
-    <row r="377" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -30987,7 +30731,7 @@
       <c r="BX377" s="3"/>
       <c r="BY377" s="3"/>
     </row>
-    <row r="378" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -31066,7 +30810,7 @@
       <c r="BX378" s="3"/>
       <c r="BY378" s="3"/>
     </row>
-    <row r="379" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -31145,7 +30889,7 @@
       <c r="BX379" s="3"/>
       <c r="BY379" s="3"/>
     </row>
-    <row r="380" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -31224,7 +30968,7 @@
       <c r="BX380" s="3"/>
       <c r="BY380" s="3"/>
     </row>
-    <row r="381" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -31303,7 +31047,7 @@
       <c r="BX381" s="3"/>
       <c r="BY381" s="3"/>
     </row>
-    <row r="382" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -31382,7 +31126,7 @@
       <c r="BX382" s="3"/>
       <c r="BY382" s="3"/>
     </row>
-    <row r="383" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -31461,7 +31205,7 @@
       <c r="BX383" s="3"/>
       <c r="BY383" s="3"/>
     </row>
-    <row r="384" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -31540,7 +31284,7 @@
       <c r="BX384" s="3"/>
       <c r="BY384" s="3"/>
     </row>
-    <row r="385" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -31619,7 +31363,7 @@
       <c r="BX385" s="3"/>
       <c r="BY385" s="3"/>
     </row>
-    <row r="386" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -31698,7 +31442,7 @@
       <c r="BX386" s="3"/>
       <c r="BY386" s="3"/>
     </row>
-    <row r="387" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -31777,7 +31521,7 @@
       <c r="BX387" s="3"/>
       <c r="BY387" s="3"/>
     </row>
-    <row r="388" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -31856,7 +31600,7 @@
       <c r="BX388" s="3"/>
       <c r="BY388" s="3"/>
     </row>
-    <row r="389" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -31935,7 +31679,7 @@
       <c r="BX389" s="3"/>
       <c r="BY389" s="3"/>
     </row>
-    <row r="390" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -32014,7 +31758,7 @@
       <c r="BX390" s="3"/>
       <c r="BY390" s="3"/>
     </row>
-    <row r="391" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -32093,7 +31837,7 @@
       <c r="BX391" s="3"/>
       <c r="BY391" s="3"/>
     </row>
-    <row r="392" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -32172,7 +31916,7 @@
       <c r="BX392" s="3"/>
       <c r="BY392" s="3"/>
     </row>
-    <row r="393" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -32251,7 +31995,7 @@
       <c r="BX393" s="3"/>
       <c r="BY393" s="3"/>
     </row>
-    <row r="394" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -32330,7 +32074,7 @@
       <c r="BX394" s="3"/>
       <c r="BY394" s="3"/>
     </row>
-    <row r="395" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -32409,7 +32153,7 @@
       <c r="BX395" s="3"/>
       <c r="BY395" s="3"/>
     </row>
-    <row r="396" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -32488,7 +32232,7 @@
       <c r="BX396" s="3"/>
       <c r="BY396" s="3"/>
     </row>
-    <row r="397" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -32567,7 +32311,7 @@
       <c r="BX397" s="3"/>
       <c r="BY397" s="3"/>
     </row>
-    <row r="398" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -32646,7 +32390,7 @@
       <c r="BX398" s="3"/>
       <c r="BY398" s="3"/>
     </row>
-    <row r="399" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -32725,7 +32469,7 @@
       <c r="BX399" s="3"/>
       <c r="BY399" s="3"/>
     </row>
-    <row r="400" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -32804,7 +32548,7 @@
       <c r="BX400" s="3"/>
       <c r="BY400" s="3"/>
     </row>
-    <row r="401" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -32883,7 +32627,7 @@
       <c r="BX401" s="3"/>
       <c r="BY401" s="3"/>
     </row>
-    <row r="402" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -32962,7 +32706,7 @@
       <c r="BX402" s="3"/>
       <c r="BY402" s="3"/>
     </row>
-    <row r="403" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -33041,7 +32785,7 @@
       <c r="BX403" s="3"/>
       <c r="BY403" s="3"/>
     </row>
-    <row r="404" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -33120,7 +32864,7 @@
       <c r="BX404" s="3"/>
       <c r="BY404" s="3"/>
     </row>
-    <row r="405" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -33199,7 +32943,7 @@
       <c r="BX405" s="3"/>
       <c r="BY405" s="3"/>
     </row>
-    <row r="406" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -33278,7 +33022,7 @@
       <c r="BX406" s="3"/>
       <c r="BY406" s="3"/>
     </row>
-    <row r="407" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -33357,7 +33101,7 @@
       <c r="BX407" s="3"/>
       <c r="BY407" s="3"/>
     </row>
-    <row r="408" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -33436,7 +33180,7 @@
       <c r="BX408" s="3"/>
       <c r="BY408" s="3"/>
     </row>
-    <row r="409" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -33515,7 +33259,7 @@
       <c r="BX409" s="3"/>
       <c r="BY409" s="3"/>
     </row>
-    <row r="410" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -33594,7 +33338,7 @@
       <c r="BX410" s="3"/>
       <c r="BY410" s="3"/>
     </row>
-    <row r="411" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -33673,7 +33417,7 @@
       <c r="BX411" s="3"/>
       <c r="BY411" s="3"/>
     </row>
-    <row r="412" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -33752,7 +33496,7 @@
       <c r="BX412" s="3"/>
       <c r="BY412" s="3"/>
     </row>
-    <row r="413" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -33831,7 +33575,7 @@
       <c r="BX413" s="3"/>
       <c r="BY413" s="3"/>
     </row>
-    <row r="414" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -33910,7 +33654,7 @@
       <c r="BX414" s="3"/>
       <c r="BY414" s="3"/>
     </row>
-    <row r="415" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -33989,7 +33733,7 @@
       <c r="BX415" s="3"/>
       <c r="BY415" s="3"/>
     </row>
-    <row r="416" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -34068,7 +33812,7 @@
       <c r="BX416" s="3"/>
       <c r="BY416" s="3"/>
     </row>
-    <row r="417" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -34147,7 +33891,7 @@
       <c r="BX417" s="3"/>
       <c r="BY417" s="3"/>
     </row>
-    <row r="418" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -34226,7 +33970,7 @@
       <c r="BX418" s="3"/>
       <c r="BY418" s="3"/>
     </row>
-    <row r="419" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -34305,7 +34049,7 @@
       <c r="BX419" s="3"/>
       <c r="BY419" s="3"/>
     </row>
-    <row r="420" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -34384,7 +34128,7 @@
       <c r="BX420" s="3"/>
       <c r="BY420" s="3"/>
     </row>
-    <row r="421" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -34463,7 +34207,7 @@
       <c r="BX421" s="3"/>
       <c r="BY421" s="3"/>
     </row>
-    <row r="422" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -34542,7 +34286,7 @@
       <c r="BX422" s="3"/>
       <c r="BY422" s="3"/>
     </row>
-    <row r="423" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -34621,7 +34365,7 @@
       <c r="BX423" s="3"/>
       <c r="BY423" s="3"/>
     </row>
-    <row r="424" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -34700,7 +34444,7 @@
       <c r="BX424" s="3"/>
       <c r="BY424" s="3"/>
     </row>
-    <row r="425" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -34779,7 +34523,7 @@
       <c r="BX425" s="3"/>
       <c r="BY425" s="3"/>
     </row>
-    <row r="426" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -34858,7 +34602,7 @@
       <c r="BX426" s="3"/>
       <c r="BY426" s="3"/>
     </row>
-    <row r="427" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -34937,7 +34681,7 @@
       <c r="BX427" s="3"/>
       <c r="BY427" s="3"/>
     </row>
-    <row r="428" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -35016,7 +34760,7 @@
       <c r="BX428" s="3"/>
       <c r="BY428" s="3"/>
     </row>
-    <row r="429" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -35095,7 +34839,7 @@
       <c r="BX429" s="3"/>
       <c r="BY429" s="3"/>
     </row>
-    <row r="430" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -35174,7 +34918,7 @@
       <c r="BX430" s="3"/>
       <c r="BY430" s="3"/>
     </row>
-    <row r="431" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -35253,7 +34997,7 @@
       <c r="BX431" s="3"/>
       <c r="BY431" s="3"/>
     </row>
-    <row r="432" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -35332,7 +35076,7 @@
       <c r="BX432" s="3"/>
       <c r="BY432" s="3"/>
     </row>
-    <row r="433" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -35411,7 +35155,7 @@
       <c r="BX433" s="3"/>
       <c r="BY433" s="3"/>
     </row>
-    <row r="434" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -35490,7 +35234,7 @@
       <c r="BX434" s="3"/>
       <c r="BY434" s="3"/>
     </row>
-    <row r="435" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -35569,7 +35313,7 @@
       <c r="BX435" s="3"/>
       <c r="BY435" s="3"/>
     </row>
-    <row r="436" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -35648,7 +35392,7 @@
       <c r="BX436" s="3"/>
       <c r="BY436" s="3"/>
     </row>
-    <row r="437" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -35727,7 +35471,7 @@
       <c r="BX437" s="3"/>
       <c r="BY437" s="3"/>
     </row>
-    <row r="438" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -35806,7 +35550,7 @@
       <c r="BX438" s="3"/>
       <c r="BY438" s="3"/>
     </row>
-    <row r="439" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -35885,7 +35629,7 @@
       <c r="BX439" s="3"/>
       <c r="BY439" s="3"/>
     </row>
-    <row r="440" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -35964,7 +35708,7 @@
       <c r="BX440" s="3"/>
       <c r="BY440" s="3"/>
     </row>
-    <row r="441" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -36043,7 +35787,7 @@
       <c r="BX441" s="3"/>
       <c r="BY441" s="3"/>
     </row>
-    <row r="442" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -36122,7 +35866,7 @@
       <c r="BX442" s="3"/>
       <c r="BY442" s="3"/>
     </row>
-    <row r="443" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -36201,7 +35945,7 @@
       <c r="BX443" s="3"/>
       <c r="BY443" s="3"/>
     </row>
-    <row r="444" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -36280,7 +36024,7 @@
       <c r="BX444" s="3"/>
       <c r="BY444" s="3"/>
     </row>
-    <row r="445" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -36359,7 +36103,7 @@
       <c r="BX445" s="3"/>
       <c r="BY445" s="3"/>
     </row>
-    <row r="446" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -36438,7 +36182,7 @@
       <c r="BX446" s="3"/>
       <c r="BY446" s="3"/>
     </row>
-    <row r="447" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -36517,7 +36261,7 @@
       <c r="BX447" s="3"/>
       <c r="BY447" s="3"/>
     </row>
-    <row r="448" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -36596,7 +36340,7 @@
       <c r="BX448" s="3"/>
       <c r="BY448" s="3"/>
     </row>
-    <row r="449" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -36675,7 +36419,7 @@
       <c r="BX449" s="3"/>
       <c r="BY449" s="3"/>
     </row>
-    <row r="450" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -36754,7 +36498,7 @@
       <c r="BX450" s="3"/>
       <c r="BY450" s="3"/>
     </row>
-    <row r="451" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -36833,7 +36577,7 @@
       <c r="BX451" s="3"/>
       <c r="BY451" s="3"/>
     </row>
-    <row r="452" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -36912,7 +36656,7 @@
       <c r="BX452" s="3"/>
       <c r="BY452" s="3"/>
     </row>
-    <row r="453" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -36991,7 +36735,7 @@
       <c r="BX453" s="3"/>
       <c r="BY453" s="3"/>
     </row>
-    <row r="454" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -37070,7 +36814,7 @@
       <c r="BX454" s="3"/>
       <c r="BY454" s="3"/>
     </row>
-    <row r="455" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -37149,7 +36893,7 @@
       <c r="BX455" s="3"/>
       <c r="BY455" s="3"/>
     </row>
-    <row r="456" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -37228,7 +36972,7 @@
       <c r="BX456" s="3"/>
       <c r="BY456" s="3"/>
     </row>
-    <row r="457" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -37307,7 +37051,7 @@
       <c r="BX457" s="3"/>
       <c r="BY457" s="3"/>
     </row>
-    <row r="458" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -37386,7 +37130,7 @@
       <c r="BX458" s="3"/>
       <c r="BY458" s="3"/>
     </row>
-    <row r="459" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -37465,7 +37209,7 @@
       <c r="BX459" s="3"/>
       <c r="BY459" s="3"/>
     </row>
-    <row r="460" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -37544,7 +37288,7 @@
       <c r="BX460" s="3"/>
       <c r="BY460" s="3"/>
     </row>
-    <row r="461" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -37623,7 +37367,7 @@
       <c r="BX461" s="3"/>
       <c r="BY461" s="3"/>
     </row>
-    <row r="462" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -37702,7 +37446,7 @@
       <c r="BX462" s="3"/>
       <c r="BY462" s="3"/>
     </row>
-    <row r="463" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -37781,7 +37525,7 @@
       <c r="BX463" s="3"/>
       <c r="BY463" s="3"/>
     </row>
-    <row r="464" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -37860,7 +37604,7 @@
       <c r="BX464" s="3"/>
       <c r="BY464" s="3"/>
     </row>
-    <row r="465" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -37939,7 +37683,7 @@
       <c r="BX465" s="3"/>
       <c r="BY465" s="3"/>
     </row>
-    <row r="466" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -38018,7 +37762,7 @@
       <c r="BX466" s="3"/>
       <c r="BY466" s="3"/>
     </row>
-    <row r="467" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -38097,7 +37841,7 @@
       <c r="BX467" s="3"/>
       <c r="BY467" s="3"/>
     </row>
-    <row r="468" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -38176,7 +37920,7 @@
       <c r="BX468" s="3"/>
       <c r="BY468" s="3"/>
     </row>
-    <row r="469" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -38255,7 +37999,7 @@
       <c r="BX469" s="3"/>
       <c r="BY469" s="3"/>
     </row>
-    <row r="470" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -38334,7 +38078,7 @@
       <c r="BX470" s="3"/>
       <c r="BY470" s="3"/>
     </row>
-    <row r="471" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -38413,7 +38157,7 @@
       <c r="BX471" s="3"/>
       <c r="BY471" s="3"/>
     </row>
-    <row r="472" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -38492,7 +38236,7 @@
       <c r="BX472" s="3"/>
       <c r="BY472" s="3"/>
     </row>
-    <row r="473" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -38571,7 +38315,7 @@
       <c r="BX473" s="3"/>
       <c r="BY473" s="3"/>
     </row>
-    <row r="474" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -38650,7 +38394,7 @@
       <c r="BX474" s="3"/>
       <c r="BY474" s="3"/>
     </row>
-    <row r="475" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -38729,7 +38473,7 @@
       <c r="BX475" s="3"/>
       <c r="BY475" s="3"/>
     </row>
-    <row r="476" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -38808,7 +38552,7 @@
       <c r="BX476" s="3"/>
       <c r="BY476" s="3"/>
     </row>
-    <row r="477" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -38887,7 +38631,7 @@
       <c r="BX477" s="3"/>
       <c r="BY477" s="3"/>
     </row>
-    <row r="478" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -38966,7 +38710,7 @@
       <c r="BX478" s="3"/>
       <c r="BY478" s="3"/>
     </row>
-    <row r="479" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -39045,7 +38789,7 @@
       <c r="BX479" s="3"/>
       <c r="BY479" s="3"/>
     </row>
-    <row r="480" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -39124,7 +38868,7 @@
       <c r="BX480" s="3"/>
       <c r="BY480" s="3"/>
     </row>
-    <row r="481" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -39203,7 +38947,7 @@
       <c r="BX481" s="3"/>
       <c r="BY481" s="3"/>
     </row>
-    <row r="482" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -39282,7 +39026,7 @@
       <c r="BX482" s="3"/>
       <c r="BY482" s="3"/>
     </row>
-    <row r="483" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -39361,7 +39105,7 @@
       <c r="BX483" s="3"/>
       <c r="BY483" s="3"/>
     </row>
-    <row r="484" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -39440,7 +39184,7 @@
       <c r="BX484" s="3"/>
       <c r="BY484" s="3"/>
     </row>
-    <row r="485" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -39519,7 +39263,7 @@
       <c r="BX485" s="3"/>
       <c r="BY485" s="3"/>
     </row>
-    <row r="486" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -39598,7 +39342,7 @@
       <c r="BX486" s="3"/>
       <c r="BY486" s="3"/>
     </row>
-    <row r="487" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -39677,7 +39421,7 @@
       <c r="BX487" s="3"/>
       <c r="BY487" s="3"/>
     </row>
-    <row r="488" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -39756,7 +39500,7 @@
       <c r="BX488" s="3"/>
       <c r="BY488" s="3"/>
     </row>
-    <row r="489" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -39835,7 +39579,7 @@
       <c r="BX489" s="3"/>
       <c r="BY489" s="3"/>
     </row>
-    <row r="490" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -39914,7 +39658,7 @@
       <c r="BX490" s="3"/>
       <c r="BY490" s="3"/>
     </row>
-    <row r="491" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -39993,7 +39737,7 @@
       <c r="BX491" s="3"/>
       <c r="BY491" s="3"/>
     </row>
-    <row r="492" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -40072,7 +39816,7 @@
       <c r="BX492" s="3"/>
       <c r="BY492" s="3"/>
     </row>
-    <row r="493" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -40151,7 +39895,7 @@
       <c r="BX493" s="3"/>
       <c r="BY493" s="3"/>
     </row>
-    <row r="494" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -40230,7 +39974,7 @@
       <c r="BX494" s="3"/>
       <c r="BY494" s="3"/>
     </row>
-    <row r="495" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -40309,7 +40053,7 @@
       <c r="BX495" s="3"/>
       <c r="BY495" s="3"/>
     </row>
-    <row r="496" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -40388,7 +40132,7 @@
       <c r="BX496" s="3"/>
       <c r="BY496" s="3"/>
     </row>
-    <row r="497" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -40467,7 +40211,7 @@
       <c r="BX497" s="3"/>
       <c r="BY497" s="3"/>
     </row>
-    <row r="498" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -40546,7 +40290,7 @@
       <c r="BX498" s="3"/>
       <c r="BY498" s="3"/>
     </row>
-    <row r="499" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -40625,7 +40369,7 @@
       <c r="BX499" s="3"/>
       <c r="BY499" s="3"/>
     </row>
-    <row r="500" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -40704,7 +40448,7 @@
       <c r="BX500" s="3"/>
       <c r="BY500" s="3"/>
     </row>
-    <row r="501" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -40783,7 +40527,7 @@
       <c r="BX501" s="3"/>
       <c r="BY501" s="3"/>
     </row>
-    <row r="502" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -40862,7 +40606,7 @@
       <c r="BX502" s="3"/>
       <c r="BY502" s="3"/>
     </row>
-    <row r="503" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -40941,7 +40685,7 @@
       <c r="BX503" s="3"/>
       <c r="BY503" s="3"/>
     </row>
-    <row r="504" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -41020,7 +40764,7 @@
       <c r="BX504" s="3"/>
       <c r="BY504" s="3"/>
     </row>
-    <row r="505" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -41099,7 +40843,7 @@
       <c r="BX505" s="3"/>
       <c r="BY505" s="3"/>
     </row>
-    <row r="506" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -41178,7 +40922,7 @@
       <c r="BX506" s="3"/>
       <c r="BY506" s="3"/>
     </row>
-    <row r="507" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -41257,7 +41001,7 @@
       <c r="BX507" s="3"/>
       <c r="BY507" s="3"/>
     </row>
-    <row r="508" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -41336,7 +41080,7 @@
       <c r="BX508" s="3"/>
       <c r="BY508" s="3"/>
     </row>
-    <row r="509" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -41415,7 +41159,7 @@
       <c r="BX509" s="3"/>
       <c r="BY509" s="3"/>
     </row>
-    <row r="510" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -41494,7 +41238,7 @@
       <c r="BX510" s="3"/>
       <c r="BY510" s="3"/>
     </row>
-    <row r="511" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -41573,7 +41317,7 @@
       <c r="BX511" s="3"/>
       <c r="BY511" s="3"/>
     </row>
-    <row r="512" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -41652,7 +41396,7 @@
       <c r="BX512" s="3"/>
       <c r="BY512" s="3"/>
     </row>
-    <row r="513" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -41731,7 +41475,7 @@
       <c r="BX513" s="3"/>
       <c r="BY513" s="3"/>
     </row>
-    <row r="514" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -41810,7 +41554,7 @@
       <c r="BX514" s="3"/>
       <c r="BY514" s="3"/>
     </row>
-    <row r="515" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -41889,7 +41633,7 @@
       <c r="BX515" s="3"/>
       <c r="BY515" s="3"/>
     </row>
-    <row r="516" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -41968,7 +41712,7 @@
       <c r="BX516" s="3"/>
       <c r="BY516" s="3"/>
     </row>
-    <row r="517" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -42047,7 +41791,7 @@
       <c r="BX517" s="3"/>
       <c r="BY517" s="3"/>
     </row>
-    <row r="518" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -42126,7 +41870,7 @@
       <c r="BX518" s="3"/>
       <c r="BY518" s="3"/>
     </row>
-    <row r="519" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -42205,7 +41949,7 @@
       <c r="BX519" s="3"/>
       <c r="BY519" s="3"/>
     </row>
-    <row r="520" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -42284,7 +42028,7 @@
       <c r="BX520" s="3"/>
       <c r="BY520" s="3"/>
     </row>
-    <row r="521" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -42363,7 +42107,7 @@
       <c r="BX521" s="3"/>
       <c r="BY521" s="3"/>
     </row>
-    <row r="522" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -42442,7 +42186,7 @@
       <c r="BX522" s="3"/>
       <c r="BY522" s="3"/>
     </row>
-    <row r="523" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -42521,7 +42265,7 @@
       <c r="BX523" s="3"/>
       <c r="BY523" s="3"/>
     </row>
-    <row r="524" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -42600,7 +42344,7 @@
       <c r="BX524" s="3"/>
       <c r="BY524" s="3"/>
     </row>
-    <row r="525" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -42679,7 +42423,7 @@
       <c r="BX525" s="3"/>
       <c r="BY525" s="3"/>
     </row>
-    <row r="526" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -42758,7 +42502,7 @@
       <c r="BX526" s="3"/>
       <c r="BY526" s="3"/>
     </row>
-    <row r="527" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -42837,7 +42581,7 @@
       <c r="BX527" s="3"/>
       <c r="BY527" s="3"/>
     </row>
-    <row r="528" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -42916,7 +42660,7 @@
       <c r="BX528" s="3"/>
       <c r="BY528" s="3"/>
     </row>
-    <row r="529" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -42995,7 +42739,7 @@
       <c r="BX529" s="3"/>
       <c r="BY529" s="3"/>
     </row>
-    <row r="530" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -43074,7 +42818,7 @@
       <c r="BX530" s="3"/>
       <c r="BY530" s="3"/>
     </row>
-    <row r="531" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -43153,7 +42897,7 @@
       <c r="BX531" s="3"/>
       <c r="BY531" s="3"/>
     </row>
-    <row r="532" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -43232,7 +42976,7 @@
       <c r="BX532" s="3"/>
       <c r="BY532" s="3"/>
     </row>
-    <row r="533" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -43311,7 +43055,7 @@
       <c r="BX533" s="3"/>
       <c r="BY533" s="3"/>
     </row>
-    <row r="534" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -43390,7 +43134,7 @@
       <c r="BX534" s="3"/>
       <c r="BY534" s="3"/>
     </row>
-    <row r="535" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -43469,7 +43213,7 @@
       <c r="BX535" s="3"/>
       <c r="BY535" s="3"/>
     </row>
-    <row r="536" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -43548,7 +43292,7 @@
       <c r="BX536" s="3"/>
       <c r="BY536" s="3"/>
     </row>
-    <row r="537" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -43627,7 +43371,7 @@
       <c r="BX537" s="3"/>
       <c r="BY537" s="3"/>
     </row>
-    <row r="538" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -43706,7 +43450,7 @@
       <c r="BX538" s="3"/>
       <c r="BY538" s="3"/>
     </row>
-    <row r="539" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -43785,7 +43529,7 @@
       <c r="BX539" s="3"/>
       <c r="BY539" s="3"/>
     </row>
-    <row r="540" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -43864,7 +43608,7 @@
       <c r="BX540" s="3"/>
       <c r="BY540" s="3"/>
     </row>
-    <row r="541" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -43943,7 +43687,7 @@
       <c r="BX541" s="3"/>
       <c r="BY541" s="3"/>
     </row>
-    <row r="542" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -44022,7 +43766,7 @@
       <c r="BX542" s="3"/>
       <c r="BY542" s="3"/>
     </row>
-    <row r="543" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -44101,7 +43845,7 @@
       <c r="BX543" s="3"/>
       <c r="BY543" s="3"/>
     </row>
-    <row r="544" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -44180,7 +43924,7 @@
       <c r="BX544" s="3"/>
       <c r="BY544" s="3"/>
     </row>
-    <row r="545" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -44259,7 +44003,7 @@
       <c r="BX545" s="3"/>
       <c r="BY545" s="3"/>
     </row>
-    <row r="546" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -44338,7 +44082,7 @@
       <c r="BX546" s="3"/>
       <c r="BY546" s="3"/>
     </row>
-    <row r="547" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -44417,7 +44161,7 @@
       <c r="BX547" s="3"/>
       <c r="BY547" s="3"/>
     </row>
-    <row r="548" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -44496,7 +44240,7 @@
       <c r="BX548" s="3"/>
       <c r="BY548" s="3"/>
     </row>
-    <row r="549" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -44575,7 +44319,7 @@
       <c r="BX549" s="3"/>
       <c r="BY549" s="3"/>
     </row>
-    <row r="550" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -44654,7 +44398,7 @@
       <c r="BX550" s="3"/>
       <c r="BY550" s="3"/>
     </row>
-    <row r="551" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -44733,7 +44477,7 @@
       <c r="BX551" s="3"/>
       <c r="BY551" s="3"/>
     </row>
-    <row r="552" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -44812,7 +44556,7 @@
       <c r="BX552" s="3"/>
       <c r="BY552" s="3"/>
     </row>
-    <row r="553" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -44891,7 +44635,7 @@
       <c r="BX553" s="3"/>
       <c r="BY553" s="3"/>
     </row>
-    <row r="554" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -44970,7 +44714,7 @@
       <c r="BX554" s="3"/>
       <c r="BY554" s="3"/>
     </row>
-    <row r="555" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -45049,7 +44793,7 @@
       <c r="BX555" s="3"/>
       <c r="BY555" s="3"/>
     </row>
-    <row r="556" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -45128,7 +44872,7 @@
       <c r="BX556" s="3"/>
       <c r="BY556" s="3"/>
     </row>
-    <row r="557" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -45207,7 +44951,7 @@
       <c r="BX557" s="3"/>
       <c r="BY557" s="3"/>
     </row>
-    <row r="558" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -45286,7 +45030,7 @@
       <c r="BX558" s="3"/>
       <c r="BY558" s="3"/>
     </row>
-    <row r="559" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -45365,7 +45109,7 @@
       <c r="BX559" s="3"/>
       <c r="BY559" s="3"/>
     </row>
-    <row r="560" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -45444,7 +45188,7 @@
       <c r="BX560" s="3"/>
       <c r="BY560" s="3"/>
     </row>
-    <row r="561" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -45523,7 +45267,7 @@
       <c r="BX561" s="3"/>
       <c r="BY561" s="3"/>
     </row>
-    <row r="562" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -45602,7 +45346,7 @@
       <c r="BX562" s="3"/>
       <c r="BY562" s="3"/>
     </row>
-    <row r="563" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -45681,7 +45425,7 @@
       <c r="BX563" s="3"/>
       <c r="BY563" s="3"/>
     </row>
-    <row r="564" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -45760,7 +45504,7 @@
       <c r="BX564" s="3"/>
       <c r="BY564" s="3"/>
     </row>
-    <row r="565" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -45839,7 +45583,7 @@
       <c r="BX565" s="3"/>
       <c r="BY565" s="3"/>
     </row>
-    <row r="566" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -45918,7 +45662,7 @@
       <c r="BX566" s="3"/>
       <c r="BY566" s="3"/>
     </row>
-    <row r="567" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -45997,7 +45741,7 @@
       <c r="BX567" s="3"/>
       <c r="BY567" s="3"/>
     </row>
-    <row r="568" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -46076,7 +45820,7 @@
       <c r="BX568" s="3"/>
       <c r="BY568" s="3"/>
     </row>
-    <row r="569" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -46155,7 +45899,7 @@
       <c r="BX569" s="3"/>
       <c r="BY569" s="3"/>
     </row>
-    <row r="570" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -46234,7 +45978,7 @@
       <c r="BX570" s="3"/>
       <c r="BY570" s="3"/>
     </row>
-    <row r="571" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -46313,7 +46057,7 @@
       <c r="BX571" s="3"/>
       <c r="BY571" s="3"/>
     </row>
-    <row r="572" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -46392,7 +46136,7 @@
       <c r="BX572" s="3"/>
       <c r="BY572" s="3"/>
     </row>
-    <row r="573" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -46471,7 +46215,7 @@
       <c r="BX573" s="3"/>
       <c r="BY573" s="3"/>
     </row>
-    <row r="574" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -46550,7 +46294,7 @@
       <c r="BX574" s="3"/>
       <c r="BY574" s="3"/>
     </row>
-    <row r="575" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -46629,7 +46373,7 @@
       <c r="BX575" s="3"/>
       <c r="BY575" s="3"/>
     </row>
-    <row r="576" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -46708,7 +46452,7 @@
       <c r="BX576" s="3"/>
       <c r="BY576" s="3"/>
     </row>
-    <row r="577" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -46787,7 +46531,7 @@
       <c r="BX577" s="3"/>
       <c r="BY577" s="3"/>
     </row>
-    <row r="578" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -46866,7 +46610,7 @@
       <c r="BX578" s="3"/>
       <c r="BY578" s="3"/>
     </row>
-    <row r="579" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -46945,7 +46689,7 @@
       <c r="BX579" s="3"/>
       <c r="BY579" s="3"/>
     </row>
-    <row r="580" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -47024,7 +46768,7 @@
       <c r="BX580" s="3"/>
       <c r="BY580" s="3"/>
     </row>
-    <row r="581" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -47103,7 +46847,7 @@
       <c r="BX581" s="3"/>
       <c r="BY581" s="3"/>
     </row>
-    <row r="582" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -47182,7 +46926,7 @@
       <c r="BX582" s="3"/>
       <c r="BY582" s="3"/>
     </row>
-    <row r="583" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -47261,7 +47005,7 @@
       <c r="BX583" s="3"/>
       <c r="BY583" s="3"/>
     </row>
-    <row r="584" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -47340,7 +47084,7 @@
       <c r="BX584" s="3"/>
       <c r="BY584" s="3"/>
     </row>
-    <row r="585" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -47419,7 +47163,7 @@
       <c r="BX585" s="3"/>
       <c r="BY585" s="3"/>
     </row>
-    <row r="586" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -47498,7 +47242,7 @@
       <c r="BX586" s="3"/>
       <c r="BY586" s="3"/>
     </row>
-    <row r="587" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -47577,7 +47321,7 @@
       <c r="BX587" s="3"/>
       <c r="BY587" s="3"/>
     </row>
-    <row r="588" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -47656,7 +47400,7 @@
       <c r="BX588" s="3"/>
       <c r="BY588" s="3"/>
     </row>
-    <row r="589" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -47735,7 +47479,7 @@
       <c r="BX589" s="3"/>
       <c r="BY589" s="3"/>
     </row>
-    <row r="590" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -47814,7 +47558,7 @@
       <c r="BX590" s="3"/>
       <c r="BY590" s="3"/>
     </row>
-    <row r="591" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -47893,7 +47637,7 @@
       <c r="BX591" s="3"/>
       <c r="BY591" s="3"/>
     </row>
-    <row r="592" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -47972,7 +47716,7 @@
       <c r="BX592" s="3"/>
       <c r="BY592" s="3"/>
     </row>
-    <row r="593" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -48051,7 +47795,7 @@
       <c r="BX593" s="3"/>
       <c r="BY593" s="3"/>
     </row>
-    <row r="594" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -48130,7 +47874,7 @@
       <c r="BX594" s="3"/>
       <c r="BY594" s="3"/>
     </row>
-    <row r="595" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -48209,7 +47953,7 @@
       <c r="BX595" s="3"/>
       <c r="BY595" s="3"/>
     </row>
-    <row r="596" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -48288,7 +48032,7 @@
       <c r="BX596" s="3"/>
       <c r="BY596" s="3"/>
     </row>
-    <row r="597" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -48367,7 +48111,7 @@
       <c r="BX597" s="3"/>
       <c r="BY597" s="3"/>
     </row>
-    <row r="598" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -48446,7 +48190,7 @@
       <c r="BX598" s="3"/>
       <c r="BY598" s="3"/>
     </row>
-    <row r="599" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -48525,7 +48269,7 @@
       <c r="BX599" s="3"/>
       <c r="BY599" s="3"/>
     </row>
-    <row r="600" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -48604,7 +48348,7 @@
       <c r="BX600" s="3"/>
       <c r="BY600" s="3"/>
     </row>
-    <row r="601" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -48683,7 +48427,7 @@
       <c r="BX601" s="3"/>
       <c r="BY601" s="3"/>
     </row>
-    <row r="602" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -48762,7 +48506,7 @@
       <c r="BX602" s="3"/>
       <c r="BY602" s="3"/>
     </row>
-    <row r="603" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -48841,7 +48585,7 @@
       <c r="BX603" s="3"/>
       <c r="BY603" s="3"/>
     </row>
-    <row r="604" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -48920,7 +48664,7 @@
       <c r="BX604" s="3"/>
       <c r="BY604" s="3"/>
     </row>
-    <row r="605" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -48999,7 +48743,7 @@
       <c r="BX605" s="3"/>
       <c r="BY605" s="3"/>
     </row>
-    <row r="606" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -49078,7 +48822,7 @@
       <c r="BX606" s="3"/>
       <c r="BY606" s="3"/>
     </row>
-    <row r="607" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -49157,7 +48901,7 @@
       <c r="BX607" s="3"/>
       <c r="BY607" s="3"/>
     </row>
-    <row r="608" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -49236,7 +48980,7 @@
       <c r="BX608" s="3"/>
       <c r="BY608" s="3"/>
     </row>
-    <row r="609" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -49315,7 +49059,7 @@
       <c r="BX609" s="3"/>
       <c r="BY609" s="3"/>
     </row>
-    <row r="610" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -49394,7 +49138,7 @@
       <c r="BX610" s="3"/>
       <c r="BY610" s="3"/>
     </row>
-    <row r="611" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -49473,7 +49217,7 @@
       <c r="BX611" s="3"/>
       <c r="BY611" s="3"/>
     </row>
-    <row r="612" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -49552,7 +49296,7 @@
       <c r="BX612" s="3"/>
       <c r="BY612" s="3"/>
     </row>
-    <row r="613" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -49631,7 +49375,7 @@
       <c r="BX613" s="3"/>
       <c r="BY613" s="3"/>
     </row>
-    <row r="614" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -49710,7 +49454,7 @@
       <c r="BX614" s="3"/>
       <c r="BY614" s="3"/>
     </row>
-    <row r="615" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -49789,7 +49533,7 @@
       <c r="BX615" s="3"/>
       <c r="BY615" s="3"/>
     </row>
-    <row r="616" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -49868,7 +49612,7 @@
       <c r="BX616" s="3"/>
       <c r="BY616" s="3"/>
     </row>
-    <row r="617" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -49947,7 +49691,7 @@
       <c r="BX617" s="3"/>
       <c r="BY617" s="3"/>
     </row>
-    <row r="618" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -50026,7 +49770,7 @@
       <c r="BX618" s="3"/>
       <c r="BY618" s="3"/>
     </row>
-    <row r="619" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -50105,7 +49849,7 @@
       <c r="BX619" s="3"/>
       <c r="BY619" s="3"/>
     </row>
-    <row r="620" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -50184,7 +49928,7 @@
       <c r="BX620" s="3"/>
       <c r="BY620" s="3"/>
     </row>
-    <row r="621" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -50263,7 +50007,7 @@
       <c r="BX621" s="3"/>
       <c r="BY621" s="3"/>
     </row>
-    <row r="622" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -50342,7 +50086,7 @@
       <c r="BX622" s="3"/>
       <c r="BY622" s="3"/>
     </row>
-    <row r="623" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -50421,7 +50165,7 @@
       <c r="BX623" s="3"/>
       <c r="BY623" s="3"/>
     </row>
-    <row r="624" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -50500,7 +50244,7 @@
       <c r="BX624" s="3"/>
       <c r="BY624" s="3"/>
     </row>
-    <row r="625" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -50579,7 +50323,7 @@
       <c r="BX625" s="3"/>
       <c r="BY625" s="3"/>
     </row>
-    <row r="626" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -50658,7 +50402,7 @@
       <c r="BX626" s="3"/>
       <c r="BY626" s="3"/>
     </row>
-    <row r="627" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -50737,7 +50481,7 @@
       <c r="BX627" s="3"/>
       <c r="BY627" s="3"/>
     </row>
-    <row r="628" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -50816,7 +50560,7 @@
       <c r="BX628" s="3"/>
       <c r="BY628" s="3"/>
     </row>
-    <row r="629" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -50895,7 +50639,7 @@
       <c r="BX629" s="3"/>
       <c r="BY629" s="3"/>
     </row>
-    <row r="630" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -50974,7 +50718,7 @@
       <c r="BX630" s="3"/>
       <c r="BY630" s="3"/>
     </row>
-    <row r="631" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -51053,7 +50797,7 @@
       <c r="BX631" s="3"/>
       <c r="BY631" s="3"/>
     </row>
-    <row r="632" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -51132,7 +50876,7 @@
       <c r="BX632" s="3"/>
       <c r="BY632" s="3"/>
     </row>
-    <row r="633" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -51211,7 +50955,7 @@
       <c r="BX633" s="3"/>
       <c r="BY633" s="3"/>
     </row>
-    <row r="634" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -51290,7 +51034,7 @@
       <c r="BX634" s="3"/>
       <c r="BY634" s="3"/>
     </row>
-    <row r="635" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -51369,7 +51113,7 @@
       <c r="BX635" s="3"/>
       <c r="BY635" s="3"/>
     </row>
-    <row r="636" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -51448,7 +51192,7 @@
       <c r="BX636" s="3"/>
       <c r="BY636" s="3"/>
     </row>
-    <row r="637" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -51527,7 +51271,7 @@
       <c r="BX637" s="3"/>
       <c r="BY637" s="3"/>
     </row>
-    <row r="638" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -51606,7 +51350,7 @@
       <c r="BX638" s="3"/>
       <c r="BY638" s="3"/>
     </row>
-    <row r="639" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -51685,7 +51429,7 @@
       <c r="BX639" s="3"/>
       <c r="BY639" s="3"/>
     </row>
-    <row r="640" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -51764,7 +51508,7 @@
       <c r="BX640" s="3"/>
       <c r="BY640" s="3"/>
     </row>
-    <row r="641" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -51843,7 +51587,7 @@
       <c r="BX641" s="3"/>
       <c r="BY641" s="3"/>
     </row>
-    <row r="642" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -51922,7 +51666,7 @@
       <c r="BX642" s="3"/>
       <c r="BY642" s="3"/>
     </row>
-    <row r="643" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -52001,7 +51745,7 @@
       <c r="BX643" s="3"/>
       <c r="BY643" s="3"/>
     </row>
-    <row r="644" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -52080,7 +51824,7 @@
       <c r="BX644" s="3"/>
       <c r="BY644" s="3"/>
     </row>
-    <row r="645" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -52159,7 +51903,7 @@
       <c r="BX645" s="3"/>
       <c r="BY645" s="3"/>
     </row>
-    <row r="646" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -52238,7 +51982,7 @@
       <c r="BX646" s="3"/>
       <c r="BY646" s="3"/>
     </row>
-    <row r="647" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -52317,7 +52061,7 @@
       <c r="BX647" s="3"/>
       <c r="BY647" s="3"/>
     </row>
-    <row r="648" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -52396,7 +52140,7 @@
       <c r="BX648" s="3"/>
       <c r="BY648" s="3"/>
     </row>
-    <row r="649" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -52475,7 +52219,7 @@
       <c r="BX649" s="3"/>
       <c r="BY649" s="3"/>
     </row>
-    <row r="650" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -52554,7 +52298,7 @@
       <c r="BX650" s="3"/>
       <c r="BY650" s="3"/>
     </row>
-    <row r="651" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -52633,7 +52377,7 @@
       <c r="BX651" s="3"/>
       <c r="BY651" s="3"/>
     </row>
-    <row r="652" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -52712,7 +52456,7 @@
       <c r="BX652" s="3"/>
       <c r="BY652" s="3"/>
     </row>
-    <row r="653" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -52791,7 +52535,7 @@
       <c r="BX653" s="3"/>
       <c r="BY653" s="3"/>
     </row>
-    <row r="654" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -52870,7 +52614,7 @@
       <c r="BX654" s="3"/>
       <c r="BY654" s="3"/>
     </row>
-    <row r="655" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -52949,7 +52693,7 @@
       <c r="BX655" s="3"/>
       <c r="BY655" s="3"/>
     </row>
-    <row r="656" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -53028,7 +52772,7 @@
       <c r="BX656" s="3"/>
       <c r="BY656" s="3"/>
     </row>
-    <row r="657" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -53107,7 +52851,7 @@
       <c r="BX657" s="3"/>
       <c r="BY657" s="3"/>
     </row>
-    <row r="658" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -53186,7 +52930,7 @@
       <c r="BX658" s="3"/>
       <c r="BY658" s="3"/>
     </row>
-    <row r="659" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -53265,7 +53009,7 @@
       <c r="BX659" s="3"/>
       <c r="BY659" s="3"/>
     </row>
-    <row r="660" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -53344,7 +53088,7 @@
       <c r="BX660" s="3"/>
       <c r="BY660" s="3"/>
     </row>
-    <row r="661" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -53423,7 +53167,7 @@
       <c r="BX661" s="3"/>
       <c r="BY661" s="3"/>
     </row>
-    <row r="662" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -53502,7 +53246,7 @@
       <c r="BX662" s="3"/>
       <c r="BY662" s="3"/>
     </row>
-    <row r="663" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -53581,7 +53325,7 @@
       <c r="BX663" s="3"/>
       <c r="BY663" s="3"/>
     </row>
-    <row r="664" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -53660,7 +53404,7 @@
       <c r="BX664" s="3"/>
       <c r="BY664" s="3"/>
     </row>
-    <row r="665" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -53739,7 +53483,7 @@
       <c r="BX665" s="3"/>
       <c r="BY665" s="3"/>
     </row>
-    <row r="666" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -53818,7 +53562,7 @@
       <c r="BX666" s="3"/>
       <c r="BY666" s="3"/>
     </row>
-    <row r="667" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -53897,7 +53641,7 @@
       <c r="BX667" s="3"/>
       <c r="BY667" s="3"/>
     </row>
-    <row r="668" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -53976,7 +53720,7 @@
       <c r="BX668" s="3"/>
       <c r="BY668" s="3"/>
     </row>
-    <row r="669" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -54055,7 +53799,7 @@
       <c r="BX669" s="3"/>
       <c r="BY669" s="3"/>
     </row>
-    <row r="670" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -54134,7 +53878,7 @@
       <c r="BX670" s="3"/>
       <c r="BY670" s="3"/>
     </row>
-    <row r="671" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -54213,7 +53957,7 @@
       <c r="BX671" s="3"/>
       <c r="BY671" s="3"/>
     </row>
-    <row r="672" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -54292,7 +54036,7 @@
       <c r="BX672" s="3"/>
       <c r="BY672" s="3"/>
     </row>
-    <row r="673" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -54371,7 +54115,7 @@
       <c r="BX673" s="3"/>
       <c r="BY673" s="3"/>
     </row>
-    <row r="674" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -54450,7 +54194,7 @@
       <c r="BX674" s="3"/>
       <c r="BY674" s="3"/>
     </row>
-    <row r="675" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -54529,7 +54273,7 @@
       <c r="BX675" s="3"/>
       <c r="BY675" s="3"/>
     </row>
-    <row r="676" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -54608,7 +54352,7 @@
       <c r="BX676" s="3"/>
       <c r="BY676" s="3"/>
     </row>
-    <row r="677" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -54687,7 +54431,7 @@
       <c r="BX677" s="3"/>
       <c r="BY677" s="3"/>
     </row>
-    <row r="678" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -54766,7 +54510,7 @@
       <c r="BX678" s="3"/>
       <c r="BY678" s="3"/>
     </row>
-    <row r="679" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -54845,7 +54589,7 @@
       <c r="BX679" s="3"/>
       <c r="BY679" s="3"/>
     </row>
-    <row r="680" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -54924,7 +54668,7 @@
       <c r="BX680" s="3"/>
       <c r="BY680" s="3"/>
     </row>
-    <row r="681" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -55003,7 +54747,7 @@
       <c r="BX681" s="3"/>
       <c r="BY681" s="3"/>
     </row>
-    <row r="682" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -55082,7 +54826,7 @@
       <c r="BX682" s="3"/>
       <c r="BY682" s="3"/>
     </row>
-    <row r="683" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -55161,7 +54905,7 @@
       <c r="BX683" s="3"/>
       <c r="BY683" s="3"/>
     </row>
-    <row r="684" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -55240,7 +54984,7 @@
       <c r="BX684" s="3"/>
       <c r="BY684" s="3"/>
     </row>
-    <row r="685" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -55319,7 +55063,7 @@
       <c r="BX685" s="3"/>
       <c r="BY685" s="3"/>
     </row>
-    <row r="686" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -55398,7 +55142,7 @@
       <c r="BX686" s="3"/>
       <c r="BY686" s="3"/>
     </row>
-    <row r="687" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -55477,7 +55221,7 @@
       <c r="BX687" s="3"/>
       <c r="BY687" s="3"/>
     </row>
-    <row r="688" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -55556,7 +55300,7 @@
       <c r="BX688" s="3"/>
       <c r="BY688" s="3"/>
     </row>
-    <row r="689" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -55635,7 +55379,7 @@
       <c r="BX689" s="3"/>
       <c r="BY689" s="3"/>
     </row>
-    <row r="690" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -55714,7 +55458,7 @@
       <c r="BX690" s="3"/>
       <c r="BY690" s="3"/>
     </row>
-    <row r="691" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -55793,7 +55537,7 @@
       <c r="BX691" s="3"/>
       <c r="BY691" s="3"/>
     </row>
-    <row r="692" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -55872,7 +55616,7 @@
       <c r="BX692" s="3"/>
       <c r="BY692" s="3"/>
     </row>
-    <row r="693" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -55951,7 +55695,7 @@
       <c r="BX693" s="3"/>
       <c r="BY693" s="3"/>
     </row>
-    <row r="694" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -56030,7 +55774,7 @@
       <c r="BX694" s="3"/>
       <c r="BY694" s="3"/>
     </row>
-    <row r="695" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -56109,7 +55853,7 @@
       <c r="BX695" s="3"/>
       <c r="BY695" s="3"/>
     </row>
-    <row r="696" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -56188,7 +55932,7 @@
       <c r="BX696" s="3"/>
       <c r="BY696" s="3"/>
     </row>
-    <row r="697" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -56267,7 +56011,7 @@
       <c r="BX697" s="3"/>
       <c r="BY697" s="3"/>
     </row>
-    <row r="698" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -56346,7 +56090,7 @@
       <c r="BX698" s="3"/>
       <c r="BY698" s="3"/>
     </row>
-    <row r="699" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -56425,7 +56169,7 @@
       <c r="BX699" s="3"/>
       <c r="BY699" s="3"/>
     </row>
-    <row r="700" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -56504,7 +56248,7 @@
       <c r="BX700" s="3"/>
       <c r="BY700" s="3"/>
     </row>
-    <row r="701" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -56583,7 +56327,7 @@
       <c r="BX701" s="3"/>
       <c r="BY701" s="3"/>
     </row>
-    <row r="702" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -56662,7 +56406,7 @@
       <c r="BX702" s="3"/>
       <c r="BY702" s="3"/>
     </row>
-    <row r="703" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -56741,7 +56485,7 @@
       <c r="BX703" s="3"/>
       <c r="BY703" s="3"/>
     </row>
-    <row r="704" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -56820,7 +56564,7 @@
       <c r="BX704" s="3"/>
       <c r="BY704" s="3"/>
     </row>
-    <row r="705" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -56899,7 +56643,7 @@
       <c r="BX705" s="3"/>
       <c r="BY705" s="3"/>
     </row>
-    <row r="706" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -56978,7 +56722,7 @@
       <c r="BX706" s="3"/>
       <c r="BY706" s="3"/>
     </row>
-    <row r="707" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -57057,7 +56801,7 @@
       <c r="BX707" s="3"/>
       <c r="BY707" s="3"/>
     </row>
-    <row r="708" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -57136,7 +56880,7 @@
       <c r="BX708" s="3"/>
       <c r="BY708" s="3"/>
     </row>
-    <row r="709" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -57215,7 +56959,7 @@
       <c r="BX709" s="3"/>
       <c r="BY709" s="3"/>
     </row>
-    <row r="710" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -57294,7 +57038,7 @@
       <c r="BX710" s="3"/>
       <c r="BY710" s="3"/>
     </row>
-    <row r="711" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -57373,7 +57117,7 @@
       <c r="BX711" s="3"/>
       <c r="BY711" s="3"/>
     </row>
-    <row r="712" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -57452,7 +57196,7 @@
       <c r="BX712" s="3"/>
       <c r="BY712" s="3"/>
     </row>
-    <row r="713" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -57531,7 +57275,7 @@
       <c r="BX713" s="3"/>
       <c r="BY713" s="3"/>
     </row>
-    <row r="714" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -57610,7 +57354,7 @@
       <c r="BX714" s="3"/>
       <c r="BY714" s="3"/>
     </row>
-    <row r="715" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -57689,7 +57433,7 @@
       <c r="BX715" s="3"/>
       <c r="BY715" s="3"/>
     </row>
-    <row r="716" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -57768,7 +57512,7 @@
       <c r="BX716" s="3"/>
       <c r="BY716" s="3"/>
     </row>
-    <row r="717" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -57847,7 +57591,7 @@
       <c r="BX717" s="3"/>
       <c r="BY717" s="3"/>
     </row>
-    <row r="718" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -57926,7 +57670,7 @@
       <c r="BX718" s="3"/>
       <c r="BY718" s="3"/>
     </row>
-    <row r="719" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -58005,7 +57749,7 @@
       <c r="BX719" s="3"/>
       <c r="BY719" s="3"/>
     </row>
-    <row r="720" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -58084,7 +57828,7 @@
       <c r="BX720" s="3"/>
       <c r="BY720" s="3"/>
     </row>
-    <row r="721" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -58163,7 +57907,7 @@
       <c r="BX721" s="3"/>
       <c r="BY721" s="3"/>
     </row>
-    <row r="722" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -58242,7 +57986,7 @@
       <c r="BX722" s="3"/>
       <c r="BY722" s="3"/>
     </row>
-    <row r="723" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -58321,7 +58065,7 @@
       <c r="BX723" s="3"/>
       <c r="BY723" s="3"/>
     </row>
-    <row r="724" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -58400,7 +58144,7 @@
       <c r="BX724" s="3"/>
       <c r="BY724" s="3"/>
     </row>
-    <row r="725" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -58479,7 +58223,7 @@
       <c r="BX725" s="3"/>
       <c r="BY725" s="3"/>
     </row>
-    <row r="726" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -58558,7 +58302,7 @@
       <c r="BX726" s="3"/>
       <c r="BY726" s="3"/>
     </row>
-    <row r="727" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -58637,7 +58381,7 @@
       <c r="BX727" s="3"/>
       <c r="BY727" s="3"/>
     </row>
-    <row r="728" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -58716,7 +58460,7 @@
       <c r="BX728" s="3"/>
       <c r="BY728" s="3"/>
     </row>
-    <row r="729" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -58795,7 +58539,7 @@
       <c r="BX729" s="3"/>
       <c r="BY729" s="3"/>
     </row>
-    <row r="730" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -58874,7 +58618,7 @@
       <c r="BX730" s="3"/>
       <c r="BY730" s="3"/>
     </row>
-    <row r="731" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -58953,7 +58697,7 @@
       <c r="BX731" s="3"/>
       <c r="BY731" s="3"/>
     </row>
-    <row r="732" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -59032,7 +58776,7 @@
       <c r="BX732" s="3"/>
       <c r="BY732" s="3"/>
     </row>
-    <row r="733" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -59111,7 +58855,7 @@
       <c r="BX733" s="3"/>
       <c r="BY733" s="3"/>
     </row>
-    <row r="734" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -59190,7 +58934,7 @@
       <c r="BX734" s="3"/>
       <c r="BY734" s="3"/>
     </row>
-    <row r="735" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -59269,7 +59013,7 @@
       <c r="BX735" s="3"/>
       <c r="BY735" s="3"/>
     </row>
-    <row r="736" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -59348,7 +59092,7 @@
       <c r="BX736" s="3"/>
       <c r="BY736" s="3"/>
     </row>
-    <row r="737" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -59427,7 +59171,7 @@
       <c r="BX737" s="3"/>
       <c r="BY737" s="3"/>
     </row>
-    <row r="738" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -59506,7 +59250,7 @@
       <c r="BX738" s="3"/>
       <c r="BY738" s="3"/>
     </row>
-    <row r="739" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -59585,7 +59329,7 @@
       <c r="BX739" s="3"/>
       <c r="BY739" s="3"/>
     </row>
-    <row r="740" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -59664,7 +59408,7 @@
       <c r="BX740" s="3"/>
       <c r="BY740" s="3"/>
     </row>
-    <row r="741" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -59743,7 +59487,7 @@
       <c r="BX741" s="3"/>
       <c r="BY741" s="3"/>
     </row>
-    <row r="742" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -59822,7 +59566,7 @@
       <c r="BX742" s="3"/>
       <c r="BY742" s="3"/>
     </row>
-    <row r="743" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -59901,7 +59645,7 @@
       <c r="BX743" s="3"/>
       <c r="BY743" s="3"/>
     </row>
-    <row r="744" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -59980,7 +59724,7 @@
       <c r="BX744" s="3"/>
       <c r="BY744" s="3"/>
     </row>
-    <row r="745" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -60059,7 +59803,7 @@
       <c r="BX745" s="3"/>
       <c r="BY745" s="3"/>
     </row>
-    <row r="746" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -60138,7 +59882,7 @@
       <c r="BX746" s="3"/>
       <c r="BY746" s="3"/>
     </row>
-    <row r="747" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -60217,7 +59961,7 @@
       <c r="BX747" s="3"/>
       <c r="BY747" s="3"/>
     </row>
-    <row r="748" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -60296,7 +60040,7 @@
       <c r="BX748" s="3"/>
       <c r="BY748" s="3"/>
     </row>
-    <row r="749" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -60375,7 +60119,7 @@
       <c r="BX749" s="3"/>
       <c r="BY749" s="3"/>
     </row>
-    <row r="750" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -60454,7 +60198,7 @@
       <c r="BX750" s="3"/>
       <c r="BY750" s="3"/>
     </row>
-    <row r="751" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -60533,7 +60277,7 @@
       <c r="BX751" s="3"/>
       <c r="BY751" s="3"/>
     </row>
-    <row r="752" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -60612,7 +60356,7 @@
       <c r="BX752" s="3"/>
       <c r="BY752" s="3"/>
     </row>
-    <row r="753" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -60691,7 +60435,7 @@
       <c r="BX753" s="3"/>
       <c r="BY753" s="3"/>
     </row>
-    <row r="754" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -60770,7 +60514,7 @@
       <c r="BX754" s="3"/>
       <c r="BY754" s="3"/>
     </row>
-    <row r="755" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -60849,7 +60593,7 @@
       <c r="BX755" s="3"/>
       <c r="BY755" s="3"/>
     </row>
-    <row r="756" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -60928,7 +60672,7 @@
       <c r="BX756" s="3"/>
       <c r="BY756" s="3"/>
     </row>
-    <row r="757" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -61007,7 +60751,7 @@
       <c r="BX757" s="3"/>
       <c r="BY757" s="3"/>
     </row>
-    <row r="758" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -61086,7 +60830,7 @@
       <c r="BX758" s="3"/>
       <c r="BY758" s="3"/>
     </row>
-    <row r="759" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -61165,7 +60909,7 @@
       <c r="BX759" s="3"/>
       <c r="BY759" s="3"/>
     </row>
-    <row r="760" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -61244,7 +60988,7 @@
       <c r="BX760" s="3"/>
       <c r="BY760" s="3"/>
     </row>
-    <row r="761" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -61323,7 +61067,7 @@
       <c r="BX761" s="3"/>
       <c r="BY761" s="3"/>
     </row>
-    <row r="762" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -61402,7 +61146,7 @@
       <c r="BX762" s="3"/>
       <c r="BY762" s="3"/>
     </row>
-    <row r="763" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -61481,7 +61225,7 @@
       <c r="BX763" s="3"/>
       <c r="BY763" s="3"/>
     </row>
-    <row r="764" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -61560,7 +61304,7 @@
       <c r="BX764" s="3"/>
       <c r="BY764" s="3"/>
     </row>
-    <row r="765" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -61639,7 +61383,7 @@
       <c r="BX765" s="3"/>
       <c r="BY765" s="3"/>
     </row>
-    <row r="766" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -61718,7 +61462,7 @@
       <c r="BX766" s="3"/>
       <c r="BY766" s="3"/>
     </row>
-    <row r="767" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -61797,7 +61541,7 @@
       <c r="BX767" s="3"/>
       <c r="BY767" s="3"/>
     </row>
-    <row r="768" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -61876,7 +61620,7 @@
       <c r="BX768" s="3"/>
       <c r="BY768" s="3"/>
     </row>
-    <row r="769" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -61955,7 +61699,7 @@
       <c r="BX769" s="3"/>
       <c r="BY769" s="3"/>
     </row>
-    <row r="770" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -62034,7 +61778,7 @@
       <c r="BX770" s="3"/>
       <c r="BY770" s="3"/>
     </row>
-    <row r="771" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -62113,7 +61857,7 @@
       <c r="BX771" s="3"/>
       <c r="BY771" s="3"/>
     </row>
-    <row r="772" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -62192,7 +61936,7 @@
       <c r="BX772" s="3"/>
       <c r="BY772" s="3"/>
     </row>
-    <row r="773" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -62271,7 +62015,7 @@
       <c r="BX773" s="3"/>
       <c r="BY773" s="3"/>
     </row>
-    <row r="774" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -62350,7 +62094,7 @@
       <c r="BX774" s="3"/>
       <c r="BY774" s="3"/>
     </row>
-    <row r="775" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -62429,7 +62173,7 @@
       <c r="BX775" s="3"/>
       <c r="BY775" s="3"/>
     </row>
-    <row r="776" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -62508,7 +62252,7 @@
       <c r="BX776" s="3"/>
       <c r="BY776" s="3"/>
     </row>
-    <row r="777" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -62587,7 +62331,7 @@
       <c r="BX777" s="3"/>
       <c r="BY777" s="3"/>
     </row>
-    <row r="778" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -62666,7 +62410,7 @@
       <c r="BX778" s="3"/>
       <c r="BY778" s="3"/>
     </row>
-    <row r="779" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -62745,7 +62489,7 @@
       <c r="BX779" s="3"/>
       <c r="BY779" s="3"/>
     </row>
-    <row r="780" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -62824,7 +62568,7 @@
       <c r="BX780" s="3"/>
       <c r="BY780" s="3"/>
     </row>
-    <row r="781" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -62903,7 +62647,7 @@
       <c r="BX781" s="3"/>
       <c r="BY781" s="3"/>
     </row>
-    <row r="782" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -62982,7 +62726,7 @@
       <c r="BX782" s="3"/>
       <c r="BY782" s="3"/>
     </row>
-    <row r="783" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -63061,7 +62805,7 @@
       <c r="BX783" s="3"/>
       <c r="BY783" s="3"/>
     </row>
-    <row r="784" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -63140,7 +62884,7 @@
       <c r="BX784" s="3"/>
       <c r="BY784" s="3"/>
     </row>
-    <row r="785" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -63219,7 +62963,7 @@
       <c r="BX785" s="3"/>
       <c r="BY785" s="3"/>
     </row>
-    <row r="786" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -63298,7 +63042,7 @@
       <c r="BX786" s="3"/>
       <c r="BY786" s="3"/>
     </row>
-    <row r="787" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -63377,7 +63121,7 @@
       <c r="BX787" s="3"/>
       <c r="BY787" s="3"/>
     </row>
-    <row r="788" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -63456,7 +63200,7 @@
       <c r="BX788" s="3"/>
       <c r="BY788" s="3"/>
     </row>
-    <row r="789" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -63535,7 +63279,7 @@
       <c r="BX789" s="3"/>
       <c r="BY789" s="3"/>
     </row>
-    <row r="790" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -63614,7 +63358,7 @@
       <c r="BX790" s="3"/>
       <c r="BY790" s="3"/>
     </row>
-    <row r="791" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -63693,7 +63437,7 @@
       <c r="BX791" s="3"/>
       <c r="BY791" s="3"/>
     </row>
-    <row r="792" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -63772,7 +63516,7 @@
       <c r="BX792" s="3"/>
       <c r="BY792" s="3"/>
     </row>
-    <row r="793" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -63851,7 +63595,7 @@
       <c r="BX793" s="3"/>
       <c r="BY793" s="3"/>
     </row>
-    <row r="794" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -63930,7 +63674,7 @@
       <c r="BX794" s="3"/>
       <c r="BY794" s="3"/>
     </row>
-    <row r="795" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -64009,7 +63753,7 @@
       <c r="BX795" s="3"/>
       <c r="BY795" s="3"/>
     </row>
-    <row r="796" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -64088,7 +63832,7 @@
       <c r="BX796" s="3"/>
       <c r="BY796" s="3"/>
     </row>
-    <row r="797" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -64167,7 +63911,7 @@
       <c r="BX797" s="3"/>
       <c r="BY797" s="3"/>
     </row>
-    <row r="798" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -64246,7 +63990,7 @@
       <c r="BX798" s="3"/>
       <c r="BY798" s="3"/>
     </row>
-    <row r="799" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -64325,7 +64069,7 @@
       <c r="BX799" s="3"/>
       <c r="BY799" s="3"/>
     </row>
-    <row r="800" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -64404,7 +64148,7 @@
       <c r="BX800" s="3"/>
       <c r="BY800" s="3"/>
     </row>
-    <row r="801" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -64483,7 +64227,7 @@
       <c r="BX801" s="3"/>
       <c r="BY801" s="3"/>
     </row>
-    <row r="802" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -64562,7 +64306,7 @@
       <c r="BX802" s="3"/>
       <c r="BY802" s="3"/>
     </row>
-    <row r="803" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -64641,7 +64385,7 @@
       <c r="BX803" s="3"/>
       <c r="BY803" s="3"/>
     </row>
-    <row r="804" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -64720,7 +64464,7 @@
       <c r="BX804" s="3"/>
       <c r="BY804" s="3"/>
     </row>
-    <row r="805" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -64799,7 +64543,7 @@
       <c r="BX805" s="3"/>
       <c r="BY805" s="3"/>
     </row>
-    <row r="806" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -64878,7 +64622,7 @@
       <c r="BX806" s="3"/>
       <c r="BY806" s="3"/>
     </row>
-    <row r="807" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -64957,7 +64701,7 @@
       <c r="BX807" s="3"/>
       <c r="BY807" s="3"/>
     </row>
-    <row r="808" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>

--- a/historico_s10.xlsx
+++ b/historico_s10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25453b31f5bbcef5/Documentos/GitHub/oleo_combustivel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EEDA1D-4330-4A69-9AE3-B0A5534975A8}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF94F282-B58D-44B5-BE8E-72E82E3E91C4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -658,15 +658,15 @@
   <dimension ref="A1:BY808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,12 +899,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B2" s="3">
-        <v>3.8368000000000002</v>
+        <v>3.8546</v>
       </c>
       <c r="C2" s="3">
         <v>3.8678000000000003</v>
@@ -1106,7 +1106,7 @@
         <v>3.8900409090909083</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1185,7 +1185,7 @@
       <c r="BX3" s="3"/>
       <c r="BY3" s="3"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1264,7 +1264,7 @@
       <c r="BX4" s="3"/>
       <c r="BY4" s="3"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1343,7 +1343,7 @@
       <c r="BX5" s="3"/>
       <c r="BY5" s="3"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1422,7 +1422,7 @@
       <c r="BX6" s="3"/>
       <c r="BY6" s="3"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1501,7 +1501,7 @@
       <c r="BX7" s="3"/>
       <c r="BY7" s="3"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1580,7 +1580,7 @@
       <c r="BX8" s="3"/>
       <c r="BY8" s="3"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1659,7 +1659,7 @@
       <c r="BX9" s="3"/>
       <c r="BY9" s="3"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1738,7 +1738,7 @@
       <c r="BX10" s="3"/>
       <c r="BY10" s="3"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1817,7 +1817,7 @@
       <c r="BX11" s="3"/>
       <c r="BY11" s="3"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1896,7 +1896,7 @@
       <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1975,7 +1975,7 @@
       <c r="BX13" s="3"/>
       <c r="BY13" s="3"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2054,7 +2054,7 @@
       <c r="BX14" s="3"/>
       <c r="BY14" s="3"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2133,7 +2133,7 @@
       <c r="BX15" s="3"/>
       <c r="BY15" s="3"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2212,7 +2212,7 @@
       <c r="BX16" s="3"/>
       <c r="BY16" s="3"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2291,7 +2291,7 @@
       <c r="BX17" s="3"/>
       <c r="BY17" s="3"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2370,7 +2370,7 @@
       <c r="BX18" s="3"/>
       <c r="BY18" s="3"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2449,7 +2449,7 @@
       <c r="BX19" s="3"/>
       <c r="BY19" s="3"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2528,7 +2528,7 @@
       <c r="BX20" s="3"/>
       <c r="BY20" s="3"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2607,7 +2607,7 @@
       <c r="BX21" s="3"/>
       <c r="BY21" s="3"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2686,7 +2686,7 @@
       <c r="BX22" s="3"/>
       <c r="BY22" s="3"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2765,7 +2765,7 @@
       <c r="BX23" s="3"/>
       <c r="BY23" s="3"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2844,7 +2844,7 @@
       <c r="BX24" s="3"/>
       <c r="BY24" s="3"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2923,7 +2923,7 @@
       <c r="BX25" s="3"/>
       <c r="BY25" s="3"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3002,7 +3002,7 @@
       <c r="BX26" s="3"/>
       <c r="BY26" s="3"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3081,7 +3081,7 @@
       <c r="BX27" s="3"/>
       <c r="BY27" s="3"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3160,7 +3160,7 @@
       <c r="BX28" s="3"/>
       <c r="BY28" s="3"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3239,7 +3239,7 @@
       <c r="BX29" s="3"/>
       <c r="BY29" s="3"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3318,7 +3318,7 @@
       <c r="BX30" s="3"/>
       <c r="BY30" s="3"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3397,7 +3397,7 @@
       <c r="BX31" s="3"/>
       <c r="BY31" s="3"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3476,7 +3476,7 @@
       <c r="BX32" s="3"/>
       <c r="BY32" s="3"/>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3555,7 +3555,7 @@
       <c r="BX33" s="3"/>
       <c r="BY33" s="3"/>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3634,7 +3634,7 @@
       <c r="BX34" s="3"/>
       <c r="BY34" s="3"/>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3713,7 +3713,7 @@
       <c r="BX35" s="3"/>
       <c r="BY35" s="3"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3792,7 +3792,7 @@
       <c r="BX36" s="3"/>
       <c r="BY36" s="3"/>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3871,7 +3871,7 @@
       <c r="BX37" s="3"/>
       <c r="BY37" s="3"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3950,7 +3950,7 @@
       <c r="BX38" s="3"/>
       <c r="BY38" s="3"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4029,7 +4029,7 @@
       <c r="BX39" s="3"/>
       <c r="BY39" s="3"/>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4108,7 +4108,7 @@
       <c r="BX40" s="3"/>
       <c r="BY40" s="3"/>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4187,7 +4187,7 @@
       <c r="BX41" s="3"/>
       <c r="BY41" s="3"/>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4266,7 +4266,7 @@
       <c r="BX42" s="3"/>
       <c r="BY42" s="3"/>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4345,7 +4345,7 @@
       <c r="BX43" s="3"/>
       <c r="BY43" s="3"/>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4424,7 +4424,7 @@
       <c r="BX44" s="3"/>
       <c r="BY44" s="3"/>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4503,7 +4503,7 @@
       <c r="BX45" s="3"/>
       <c r="BY45" s="3"/>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4582,7 +4582,7 @@
       <c r="BX46" s="3"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4661,7 +4661,7 @@
       <c r="BX47" s="3"/>
       <c r="BY47" s="3"/>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4740,7 +4740,7 @@
       <c r="BX48" s="3"/>
       <c r="BY48" s="3"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4819,7 +4819,7 @@
       <c r="BX49" s="3"/>
       <c r="BY49" s="3"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4898,7 +4898,7 @@
       <c r="BX50" s="3"/>
       <c r="BY50" s="3"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4977,7 +4977,7 @@
       <c r="BX51" s="3"/>
       <c r="BY51" s="3"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5056,7 +5056,7 @@
       <c r="BX52" s="3"/>
       <c r="BY52" s="3"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5135,7 +5135,7 @@
       <c r="BX53" s="3"/>
       <c r="BY53" s="3"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5214,7 +5214,7 @@
       <c r="BX54" s="3"/>
       <c r="BY54" s="3"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5293,7 +5293,7 @@
       <c r="BX55" s="3"/>
       <c r="BY55" s="3"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5372,7 +5372,7 @@
       <c r="BX56" s="3"/>
       <c r="BY56" s="3"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5451,7 +5451,7 @@
       <c r="BX57" s="3"/>
       <c r="BY57" s="3"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5530,7 +5530,7 @@
       <c r="BX58" s="3"/>
       <c r="BY58" s="3"/>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5609,7 +5609,7 @@
       <c r="BX59" s="3"/>
       <c r="BY59" s="3"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5688,7 +5688,7 @@
       <c r="BX60" s="3"/>
       <c r="BY60" s="3"/>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5767,7 +5767,7 @@
       <c r="BX61" s="3"/>
       <c r="BY61" s="3"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5846,7 +5846,7 @@
       <c r="BX62" s="3"/>
       <c r="BY62" s="3"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5925,7 +5925,7 @@
       <c r="BX63" s="3"/>
       <c r="BY63" s="3"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6004,7 +6004,7 @@
       <c r="BX64" s="3"/>
       <c r="BY64" s="3"/>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6083,7 +6083,7 @@
       <c r="BX65" s="3"/>
       <c r="BY65" s="3"/>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6162,7 +6162,7 @@
       <c r="BX66" s="3"/>
       <c r="BY66" s="3"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6241,7 +6241,7 @@
       <c r="BX67" s="3"/>
       <c r="BY67" s="3"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6320,7 +6320,7 @@
       <c r="BX68" s="3"/>
       <c r="BY68" s="3"/>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6399,7 +6399,7 @@
       <c r="BX69" s="3"/>
       <c r="BY69" s="3"/>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6478,7 +6478,7 @@
       <c r="BX70" s="3"/>
       <c r="BY70" s="3"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6557,7 +6557,7 @@
       <c r="BX71" s="3"/>
       <c r="BY71" s="3"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6636,7 +6636,7 @@
       <c r="BX72" s="3"/>
       <c r="BY72" s="3"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6715,7 +6715,7 @@
       <c r="BX73" s="3"/>
       <c r="BY73" s="3"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6794,7 +6794,7 @@
       <c r="BX74" s="3"/>
       <c r="BY74" s="3"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6873,7 +6873,7 @@
       <c r="BX75" s="3"/>
       <c r="BY75" s="3"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6952,7 +6952,7 @@
       <c r="BX76" s="3"/>
       <c r="BY76" s="3"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7031,7 +7031,7 @@
       <c r="BX77" s="3"/>
       <c r="BY77" s="3"/>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -7110,7 +7110,7 @@
       <c r="BX78" s="3"/>
       <c r="BY78" s="3"/>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -7189,7 +7189,7 @@
       <c r="BX79" s="3"/>
       <c r="BY79" s="3"/>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7268,7 +7268,7 @@
       <c r="BX80" s="3"/>
       <c r="BY80" s="3"/>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7347,7 +7347,7 @@
       <c r="BX81" s="3"/>
       <c r="BY81" s="3"/>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -7426,7 +7426,7 @@
       <c r="BX82" s="3"/>
       <c r="BY82" s="3"/>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -7505,7 +7505,7 @@
       <c r="BX83" s="3"/>
       <c r="BY83" s="3"/>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -7584,7 +7584,7 @@
       <c r="BX84" s="3"/>
       <c r="BY84" s="3"/>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7663,7 +7663,7 @@
       <c r="BX85" s="3"/>
       <c r="BY85" s="3"/>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -7742,7 +7742,7 @@
       <c r="BX86" s="3"/>
       <c r="BY86" s="3"/>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -7821,7 +7821,7 @@
       <c r="BX87" s="3"/>
       <c r="BY87" s="3"/>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -7900,7 +7900,7 @@
       <c r="BX88" s="3"/>
       <c r="BY88" s="3"/>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -7979,7 +7979,7 @@
       <c r="BX89" s="3"/>
       <c r="BY89" s="3"/>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -8058,7 +8058,7 @@
       <c r="BX90" s="3"/>
       <c r="BY90" s="3"/>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8137,7 +8137,7 @@
       <c r="BX91" s="3"/>
       <c r="BY91" s="3"/>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -8216,7 +8216,7 @@
       <c r="BX92" s="3"/>
       <c r="BY92" s="3"/>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8295,7 +8295,7 @@
       <c r="BX93" s="3"/>
       <c r="BY93" s="3"/>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -8374,7 +8374,7 @@
       <c r="BX94" s="3"/>
       <c r="BY94" s="3"/>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8453,7 +8453,7 @@
       <c r="BX95" s="3"/>
       <c r="BY95" s="3"/>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -8532,7 +8532,7 @@
       <c r="BX96" s="3"/>
       <c r="BY96" s="3"/>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -8611,7 +8611,7 @@
       <c r="BX97" s="3"/>
       <c r="BY97" s="3"/>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -8690,7 +8690,7 @@
       <c r="BX98" s="3"/>
       <c r="BY98" s="3"/>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -8769,7 +8769,7 @@
       <c r="BX99" s="3"/>
       <c r="BY99" s="3"/>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -8848,7 +8848,7 @@
       <c r="BX100" s="3"/>
       <c r="BY100" s="3"/>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -8927,7 +8927,7 @@
       <c r="BX101" s="3"/>
       <c r="BY101" s="3"/>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -9006,7 +9006,7 @@
       <c r="BX102" s="3"/>
       <c r="BY102" s="3"/>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -9085,7 +9085,7 @@
       <c r="BX103" s="3"/>
       <c r="BY103" s="3"/>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -9164,7 +9164,7 @@
       <c r="BX104" s="3"/>
       <c r="BY104" s="3"/>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -9243,7 +9243,7 @@
       <c r="BX105" s="3"/>
       <c r="BY105" s="3"/>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -9322,7 +9322,7 @@
       <c r="BX106" s="3"/>
       <c r="BY106" s="3"/>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -9401,7 +9401,7 @@
       <c r="BX107" s="3"/>
       <c r="BY107" s="3"/>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -9480,7 +9480,7 @@
       <c r="BX108" s="3"/>
       <c r="BY108" s="3"/>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -9559,7 +9559,7 @@
       <c r="BX109" s="3"/>
       <c r="BY109" s="3"/>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -9638,7 +9638,7 @@
       <c r="BX110" s="3"/>
       <c r="BY110" s="3"/>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -9717,7 +9717,7 @@
       <c r="BX111" s="3"/>
       <c r="BY111" s="3"/>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -9796,7 +9796,7 @@
       <c r="BX112" s="3"/>
       <c r="BY112" s="3"/>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -9875,7 +9875,7 @@
       <c r="BX113" s="3"/>
       <c r="BY113" s="3"/>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -9954,7 +9954,7 @@
       <c r="BX114" s="3"/>
       <c r="BY114" s="3"/>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -10033,7 +10033,7 @@
       <c r="BX115" s="3"/>
       <c r="BY115" s="3"/>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -10112,7 +10112,7 @@
       <c r="BX116" s="3"/>
       <c r="BY116" s="3"/>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -10191,7 +10191,7 @@
       <c r="BX117" s="3"/>
       <c r="BY117" s="3"/>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -10270,7 +10270,7 @@
       <c r="BX118" s="3"/>
       <c r="BY118" s="3"/>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -10349,7 +10349,7 @@
       <c r="BX119" s="3"/>
       <c r="BY119" s="3"/>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -10428,7 +10428,7 @@
       <c r="BX120" s="3"/>
       <c r="BY120" s="3"/>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -10507,7 +10507,7 @@
       <c r="BX121" s="3"/>
       <c r="BY121" s="3"/>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -10586,7 +10586,7 @@
       <c r="BX122" s="3"/>
       <c r="BY122" s="3"/>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -10665,7 +10665,7 @@
       <c r="BX123" s="3"/>
       <c r="BY123" s="3"/>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -10744,7 +10744,7 @@
       <c r="BX124" s="3"/>
       <c r="BY124" s="3"/>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -10823,7 +10823,7 @@
       <c r="BX125" s="3"/>
       <c r="BY125" s="3"/>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -10902,7 +10902,7 @@
       <c r="BX126" s="3"/>
       <c r="BY126" s="3"/>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -10981,7 +10981,7 @@
       <c r="BX127" s="3"/>
       <c r="BY127" s="3"/>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -11060,7 +11060,7 @@
       <c r="BX128" s="3"/>
       <c r="BY128" s="3"/>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -11139,7 +11139,7 @@
       <c r="BX129" s="3"/>
       <c r="BY129" s="3"/>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -11218,7 +11218,7 @@
       <c r="BX130" s="3"/>
       <c r="BY130" s="3"/>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -11297,7 +11297,7 @@
       <c r="BX131" s="3"/>
       <c r="BY131" s="3"/>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -11376,7 +11376,7 @@
       <c r="BX132" s="3"/>
       <c r="BY132" s="3"/>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -11455,7 +11455,7 @@
       <c r="BX133" s="3"/>
       <c r="BY133" s="3"/>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -11534,7 +11534,7 @@
       <c r="BX134" s="3"/>
       <c r="BY134" s="3"/>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -11613,7 +11613,7 @@
       <c r="BX135" s="3"/>
       <c r="BY135" s="3"/>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -11692,7 +11692,7 @@
       <c r="BX136" s="3"/>
       <c r="BY136" s="3"/>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -11771,7 +11771,7 @@
       <c r="BX137" s="3"/>
       <c r="BY137" s="3"/>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -11850,7 +11850,7 @@
       <c r="BX138" s="3"/>
       <c r="BY138" s="3"/>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -11929,7 +11929,7 @@
       <c r="BX139" s="3"/>
       <c r="BY139" s="3"/>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -12008,7 +12008,7 @@
       <c r="BX140" s="3"/>
       <c r="BY140" s="3"/>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -12087,7 +12087,7 @@
       <c r="BX141" s="3"/>
       <c r="BY141" s="3"/>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -12166,7 +12166,7 @@
       <c r="BX142" s="3"/>
       <c r="BY142" s="3"/>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -12245,7 +12245,7 @@
       <c r="BX143" s="3"/>
       <c r="BY143" s="3"/>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -12324,7 +12324,7 @@
       <c r="BX144" s="3"/>
       <c r="BY144" s="3"/>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -12403,7 +12403,7 @@
       <c r="BX145" s="3"/>
       <c r="BY145" s="3"/>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -12482,7 +12482,7 @@
       <c r="BX146" s="3"/>
       <c r="BY146" s="3"/>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -12561,7 +12561,7 @@
       <c r="BX147" s="3"/>
       <c r="BY147" s="3"/>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -12640,7 +12640,7 @@
       <c r="BX148" s="3"/>
       <c r="BY148" s="3"/>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -12719,7 +12719,7 @@
       <c r="BX149" s="3"/>
       <c r="BY149" s="3"/>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -12798,7 +12798,7 @@
       <c r="BX150" s="3"/>
       <c r="BY150" s="3"/>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -12877,7 +12877,7 @@
       <c r="BX151" s="3"/>
       <c r="BY151" s="3"/>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -12956,7 +12956,7 @@
       <c r="BX152" s="3"/>
       <c r="BY152" s="3"/>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -13035,7 +13035,7 @@
       <c r="BX153" s="3"/>
       <c r="BY153" s="3"/>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -13114,7 +13114,7 @@
       <c r="BX154" s="3"/>
       <c r="BY154" s="3"/>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -13193,7 +13193,7 @@
       <c r="BX155" s="3"/>
       <c r="BY155" s="3"/>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -13272,7 +13272,7 @@
       <c r="BX156" s="3"/>
       <c r="BY156" s="3"/>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -13351,7 +13351,7 @@
       <c r="BX157" s="3"/>
       <c r="BY157" s="3"/>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -13430,7 +13430,7 @@
       <c r="BX158" s="3"/>
       <c r="BY158" s="3"/>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -13509,7 +13509,7 @@
       <c r="BX159" s="3"/>
       <c r="BY159" s="3"/>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -13588,7 +13588,7 @@
       <c r="BX160" s="3"/>
       <c r="BY160" s="3"/>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -13667,7 +13667,7 @@
       <c r="BX161" s="3"/>
       <c r="BY161" s="3"/>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -13746,7 +13746,7 @@
       <c r="BX162" s="3"/>
       <c r="BY162" s="3"/>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -13825,7 +13825,7 @@
       <c r="BX163" s="3"/>
       <c r="BY163" s="3"/>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -13904,7 +13904,7 @@
       <c r="BX164" s="3"/>
       <c r="BY164" s="3"/>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -13983,7 +13983,7 @@
       <c r="BX165" s="3"/>
       <c r="BY165" s="3"/>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -14062,7 +14062,7 @@
       <c r="BX166" s="3"/>
       <c r="BY166" s="3"/>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -14141,7 +14141,7 @@
       <c r="BX167" s="3"/>
       <c r="BY167" s="3"/>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -14220,7 +14220,7 @@
       <c r="BX168" s="3"/>
       <c r="BY168" s="3"/>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -14299,7 +14299,7 @@
       <c r="BX169" s="3"/>
       <c r="BY169" s="3"/>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -14378,7 +14378,7 @@
       <c r="BX170" s="3"/>
       <c r="BY170" s="3"/>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -14457,7 +14457,7 @@
       <c r="BX171" s="3"/>
       <c r="BY171" s="3"/>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -14536,7 +14536,7 @@
       <c r="BX172" s="3"/>
       <c r="BY172" s="3"/>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -14615,7 +14615,7 @@
       <c r="BX173" s="3"/>
       <c r="BY173" s="3"/>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -14694,7 +14694,7 @@
       <c r="BX174" s="3"/>
       <c r="BY174" s="3"/>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -14773,7 +14773,7 @@
       <c r="BX175" s="3"/>
       <c r="BY175" s="3"/>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -14852,7 +14852,7 @@
       <c r="BX176" s="3"/>
       <c r="BY176" s="3"/>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -14931,7 +14931,7 @@
       <c r="BX177" s="3"/>
       <c r="BY177" s="3"/>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -15010,7 +15010,7 @@
       <c r="BX178" s="3"/>
       <c r="BY178" s="3"/>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -15089,7 +15089,7 @@
       <c r="BX179" s="3"/>
       <c r="BY179" s="3"/>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -15168,7 +15168,7 @@
       <c r="BX180" s="3"/>
       <c r="BY180" s="3"/>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -15247,7 +15247,7 @@
       <c r="BX181" s="3"/>
       <c r="BY181" s="3"/>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -15326,7 +15326,7 @@
       <c r="BX182" s="3"/>
       <c r="BY182" s="3"/>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -15405,7 +15405,7 @@
       <c r="BX183" s="3"/>
       <c r="BY183" s="3"/>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -15484,7 +15484,7 @@
       <c r="BX184" s="3"/>
       <c r="BY184" s="3"/>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -15563,7 +15563,7 @@
       <c r="BX185" s="3"/>
       <c r="BY185" s="3"/>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -15642,7 +15642,7 @@
       <c r="BX186" s="3"/>
       <c r="BY186" s="3"/>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -15721,7 +15721,7 @@
       <c r="BX187" s="3"/>
       <c r="BY187" s="3"/>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -15800,7 +15800,7 @@
       <c r="BX188" s="3"/>
       <c r="BY188" s="3"/>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -15879,7 +15879,7 @@
       <c r="BX189" s="3"/>
       <c r="BY189" s="3"/>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -15958,7 +15958,7 @@
       <c r="BX190" s="3"/>
       <c r="BY190" s="3"/>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -16037,7 +16037,7 @@
       <c r="BX191" s="3"/>
       <c r="BY191" s="3"/>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -16116,7 +16116,7 @@
       <c r="BX192" s="3"/>
       <c r="BY192" s="3"/>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -16195,7 +16195,7 @@
       <c r="BX193" s="3"/>
       <c r="BY193" s="3"/>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -16274,7 +16274,7 @@
       <c r="BX194" s="3"/>
       <c r="BY194" s="3"/>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -16353,7 +16353,7 @@
       <c r="BX195" s="3"/>
       <c r="BY195" s="3"/>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -16432,7 +16432,7 @@
       <c r="BX196" s="3"/>
       <c r="BY196" s="3"/>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -16511,7 +16511,7 @@
       <c r="BX197" s="3"/>
       <c r="BY197" s="3"/>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -16590,7 +16590,7 @@
       <c r="BX198" s="3"/>
       <c r="BY198" s="3"/>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -16669,7 +16669,7 @@
       <c r="BX199" s="3"/>
       <c r="BY199" s="3"/>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -16748,7 +16748,7 @@
       <c r="BX200" s="3"/>
       <c r="BY200" s="3"/>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -16827,7 +16827,7 @@
       <c r="BX201" s="3"/>
       <c r="BY201" s="3"/>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -16906,7 +16906,7 @@
       <c r="BX202" s="3"/>
       <c r="BY202" s="3"/>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -16985,7 +16985,7 @@
       <c r="BX203" s="3"/>
       <c r="BY203" s="3"/>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -17064,7 +17064,7 @@
       <c r="BX204" s="3"/>
       <c r="BY204" s="3"/>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -17143,7 +17143,7 @@
       <c r="BX205" s="3"/>
       <c r="BY205" s="3"/>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -17222,7 +17222,7 @@
       <c r="BX206" s="3"/>
       <c r="BY206" s="3"/>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -17301,7 +17301,7 @@
       <c r="BX207" s="3"/>
       <c r="BY207" s="3"/>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -17380,7 +17380,7 @@
       <c r="BX208" s="3"/>
       <c r="BY208" s="3"/>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -17459,7 +17459,7 @@
       <c r="BX209" s="3"/>
       <c r="BY209" s="3"/>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -17538,7 +17538,7 @@
       <c r="BX210" s="3"/>
       <c r="BY210" s="3"/>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -17617,7 +17617,7 @@
       <c r="BX211" s="3"/>
       <c r="BY211" s="3"/>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -17696,7 +17696,7 @@
       <c r="BX212" s="3"/>
       <c r="BY212" s="3"/>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -17775,7 +17775,7 @@
       <c r="BX213" s="3"/>
       <c r="BY213" s="3"/>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -17854,7 +17854,7 @@
       <c r="BX214" s="3"/>
       <c r="BY214" s="3"/>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -17933,7 +17933,7 @@
       <c r="BX215" s="3"/>
       <c r="BY215" s="3"/>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -18012,7 +18012,7 @@
       <c r="BX216" s="3"/>
       <c r="BY216" s="3"/>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -18091,7 +18091,7 @@
       <c r="BX217" s="3"/>
       <c r="BY217" s="3"/>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -18170,7 +18170,7 @@
       <c r="BX218" s="3"/>
       <c r="BY218" s="3"/>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -18249,7 +18249,7 @@
       <c r="BX219" s="3"/>
       <c r="BY219" s="3"/>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -18328,7 +18328,7 @@
       <c r="BX220" s="3"/>
       <c r="BY220" s="3"/>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -18407,7 +18407,7 @@
       <c r="BX221" s="3"/>
       <c r="BY221" s="3"/>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -18486,7 +18486,7 @@
       <c r="BX222" s="3"/>
       <c r="BY222" s="3"/>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -18565,7 +18565,7 @@
       <c r="BX223" s="3"/>
       <c r="BY223" s="3"/>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -18644,7 +18644,7 @@
       <c r="BX224" s="3"/>
       <c r="BY224" s="3"/>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -18723,7 +18723,7 @@
       <c r="BX225" s="3"/>
       <c r="BY225" s="3"/>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -18802,7 +18802,7 @@
       <c r="BX226" s="3"/>
       <c r="BY226" s="3"/>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -18881,7 +18881,7 @@
       <c r="BX227" s="3"/>
       <c r="BY227" s="3"/>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -18960,7 +18960,7 @@
       <c r="BX228" s="3"/>
       <c r="BY228" s="3"/>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -19039,7 +19039,7 @@
       <c r="BX229" s="3"/>
       <c r="BY229" s="3"/>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -19118,7 +19118,7 @@
       <c r="BX230" s="3"/>
       <c r="BY230" s="3"/>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -19197,7 +19197,7 @@
       <c r="BX231" s="3"/>
       <c r="BY231" s="3"/>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -19276,7 +19276,7 @@
       <c r="BX232" s="3"/>
       <c r="BY232" s="3"/>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -19355,7 +19355,7 @@
       <c r="BX233" s="3"/>
       <c r="BY233" s="3"/>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -19434,7 +19434,7 @@
       <c r="BX234" s="3"/>
       <c r="BY234" s="3"/>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -19513,7 +19513,7 @@
       <c r="BX235" s="3"/>
       <c r="BY235" s="3"/>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -19592,7 +19592,7 @@
       <c r="BX236" s="3"/>
       <c r="BY236" s="3"/>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -19671,7 +19671,7 @@
       <c r="BX237" s="3"/>
       <c r="BY237" s="3"/>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -19750,7 +19750,7 @@
       <c r="BX238" s="3"/>
       <c r="BY238" s="3"/>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -19829,7 +19829,7 @@
       <c r="BX239" s="3"/>
       <c r="BY239" s="3"/>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -19908,7 +19908,7 @@
       <c r="BX240" s="3"/>
       <c r="BY240" s="3"/>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -19987,7 +19987,7 @@
       <c r="BX241" s="3"/>
       <c r="BY241" s="3"/>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -20066,7 +20066,7 @@
       <c r="BX242" s="3"/>
       <c r="BY242" s="3"/>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -20145,7 +20145,7 @@
       <c r="BX243" s="3"/>
       <c r="BY243" s="3"/>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -20224,7 +20224,7 @@
       <c r="BX244" s="3"/>
       <c r="BY244" s="3"/>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -20303,7 +20303,7 @@
       <c r="BX245" s="3"/>
       <c r="BY245" s="3"/>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -20382,7 +20382,7 @@
       <c r="BX246" s="3"/>
       <c r="BY246" s="3"/>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -20461,7 +20461,7 @@
       <c r="BX247" s="3"/>
       <c r="BY247" s="3"/>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -20540,7 +20540,7 @@
       <c r="BX248" s="3"/>
       <c r="BY248" s="3"/>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -20619,7 +20619,7 @@
       <c r="BX249" s="3"/>
       <c r="BY249" s="3"/>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -20698,7 +20698,7 @@
       <c r="BX250" s="3"/>
       <c r="BY250" s="3"/>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -20777,7 +20777,7 @@
       <c r="BX251" s="3"/>
       <c r="BY251" s="3"/>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -20856,7 +20856,7 @@
       <c r="BX252" s="3"/>
       <c r="BY252" s="3"/>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -20935,7 +20935,7 @@
       <c r="BX253" s="3"/>
       <c r="BY253" s="3"/>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -21014,7 +21014,7 @@
       <c r="BX254" s="3"/>
       <c r="BY254" s="3"/>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -21093,7 +21093,7 @@
       <c r="BX255" s="3"/>
       <c r="BY255" s="3"/>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -21172,7 +21172,7 @@
       <c r="BX256" s="3"/>
       <c r="BY256" s="3"/>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -21251,7 +21251,7 @@
       <c r="BX257" s="3"/>
       <c r="BY257" s="3"/>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -21330,7 +21330,7 @@
       <c r="BX258" s="3"/>
       <c r="BY258" s="3"/>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -21409,7 +21409,7 @@
       <c r="BX259" s="3"/>
       <c r="BY259" s="3"/>
     </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -21488,7 +21488,7 @@
       <c r="BX260" s="3"/>
       <c r="BY260" s="3"/>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -21567,7 +21567,7 @@
       <c r="BX261" s="3"/>
       <c r="BY261" s="3"/>
     </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -21646,7 +21646,7 @@
       <c r="BX262" s="3"/>
       <c r="BY262" s="3"/>
     </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -21725,7 +21725,7 @@
       <c r="BX263" s="3"/>
       <c r="BY263" s="3"/>
     </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -21804,7 +21804,7 @@
       <c r="BX264" s="3"/>
       <c r="BY264" s="3"/>
     </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -21883,7 +21883,7 @@
       <c r="BX265" s="3"/>
       <c r="BY265" s="3"/>
     </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -21962,7 +21962,7 @@
       <c r="BX266" s="3"/>
       <c r="BY266" s="3"/>
     </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -22041,7 +22041,7 @@
       <c r="BX267" s="3"/>
       <c r="BY267" s="3"/>
     </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -22120,7 +22120,7 @@
       <c r="BX268" s="3"/>
       <c r="BY268" s="3"/>
     </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -22199,7 +22199,7 @@
       <c r="BX269" s="3"/>
       <c r="BY269" s="3"/>
     </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -22278,7 +22278,7 @@
       <c r="BX270" s="3"/>
       <c r="BY270" s="3"/>
     </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -22357,7 +22357,7 @@
       <c r="BX271" s="3"/>
       <c r="BY271" s="3"/>
     </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -22436,7 +22436,7 @@
       <c r="BX272" s="3"/>
       <c r="BY272" s="3"/>
     </row>
-    <row r="273" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -22515,7 +22515,7 @@
       <c r="BX273" s="3"/>
       <c r="BY273" s="3"/>
     </row>
-    <row r="274" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -22594,7 +22594,7 @@
       <c r="BX274" s="3"/>
       <c r="BY274" s="3"/>
     </row>
-    <row r="275" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -22673,7 +22673,7 @@
       <c r="BX275" s="3"/>
       <c r="BY275" s="3"/>
     </row>
-    <row r="276" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -22752,7 +22752,7 @@
       <c r="BX276" s="3"/>
       <c r="BY276" s="3"/>
     </row>
-    <row r="277" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -22831,7 +22831,7 @@
       <c r="BX277" s="3"/>
       <c r="BY277" s="3"/>
     </row>
-    <row r="278" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -22910,7 +22910,7 @@
       <c r="BX278" s="3"/>
       <c r="BY278" s="3"/>
     </row>
-    <row r="279" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -22989,7 +22989,7 @@
       <c r="BX279" s="3"/>
       <c r="BY279" s="3"/>
     </row>
-    <row r="280" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -23068,7 +23068,7 @@
       <c r="BX280" s="3"/>
       <c r="BY280" s="3"/>
     </row>
-    <row r="281" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -23147,7 +23147,7 @@
       <c r="BX281" s="3"/>
       <c r="BY281" s="3"/>
     </row>
-    <row r="282" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -23226,7 +23226,7 @@
       <c r="BX282" s="3"/>
       <c r="BY282" s="3"/>
     </row>
-    <row r="283" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -23305,7 +23305,7 @@
       <c r="BX283" s="3"/>
       <c r="BY283" s="3"/>
     </row>
-    <row r="284" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -23384,7 +23384,7 @@
       <c r="BX284" s="3"/>
       <c r="BY284" s="3"/>
     </row>
-    <row r="285" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -23463,7 +23463,7 @@
       <c r="BX285" s="3"/>
       <c r="BY285" s="3"/>
     </row>
-    <row r="286" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -23542,7 +23542,7 @@
       <c r="BX286" s="3"/>
       <c r="BY286" s="3"/>
     </row>
-    <row r="287" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -23621,7 +23621,7 @@
       <c r="BX287" s="3"/>
       <c r="BY287" s="3"/>
     </row>
-    <row r="288" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -23700,7 +23700,7 @@
       <c r="BX288" s="3"/>
       <c r="BY288" s="3"/>
     </row>
-    <row r="289" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -23779,7 +23779,7 @@
       <c r="BX289" s="3"/>
       <c r="BY289" s="3"/>
     </row>
-    <row r="290" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -23858,7 +23858,7 @@
       <c r="BX290" s="3"/>
       <c r="BY290" s="3"/>
     </row>
-    <row r="291" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -23937,7 +23937,7 @@
       <c r="BX291" s="3"/>
       <c r="BY291" s="3"/>
     </row>
-    <row r="292" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -24016,7 +24016,7 @@
       <c r="BX292" s="3"/>
       <c r="BY292" s="3"/>
     </row>
-    <row r="293" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -24095,7 +24095,7 @@
       <c r="BX293" s="3"/>
       <c r="BY293" s="3"/>
     </row>
-    <row r="294" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -24174,7 +24174,7 @@
       <c r="BX294" s="3"/>
       <c r="BY294" s="3"/>
     </row>
-    <row r="295" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -24253,7 +24253,7 @@
       <c r="BX295" s="3"/>
       <c r="BY295" s="3"/>
     </row>
-    <row r="296" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -24332,7 +24332,7 @@
       <c r="BX296" s="3"/>
       <c r="BY296" s="3"/>
     </row>
-    <row r="297" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -24411,7 +24411,7 @@
       <c r="BX297" s="3"/>
       <c r="BY297" s="3"/>
     </row>
-    <row r="298" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -24490,7 +24490,7 @@
       <c r="BX298" s="3"/>
       <c r="BY298" s="3"/>
     </row>
-    <row r="299" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -24569,7 +24569,7 @@
       <c r="BX299" s="3"/>
       <c r="BY299" s="3"/>
     </row>
-    <row r="300" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -24648,7 +24648,7 @@
       <c r="BX300" s="3"/>
       <c r="BY300" s="3"/>
     </row>
-    <row r="301" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -24727,7 +24727,7 @@
       <c r="BX301" s="3"/>
       <c r="BY301" s="3"/>
     </row>
-    <row r="302" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -24806,7 +24806,7 @@
       <c r="BX302" s="3"/>
       <c r="BY302" s="3"/>
     </row>
-    <row r="303" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -24885,7 +24885,7 @@
       <c r="BX303" s="3"/>
       <c r="BY303" s="3"/>
     </row>
-    <row r="304" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -24964,7 +24964,7 @@
       <c r="BX304" s="3"/>
       <c r="BY304" s="3"/>
     </row>
-    <row r="305" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -25043,7 +25043,7 @@
       <c r="BX305" s="3"/>
       <c r="BY305" s="3"/>
     </row>
-    <row r="306" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -25122,7 +25122,7 @@
       <c r="BX306" s="3"/>
       <c r="BY306" s="3"/>
     </row>
-    <row r="307" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -25201,7 +25201,7 @@
       <c r="BX307" s="3"/>
       <c r="BY307" s="3"/>
     </row>
-    <row r="308" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -25280,7 +25280,7 @@
       <c r="BX308" s="3"/>
       <c r="BY308" s="3"/>
     </row>
-    <row r="309" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -25359,7 +25359,7 @@
       <c r="BX309" s="3"/>
       <c r="BY309" s="3"/>
     </row>
-    <row r="310" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -25438,7 +25438,7 @@
       <c r="BX310" s="3"/>
       <c r="BY310" s="3"/>
     </row>
-    <row r="311" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -25517,7 +25517,7 @@
       <c r="BX311" s="3"/>
       <c r="BY311" s="3"/>
     </row>
-    <row r="312" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -25596,7 +25596,7 @@
       <c r="BX312" s="3"/>
       <c r="BY312" s="3"/>
     </row>
-    <row r="313" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -25675,7 +25675,7 @@
       <c r="BX313" s="3"/>
       <c r="BY313" s="3"/>
     </row>
-    <row r="314" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -25754,7 +25754,7 @@
       <c r="BX314" s="3"/>
       <c r="BY314" s="3"/>
     </row>
-    <row r="315" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -25833,7 +25833,7 @@
       <c r="BX315" s="3"/>
       <c r="BY315" s="3"/>
     </row>
-    <row r="316" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -25912,7 +25912,7 @@
       <c r="BX316" s="3"/>
       <c r="BY316" s="3"/>
     </row>
-    <row r="317" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -25991,7 +25991,7 @@
       <c r="BX317" s="3"/>
       <c r="BY317" s="3"/>
     </row>
-    <row r="318" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -26070,7 +26070,7 @@
       <c r="BX318" s="3"/>
       <c r="BY318" s="3"/>
     </row>
-    <row r="319" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -26149,7 +26149,7 @@
       <c r="BX319" s="3"/>
       <c r="BY319" s="3"/>
     </row>
-    <row r="320" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -26228,7 +26228,7 @@
       <c r="BX320" s="3"/>
       <c r="BY320" s="3"/>
     </row>
-    <row r="321" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -26307,7 +26307,7 @@
       <c r="BX321" s="3"/>
       <c r="BY321" s="3"/>
     </row>
-    <row r="322" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -26386,7 +26386,7 @@
       <c r="BX322" s="3"/>
       <c r="BY322" s="3"/>
     </row>
-    <row r="323" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -26465,7 +26465,7 @@
       <c r="BX323" s="3"/>
       <c r="BY323" s="3"/>
     </row>
-    <row r="324" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -26544,7 +26544,7 @@
       <c r="BX324" s="3"/>
       <c r="BY324" s="3"/>
     </row>
-    <row r="325" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -26623,7 +26623,7 @@
       <c r="BX325" s="3"/>
       <c r="BY325" s="3"/>
     </row>
-    <row r="326" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -26702,7 +26702,7 @@
       <c r="BX326" s="3"/>
       <c r="BY326" s="3"/>
     </row>
-    <row r="327" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -26781,7 +26781,7 @@
       <c r="BX327" s="3"/>
       <c r="BY327" s="3"/>
     </row>
-    <row r="328" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -26860,7 +26860,7 @@
       <c r="BX328" s="3"/>
       <c r="BY328" s="3"/>
     </row>
-    <row r="329" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -26939,7 +26939,7 @@
       <c r="BX329" s="3"/>
       <c r="BY329" s="3"/>
     </row>
-    <row r="330" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -27018,7 +27018,7 @@
       <c r="BX330" s="3"/>
       <c r="BY330" s="3"/>
     </row>
-    <row r="331" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -27097,7 +27097,7 @@
       <c r="BX331" s="3"/>
       <c r="BY331" s="3"/>
     </row>
-    <row r="332" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -27176,7 +27176,7 @@
       <c r="BX332" s="3"/>
       <c r="BY332" s="3"/>
     </row>
-    <row r="333" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -27255,7 +27255,7 @@
       <c r="BX333" s="3"/>
       <c r="BY333" s="3"/>
     </row>
-    <row r="334" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -27334,7 +27334,7 @@
       <c r="BX334" s="3"/>
       <c r="BY334" s="3"/>
     </row>
-    <row r="335" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -27413,7 +27413,7 @@
       <c r="BX335" s="3"/>
       <c r="BY335" s="3"/>
     </row>
-    <row r="336" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -27492,7 +27492,7 @@
       <c r="BX336" s="3"/>
       <c r="BY336" s="3"/>
     </row>
-    <row r="337" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -27571,7 +27571,7 @@
       <c r="BX337" s="3"/>
       <c r="BY337" s="3"/>
     </row>
-    <row r="338" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -27650,7 +27650,7 @@
       <c r="BX338" s="3"/>
       <c r="BY338" s="3"/>
     </row>
-    <row r="339" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -27729,7 +27729,7 @@
       <c r="BX339" s="3"/>
       <c r="BY339" s="3"/>
     </row>
-    <row r="340" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -27808,7 +27808,7 @@
       <c r="BX340" s="3"/>
       <c r="BY340" s="3"/>
     </row>
-    <row r="341" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -27887,7 +27887,7 @@
       <c r="BX341" s="3"/>
       <c r="BY341" s="3"/>
     </row>
-    <row r="342" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -27966,7 +27966,7 @@
       <c r="BX342" s="3"/>
       <c r="BY342" s="3"/>
     </row>
-    <row r="343" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -28045,7 +28045,7 @@
       <c r="BX343" s="3"/>
       <c r="BY343" s="3"/>
     </row>
-    <row r="344" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -28124,7 +28124,7 @@
       <c r="BX344" s="3"/>
       <c r="BY344" s="3"/>
     </row>
-    <row r="345" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -28203,7 +28203,7 @@
       <c r="BX345" s="3"/>
       <c r="BY345" s="3"/>
     </row>
-    <row r="346" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -28282,7 +28282,7 @@
       <c r="BX346" s="3"/>
       <c r="BY346" s="3"/>
     </row>
-    <row r="347" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -28361,7 +28361,7 @@
       <c r="BX347" s="3"/>
       <c r="BY347" s="3"/>
     </row>
-    <row r="348" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -28440,7 +28440,7 @@
       <c r="BX348" s="3"/>
       <c r="BY348" s="3"/>
     </row>
-    <row r="349" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -28519,7 +28519,7 @@
       <c r="BX349" s="3"/>
       <c r="BY349" s="3"/>
     </row>
-    <row r="350" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -28598,7 +28598,7 @@
       <c r="BX350" s="3"/>
       <c r="BY350" s="3"/>
     </row>
-    <row r="351" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -28677,7 +28677,7 @@
       <c r="BX351" s="3"/>
       <c r="BY351" s="3"/>
     </row>
-    <row r="352" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -28756,7 +28756,7 @@
       <c r="BX352" s="3"/>
       <c r="BY352" s="3"/>
     </row>
-    <row r="353" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -28835,7 +28835,7 @@
       <c r="BX353" s="3"/>
       <c r="BY353" s="3"/>
     </row>
-    <row r="354" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -28914,7 +28914,7 @@
       <c r="BX354" s="3"/>
       <c r="BY354" s="3"/>
     </row>
-    <row r="355" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -28993,7 +28993,7 @@
       <c r="BX355" s="3"/>
       <c r="BY355" s="3"/>
     </row>
-    <row r="356" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -29072,7 +29072,7 @@
       <c r="BX356" s="3"/>
       <c r="BY356" s="3"/>
     </row>
-    <row r="357" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -29151,7 +29151,7 @@
       <c r="BX357" s="3"/>
       <c r="BY357" s="3"/>
     </row>
-    <row r="358" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -29230,7 +29230,7 @@
       <c r="BX358" s="3"/>
       <c r="BY358" s="3"/>
     </row>
-    <row r="359" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -29309,7 +29309,7 @@
       <c r="BX359" s="3"/>
       <c r="BY359" s="3"/>
     </row>
-    <row r="360" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -29388,7 +29388,7 @@
       <c r="BX360" s="3"/>
       <c r="BY360" s="3"/>
     </row>
-    <row r="361" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -29467,7 +29467,7 @@
       <c r="BX361" s="3"/>
       <c r="BY361" s="3"/>
     </row>
-    <row r="362" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -29546,7 +29546,7 @@
       <c r="BX362" s="3"/>
       <c r="BY362" s="3"/>
     </row>
-    <row r="363" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -29625,7 +29625,7 @@
       <c r="BX363" s="3"/>
       <c r="BY363" s="3"/>
     </row>
-    <row r="364" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -29704,7 +29704,7 @@
       <c r="BX364" s="3"/>
       <c r="BY364" s="3"/>
     </row>
-    <row r="365" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -29783,7 +29783,7 @@
       <c r="BX365" s="3"/>
       <c r="BY365" s="3"/>
     </row>
-    <row r="366" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -29862,7 +29862,7 @@
       <c r="BX366" s="3"/>
       <c r="BY366" s="3"/>
     </row>
-    <row r="367" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -29941,7 +29941,7 @@
       <c r="BX367" s="3"/>
       <c r="BY367" s="3"/>
     </row>
-    <row r="368" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -30020,7 +30020,7 @@
       <c r="BX368" s="3"/>
       <c r="BY368" s="3"/>
     </row>
-    <row r="369" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -30099,7 +30099,7 @@
       <c r="BX369" s="3"/>
       <c r="BY369" s="3"/>
     </row>
-    <row r="370" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -30178,7 +30178,7 @@
       <c r="BX370" s="3"/>
       <c r="BY370" s="3"/>
     </row>
-    <row r="371" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -30257,7 +30257,7 @@
       <c r="BX371" s="3"/>
       <c r="BY371" s="3"/>
     </row>
-    <row r="372" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -30336,7 +30336,7 @@
       <c r="BX372" s="3"/>
       <c r="BY372" s="3"/>
     </row>
-    <row r="373" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -30415,7 +30415,7 @@
       <c r="BX373" s="3"/>
       <c r="BY373" s="3"/>
     </row>
-    <row r="374" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -30494,7 +30494,7 @@
       <c r="BX374" s="3"/>
       <c r="BY374" s="3"/>
     </row>
-    <row r="375" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -30573,7 +30573,7 @@
       <c r="BX375" s="3"/>
       <c r="BY375" s="3"/>
     </row>
-    <row r="376" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -30652,7 +30652,7 @@
       <c r="BX376" s="3"/>
       <c r="BY376" s="3"/>
     </row>
-    <row r="377" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -30731,7 +30731,7 @@
       <c r="BX377" s="3"/>
       <c r="BY377" s="3"/>
     </row>
-    <row r="378" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -30810,7 +30810,7 @@
       <c r="BX378" s="3"/>
       <c r="BY378" s="3"/>
     </row>
-    <row r="379" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -30889,7 +30889,7 @@
       <c r="BX379" s="3"/>
       <c r="BY379" s="3"/>
     </row>
-    <row r="380" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -30968,7 +30968,7 @@
       <c r="BX380" s="3"/>
       <c r="BY380" s="3"/>
     </row>
-    <row r="381" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -31047,7 +31047,7 @@
       <c r="BX381" s="3"/>
       <c r="BY381" s="3"/>
     </row>
-    <row r="382" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -31126,7 +31126,7 @@
       <c r="BX382" s="3"/>
       <c r="BY382" s="3"/>
     </row>
-    <row r="383" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -31205,7 +31205,7 @@
       <c r="BX383" s="3"/>
       <c r="BY383" s="3"/>
     </row>
-    <row r="384" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -31284,7 +31284,7 @@
       <c r="BX384" s="3"/>
       <c r="BY384" s="3"/>
     </row>
-    <row r="385" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -31363,7 +31363,7 @@
       <c r="BX385" s="3"/>
       <c r="BY385" s="3"/>
     </row>
-    <row r="386" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -31442,7 +31442,7 @@
       <c r="BX386" s="3"/>
       <c r="BY386" s="3"/>
     </row>
-    <row r="387" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -31521,7 +31521,7 @@
       <c r="BX387" s="3"/>
       <c r="BY387" s="3"/>
     </row>
-    <row r="388" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -31600,7 +31600,7 @@
       <c r="BX388" s="3"/>
       <c r="BY388" s="3"/>
     </row>
-    <row r="389" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -31679,7 +31679,7 @@
       <c r="BX389" s="3"/>
       <c r="BY389" s="3"/>
     </row>
-    <row r="390" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -31758,7 +31758,7 @@
       <c r="BX390" s="3"/>
       <c r="BY390" s="3"/>
     </row>
-    <row r="391" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -31837,7 +31837,7 @@
       <c r="BX391" s="3"/>
       <c r="BY391" s="3"/>
     </row>
-    <row r="392" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -31916,7 +31916,7 @@
       <c r="BX392" s="3"/>
       <c r="BY392" s="3"/>
     </row>
-    <row r="393" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -31995,7 +31995,7 @@
       <c r="BX393" s="3"/>
       <c r="BY393" s="3"/>
     </row>
-    <row r="394" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -32074,7 +32074,7 @@
       <c r="BX394" s="3"/>
       <c r="BY394" s="3"/>
     </row>
-    <row r="395" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -32153,7 +32153,7 @@
       <c r="BX395" s="3"/>
       <c r="BY395" s="3"/>
     </row>
-    <row r="396" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -32232,7 +32232,7 @@
       <c r="BX396" s="3"/>
       <c r="BY396" s="3"/>
     </row>
-    <row r="397" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -32311,7 +32311,7 @@
       <c r="BX397" s="3"/>
       <c r="BY397" s="3"/>
     </row>
-    <row r="398" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -32390,7 +32390,7 @@
       <c r="BX398" s="3"/>
       <c r="BY398" s="3"/>
     </row>
-    <row r="399" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -32469,7 +32469,7 @@
       <c r="BX399" s="3"/>
       <c r="BY399" s="3"/>
     </row>
-    <row r="400" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -32548,7 +32548,7 @@
       <c r="BX400" s="3"/>
       <c r="BY400" s="3"/>
     </row>
-    <row r="401" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -32627,7 +32627,7 @@
       <c r="BX401" s="3"/>
       <c r="BY401" s="3"/>
     </row>
-    <row r="402" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -32706,7 +32706,7 @@
       <c r="BX402" s="3"/>
       <c r="BY402" s="3"/>
     </row>
-    <row r="403" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -32785,7 +32785,7 @@
       <c r="BX403" s="3"/>
       <c r="BY403" s="3"/>
     </row>
-    <row r="404" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -32864,7 +32864,7 @@
       <c r="BX404" s="3"/>
       <c r="BY404" s="3"/>
     </row>
-    <row r="405" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -32943,7 +32943,7 @@
       <c r="BX405" s="3"/>
       <c r="BY405" s="3"/>
     </row>
-    <row r="406" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -33022,7 +33022,7 @@
       <c r="BX406" s="3"/>
       <c r="BY406" s="3"/>
     </row>
-    <row r="407" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -33101,7 +33101,7 @@
       <c r="BX407" s="3"/>
       <c r="BY407" s="3"/>
     </row>
-    <row r="408" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -33180,7 +33180,7 @@
       <c r="BX408" s="3"/>
       <c r="BY408" s="3"/>
     </row>
-    <row r="409" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -33259,7 +33259,7 @@
       <c r="BX409" s="3"/>
       <c r="BY409" s="3"/>
     </row>
-    <row r="410" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -33338,7 +33338,7 @@
       <c r="BX410" s="3"/>
       <c r="BY410" s="3"/>
     </row>
-    <row r="411" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -33417,7 +33417,7 @@
       <c r="BX411" s="3"/>
       <c r="BY411" s="3"/>
     </row>
-    <row r="412" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -33496,7 +33496,7 @@
       <c r="BX412" s="3"/>
       <c r="BY412" s="3"/>
     </row>
-    <row r="413" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -33575,7 +33575,7 @@
       <c r="BX413" s="3"/>
       <c r="BY413" s="3"/>
     </row>
-    <row r="414" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -33654,7 +33654,7 @@
       <c r="BX414" s="3"/>
       <c r="BY414" s="3"/>
     </row>
-    <row r="415" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -33733,7 +33733,7 @@
       <c r="BX415" s="3"/>
       <c r="BY415" s="3"/>
     </row>
-    <row r="416" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -33812,7 +33812,7 @@
       <c r="BX416" s="3"/>
       <c r="BY416" s="3"/>
     </row>
-    <row r="417" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -33891,7 +33891,7 @@
       <c r="BX417" s="3"/>
       <c r="BY417" s="3"/>
     </row>
-    <row r="418" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -33970,7 +33970,7 @@
       <c r="BX418" s="3"/>
       <c r="BY418" s="3"/>
     </row>
-    <row r="419" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -34049,7 +34049,7 @@
       <c r="BX419" s="3"/>
       <c r="BY419" s="3"/>
     </row>
-    <row r="420" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -34128,7 +34128,7 @@
       <c r="BX420" s="3"/>
       <c r="BY420" s="3"/>
     </row>
-    <row r="421" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -34207,7 +34207,7 @@
       <c r="BX421" s="3"/>
       <c r="BY421" s="3"/>
     </row>
-    <row r="422" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -34286,7 +34286,7 @@
       <c r="BX422" s="3"/>
       <c r="BY422" s="3"/>
     </row>
-    <row r="423" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -34365,7 +34365,7 @@
       <c r="BX423" s="3"/>
       <c r="BY423" s="3"/>
     </row>
-    <row r="424" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -34444,7 +34444,7 @@
       <c r="BX424" s="3"/>
       <c r="BY424" s="3"/>
     </row>
-    <row r="425" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -34523,7 +34523,7 @@
       <c r="BX425" s="3"/>
       <c r="BY425" s="3"/>
     </row>
-    <row r="426" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -34602,7 +34602,7 @@
       <c r="BX426" s="3"/>
       <c r="BY426" s="3"/>
     </row>
-    <row r="427" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -34681,7 +34681,7 @@
       <c r="BX427" s="3"/>
       <c r="BY427" s="3"/>
     </row>
-    <row r="428" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -34760,7 +34760,7 @@
       <c r="BX428" s="3"/>
       <c r="BY428" s="3"/>
     </row>
-    <row r="429" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -34839,7 +34839,7 @@
       <c r="BX429" s="3"/>
       <c r="BY429" s="3"/>
     </row>
-    <row r="430" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -34918,7 +34918,7 @@
       <c r="BX430" s="3"/>
       <c r="BY430" s="3"/>
     </row>
-    <row r="431" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -34997,7 +34997,7 @@
       <c r="BX431" s="3"/>
       <c r="BY431" s="3"/>
     </row>
-    <row r="432" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -35076,7 +35076,7 @@
       <c r="BX432" s="3"/>
       <c r="BY432" s="3"/>
     </row>
-    <row r="433" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -35155,7 +35155,7 @@
       <c r="BX433" s="3"/>
       <c r="BY433" s="3"/>
     </row>
-    <row r="434" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -35234,7 +35234,7 @@
       <c r="BX434" s="3"/>
       <c r="BY434" s="3"/>
     </row>
-    <row r="435" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -35313,7 +35313,7 @@
       <c r="BX435" s="3"/>
       <c r="BY435" s="3"/>
     </row>
-    <row r="436" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -35392,7 +35392,7 @@
       <c r="BX436" s="3"/>
       <c r="BY436" s="3"/>
     </row>
-    <row r="437" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -35471,7 +35471,7 @@
       <c r="BX437" s="3"/>
       <c r="BY437" s="3"/>
     </row>
-    <row r="438" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -35550,7 +35550,7 @@
       <c r="BX438" s="3"/>
       <c r="BY438" s="3"/>
     </row>
-    <row r="439" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -35629,7 +35629,7 @@
       <c r="BX439" s="3"/>
       <c r="BY439" s="3"/>
     </row>
-    <row r="440" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -35708,7 +35708,7 @@
       <c r="BX440" s="3"/>
       <c r="BY440" s="3"/>
     </row>
-    <row r="441" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -35787,7 +35787,7 @@
       <c r="BX441" s="3"/>
       <c r="BY441" s="3"/>
     </row>
-    <row r="442" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -35866,7 +35866,7 @@
       <c r="BX442" s="3"/>
       <c r="BY442" s="3"/>
     </row>
-    <row r="443" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -35945,7 +35945,7 @@
       <c r="BX443" s="3"/>
       <c r="BY443" s="3"/>
     </row>
-    <row r="444" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -36024,7 +36024,7 @@
       <c r="BX444" s="3"/>
       <c r="BY444" s="3"/>
     </row>
-    <row r="445" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -36103,7 +36103,7 @@
       <c r="BX445" s="3"/>
       <c r="BY445" s="3"/>
     </row>
-    <row r="446" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -36182,7 +36182,7 @@
       <c r="BX446" s="3"/>
       <c r="BY446" s="3"/>
     </row>
-    <row r="447" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -36261,7 +36261,7 @@
       <c r="BX447" s="3"/>
       <c r="BY447" s="3"/>
     </row>
-    <row r="448" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -36340,7 +36340,7 @@
       <c r="BX448" s="3"/>
       <c r="BY448" s="3"/>
     </row>
-    <row r="449" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -36419,7 +36419,7 @@
       <c r="BX449" s="3"/>
       <c r="BY449" s="3"/>
     </row>
-    <row r="450" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -36498,7 +36498,7 @@
       <c r="BX450" s="3"/>
       <c r="BY450" s="3"/>
     </row>
-    <row r="451" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -36577,7 +36577,7 @@
       <c r="BX451" s="3"/>
       <c r="BY451" s="3"/>
     </row>
-    <row r="452" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -36656,7 +36656,7 @@
       <c r="BX452" s="3"/>
       <c r="BY452" s="3"/>
     </row>
-    <row r="453" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -36735,7 +36735,7 @@
       <c r="BX453" s="3"/>
       <c r="BY453" s="3"/>
     </row>
-    <row r="454" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -36814,7 +36814,7 @@
       <c r="BX454" s="3"/>
       <c r="BY454" s="3"/>
     </row>
-    <row r="455" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -36893,7 +36893,7 @@
       <c r="BX455" s="3"/>
       <c r="BY455" s="3"/>
     </row>
-    <row r="456" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -36972,7 +36972,7 @@
       <c r="BX456" s="3"/>
       <c r="BY456" s="3"/>
     </row>
-    <row r="457" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -37051,7 +37051,7 @@
       <c r="BX457" s="3"/>
       <c r="BY457" s="3"/>
     </row>
-    <row r="458" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -37130,7 +37130,7 @@
       <c r="BX458" s="3"/>
       <c r="BY458" s="3"/>
     </row>
-    <row r="459" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -37209,7 +37209,7 @@
       <c r="BX459" s="3"/>
       <c r="BY459" s="3"/>
     </row>
-    <row r="460" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -37288,7 +37288,7 @@
       <c r="BX460" s="3"/>
       <c r="BY460" s="3"/>
     </row>
-    <row r="461" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -37367,7 +37367,7 @@
       <c r="BX461" s="3"/>
       <c r="BY461" s="3"/>
     </row>
-    <row r="462" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -37446,7 +37446,7 @@
       <c r="BX462" s="3"/>
       <c r="BY462" s="3"/>
     </row>
-    <row r="463" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -37525,7 +37525,7 @@
       <c r="BX463" s="3"/>
       <c r="BY463" s="3"/>
     </row>
-    <row r="464" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -37604,7 +37604,7 @@
       <c r="BX464" s="3"/>
       <c r="BY464" s="3"/>
     </row>
-    <row r="465" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -37683,7 +37683,7 @@
       <c r="BX465" s="3"/>
       <c r="BY465" s="3"/>
     </row>
-    <row r="466" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -37762,7 +37762,7 @@
       <c r="BX466" s="3"/>
       <c r="BY466" s="3"/>
     </row>
-    <row r="467" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -37841,7 +37841,7 @@
       <c r="BX467" s="3"/>
       <c r="BY467" s="3"/>
     </row>
-    <row r="468" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -37920,7 +37920,7 @@
       <c r="BX468" s="3"/>
       <c r="BY468" s="3"/>
     </row>
-    <row r="469" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -37999,7 +37999,7 @@
       <c r="BX469" s="3"/>
       <c r="BY469" s="3"/>
     </row>
-    <row r="470" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -38078,7 +38078,7 @@
       <c r="BX470" s="3"/>
       <c r="BY470" s="3"/>
     </row>
-    <row r="471" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -38157,7 +38157,7 @@
       <c r="BX471" s="3"/>
       <c r="BY471" s="3"/>
     </row>
-    <row r="472" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -38236,7 +38236,7 @@
       <c r="BX472" s="3"/>
       <c r="BY472" s="3"/>
     </row>
-    <row r="473" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -38315,7 +38315,7 @@
       <c r="BX473" s="3"/>
       <c r="BY473" s="3"/>
     </row>
-    <row r="474" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -38394,7 +38394,7 @@
       <c r="BX474" s="3"/>
       <c r="BY474" s="3"/>
     </row>
-    <row r="475" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -38473,7 +38473,7 @@
       <c r="BX475" s="3"/>
       <c r="BY475" s="3"/>
     </row>
-    <row r="476" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -38552,7 +38552,7 @@
       <c r="BX476" s="3"/>
       <c r="BY476" s="3"/>
     </row>
-    <row r="477" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -38631,7 +38631,7 @@
       <c r="BX477" s="3"/>
       <c r="BY477" s="3"/>
     </row>
-    <row r="478" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -38710,7 +38710,7 @@
       <c r="BX478" s="3"/>
       <c r="BY478" s="3"/>
     </row>
-    <row r="479" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -38789,7 +38789,7 @@
       <c r="BX479" s="3"/>
       <c r="BY479" s="3"/>
     </row>
-    <row r="480" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -38868,7 +38868,7 @@
       <c r="BX480" s="3"/>
       <c r="BY480" s="3"/>
     </row>
-    <row r="481" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -38947,7 +38947,7 @@
       <c r="BX481" s="3"/>
       <c r="BY481" s="3"/>
     </row>
-    <row r="482" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -39026,7 +39026,7 @@
       <c r="BX482" s="3"/>
       <c r="BY482" s="3"/>
     </row>
-    <row r="483" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -39105,7 +39105,7 @@
       <c r="BX483" s="3"/>
       <c r="BY483" s="3"/>
     </row>
-    <row r="484" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -39184,7 +39184,7 @@
       <c r="BX484" s="3"/>
       <c r="BY484" s="3"/>
     </row>
-    <row r="485" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -39263,7 +39263,7 @@
       <c r="BX485" s="3"/>
       <c r="BY485" s="3"/>
     </row>
-    <row r="486" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -39342,7 +39342,7 @@
       <c r="BX486" s="3"/>
       <c r="BY486" s="3"/>
     </row>
-    <row r="487" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -39421,7 +39421,7 @@
       <c r="BX487" s="3"/>
       <c r="BY487" s="3"/>
     </row>
-    <row r="488" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -39500,7 +39500,7 @@
       <c r="BX488" s="3"/>
       <c r="BY488" s="3"/>
     </row>
-    <row r="489" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -39579,7 +39579,7 @@
       <c r="BX489" s="3"/>
       <c r="BY489" s="3"/>
     </row>
-    <row r="490" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -39658,7 +39658,7 @@
       <c r="BX490" s="3"/>
       <c r="BY490" s="3"/>
     </row>
-    <row r="491" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -39737,7 +39737,7 @@
       <c r="BX491" s="3"/>
       <c r="BY491" s="3"/>
     </row>
-    <row r="492" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -39816,7 +39816,7 @@
       <c r="BX492" s="3"/>
       <c r="BY492" s="3"/>
     </row>
-    <row r="493" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -39895,7 +39895,7 @@
       <c r="BX493" s="3"/>
       <c r="BY493" s="3"/>
     </row>
-    <row r="494" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -39974,7 +39974,7 @@
       <c r="BX494" s="3"/>
       <c r="BY494" s="3"/>
     </row>
-    <row r="495" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -40053,7 +40053,7 @@
       <c r="BX495" s="3"/>
       <c r="BY495" s="3"/>
     </row>
-    <row r="496" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -40132,7 +40132,7 @@
       <c r="BX496" s="3"/>
       <c r="BY496" s="3"/>
     </row>
-    <row r="497" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -40211,7 +40211,7 @@
       <c r="BX497" s="3"/>
       <c r="BY497" s="3"/>
     </row>
-    <row r="498" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -40290,7 +40290,7 @@
       <c r="BX498" s="3"/>
       <c r="BY498" s="3"/>
     </row>
-    <row r="499" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -40369,7 +40369,7 @@
       <c r="BX499" s="3"/>
       <c r="BY499" s="3"/>
     </row>
-    <row r="500" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -40448,7 +40448,7 @@
       <c r="BX500" s="3"/>
       <c r="BY500" s="3"/>
     </row>
-    <row r="501" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -40527,7 +40527,7 @@
       <c r="BX501" s="3"/>
       <c r="BY501" s="3"/>
     </row>
-    <row r="502" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -40606,7 +40606,7 @@
       <c r="BX502" s="3"/>
       <c r="BY502" s="3"/>
     </row>
-    <row r="503" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -40685,7 +40685,7 @@
       <c r="BX503" s="3"/>
       <c r="BY503" s="3"/>
     </row>
-    <row r="504" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -40764,7 +40764,7 @@
       <c r="BX504" s="3"/>
       <c r="BY504" s="3"/>
     </row>
-    <row r="505" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -40843,7 +40843,7 @@
       <c r="BX505" s="3"/>
       <c r="BY505" s="3"/>
     </row>
-    <row r="506" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -40922,7 +40922,7 @@
       <c r="BX506" s="3"/>
       <c r="BY506" s="3"/>
     </row>
-    <row r="507" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -41001,7 +41001,7 @@
       <c r="BX507" s="3"/>
       <c r="BY507" s="3"/>
     </row>
-    <row r="508" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -41080,7 +41080,7 @@
       <c r="BX508" s="3"/>
       <c r="BY508" s="3"/>
     </row>
-    <row r="509" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -41159,7 +41159,7 @@
       <c r="BX509" s="3"/>
       <c r="BY509" s="3"/>
     </row>
-    <row r="510" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -41238,7 +41238,7 @@
       <c r="BX510" s="3"/>
       <c r="BY510" s="3"/>
     </row>
-    <row r="511" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -41317,7 +41317,7 @@
       <c r="BX511" s="3"/>
       <c r="BY511" s="3"/>
     </row>
-    <row r="512" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -41396,7 +41396,7 @@
       <c r="BX512" s="3"/>
       <c r="BY512" s="3"/>
     </row>
-    <row r="513" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -41475,7 +41475,7 @@
       <c r="BX513" s="3"/>
       <c r="BY513" s="3"/>
     </row>
-    <row r="514" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -41554,7 +41554,7 @@
       <c r="BX514" s="3"/>
       <c r="BY514" s="3"/>
     </row>
-    <row r="515" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -41633,7 +41633,7 @@
       <c r="BX515" s="3"/>
       <c r="BY515" s="3"/>
     </row>
-    <row r="516" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -41712,7 +41712,7 @@
       <c r="BX516" s="3"/>
       <c r="BY516" s="3"/>
     </row>
-    <row r="517" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -41791,7 +41791,7 @@
       <c r="BX517" s="3"/>
       <c r="BY517" s="3"/>
     </row>
-    <row r="518" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -41870,7 +41870,7 @@
       <c r="BX518" s="3"/>
       <c r="BY518" s="3"/>
     </row>
-    <row r="519" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -41949,7 +41949,7 @@
       <c r="BX519" s="3"/>
       <c r="BY519" s="3"/>
     </row>
-    <row r="520" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -42028,7 +42028,7 @@
       <c r="BX520" s="3"/>
       <c r="BY520" s="3"/>
     </row>
-    <row r="521" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -42107,7 +42107,7 @@
       <c r="BX521" s="3"/>
       <c r="BY521" s="3"/>
     </row>
-    <row r="522" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -42186,7 +42186,7 @@
       <c r="BX522" s="3"/>
       <c r="BY522" s="3"/>
     </row>
-    <row r="523" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -42265,7 +42265,7 @@
       <c r="BX523" s="3"/>
       <c r="BY523" s="3"/>
     </row>
-    <row r="524" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -42344,7 +42344,7 @@
       <c r="BX524" s="3"/>
       <c r="BY524" s="3"/>
     </row>
-    <row r="525" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -42423,7 +42423,7 @@
       <c r="BX525" s="3"/>
       <c r="BY525" s="3"/>
     </row>
-    <row r="526" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -42502,7 +42502,7 @@
       <c r="BX526" s="3"/>
       <c r="BY526" s="3"/>
     </row>
-    <row r="527" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -42581,7 +42581,7 @@
       <c r="BX527" s="3"/>
       <c r="BY527" s="3"/>
     </row>
-    <row r="528" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -42660,7 +42660,7 @@
       <c r="BX528" s="3"/>
       <c r="BY528" s="3"/>
     </row>
-    <row r="529" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -42739,7 +42739,7 @@
       <c r="BX529" s="3"/>
       <c r="BY529" s="3"/>
     </row>
-    <row r="530" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -42818,7 +42818,7 @@
       <c r="BX530" s="3"/>
       <c r="BY530" s="3"/>
     </row>
-    <row r="531" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -42897,7 +42897,7 @@
       <c r="BX531" s="3"/>
       <c r="BY531" s="3"/>
     </row>
-    <row r="532" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -42976,7 +42976,7 @@
       <c r="BX532" s="3"/>
       <c r="BY532" s="3"/>
     </row>
-    <row r="533" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -43055,7 +43055,7 @@
       <c r="BX533" s="3"/>
       <c r="BY533" s="3"/>
     </row>
-    <row r="534" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -43134,7 +43134,7 @@
       <c r="BX534" s="3"/>
       <c r="BY534" s="3"/>
     </row>
-    <row r="535" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -43213,7 +43213,7 @@
       <c r="BX535" s="3"/>
       <c r="BY535" s="3"/>
     </row>
-    <row r="536" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -43292,7 +43292,7 @@
       <c r="BX536" s="3"/>
       <c r="BY536" s="3"/>
     </row>
-    <row r="537" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -43371,7 +43371,7 @@
       <c r="BX537" s="3"/>
       <c r="BY537" s="3"/>
     </row>
-    <row r="538" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -43450,7 +43450,7 @@
       <c r="BX538" s="3"/>
       <c r="BY538" s="3"/>
     </row>
-    <row r="539" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -43529,7 +43529,7 @@
       <c r="BX539" s="3"/>
       <c r="BY539" s="3"/>
     </row>
-    <row r="540" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -43608,7 +43608,7 @@
       <c r="BX540" s="3"/>
       <c r="BY540" s="3"/>
     </row>
-    <row r="541" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -43687,7 +43687,7 @@
       <c r="BX541" s="3"/>
       <c r="BY541" s="3"/>
     </row>
-    <row r="542" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -43766,7 +43766,7 @@
       <c r="BX542" s="3"/>
       <c r="BY542" s="3"/>
     </row>
-    <row r="543" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -43845,7 +43845,7 @@
       <c r="BX543" s="3"/>
       <c r="BY543" s="3"/>
     </row>
-    <row r="544" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -43924,7 +43924,7 @@
       <c r="BX544" s="3"/>
       <c r="BY544" s="3"/>
     </row>
-    <row r="545" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -44003,7 +44003,7 @@
       <c r="BX545" s="3"/>
       <c r="BY545" s="3"/>
     </row>
-    <row r="546" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -44082,7 +44082,7 @@
       <c r="BX546" s="3"/>
       <c r="BY546" s="3"/>
     </row>
-    <row r="547" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -44161,7 +44161,7 @@
       <c r="BX547" s="3"/>
       <c r="BY547" s="3"/>
     </row>
-    <row r="548" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -44240,7 +44240,7 @@
       <c r="BX548" s="3"/>
       <c r="BY548" s="3"/>
     </row>
-    <row r="549" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -44319,7 +44319,7 @@
       <c r="BX549" s="3"/>
       <c r="BY549" s="3"/>
     </row>
-    <row r="550" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -44398,7 +44398,7 @@
       <c r="BX550" s="3"/>
       <c r="BY550" s="3"/>
     </row>
-    <row r="551" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -44477,7 +44477,7 @@
       <c r="BX551" s="3"/>
       <c r="BY551" s="3"/>
     </row>
-    <row r="552" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -44556,7 +44556,7 @@
       <c r="BX552" s="3"/>
       <c r="BY552" s="3"/>
     </row>
-    <row r="553" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -44635,7 +44635,7 @@
       <c r="BX553" s="3"/>
       <c r="BY553" s="3"/>
     </row>
-    <row r="554" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -44714,7 +44714,7 @@
       <c r="BX554" s="3"/>
       <c r="BY554" s="3"/>
     </row>
-    <row r="555" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -44793,7 +44793,7 @@
       <c r="BX555" s="3"/>
       <c r="BY555" s="3"/>
     </row>
-    <row r="556" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -44872,7 +44872,7 @@
       <c r="BX556" s="3"/>
       <c r="BY556" s="3"/>
     </row>
-    <row r="557" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -44951,7 +44951,7 @@
       <c r="BX557" s="3"/>
       <c r="BY557" s="3"/>
     </row>
-    <row r="558" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -45030,7 +45030,7 @@
       <c r="BX558" s="3"/>
       <c r="BY558" s="3"/>
     </row>
-    <row r="559" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -45109,7 +45109,7 @@
       <c r="BX559" s="3"/>
       <c r="BY559" s="3"/>
     </row>
-    <row r="560" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -45188,7 +45188,7 @@
       <c r="BX560" s="3"/>
       <c r="BY560" s="3"/>
     </row>
-    <row r="561" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -45267,7 +45267,7 @@
       <c r="BX561" s="3"/>
       <c r="BY561" s="3"/>
     </row>
-    <row r="562" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -45346,7 +45346,7 @@
       <c r="BX562" s="3"/>
       <c r="BY562" s="3"/>
     </row>
-    <row r="563" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -45425,7 +45425,7 @@
       <c r="BX563" s="3"/>
       <c r="BY563" s="3"/>
     </row>
-    <row r="564" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -45504,7 +45504,7 @@
       <c r="BX564" s="3"/>
       <c r="BY564" s="3"/>
     </row>
-    <row r="565" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -45583,7 +45583,7 @@
       <c r="BX565" s="3"/>
       <c r="BY565" s="3"/>
     </row>
-    <row r="566" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -45662,7 +45662,7 @@
       <c r="BX566" s="3"/>
       <c r="BY566" s="3"/>
     </row>
-    <row r="567" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -45741,7 +45741,7 @@
       <c r="BX567" s="3"/>
       <c r="BY567" s="3"/>
     </row>
-    <row r="568" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -45820,7 +45820,7 @@
       <c r="BX568" s="3"/>
       <c r="BY568" s="3"/>
     </row>
-    <row r="569" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -45899,7 +45899,7 @@
       <c r="BX569" s="3"/>
       <c r="BY569" s="3"/>
     </row>
-    <row r="570" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -45978,7 +45978,7 @@
       <c r="BX570" s="3"/>
       <c r="BY570" s="3"/>
     </row>
-    <row r="571" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -46057,7 +46057,7 @@
       <c r="BX571" s="3"/>
       <c r="BY571" s="3"/>
     </row>
-    <row r="572" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -46136,7 +46136,7 @@
       <c r="BX572" s="3"/>
       <c r="BY572" s="3"/>
     </row>
-    <row r="573" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -46215,7 +46215,7 @@
       <c r="BX573" s="3"/>
       <c r="BY573" s="3"/>
     </row>
-    <row r="574" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -46294,7 +46294,7 @@
       <c r="BX574" s="3"/>
       <c r="BY574" s="3"/>
     </row>
-    <row r="575" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -46373,7 +46373,7 @@
       <c r="BX575" s="3"/>
       <c r="BY575" s="3"/>
     </row>
-    <row r="576" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -46452,7 +46452,7 @@
       <c r="BX576" s="3"/>
       <c r="BY576" s="3"/>
     </row>
-    <row r="577" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -46531,7 +46531,7 @@
       <c r="BX577" s="3"/>
       <c r="BY577" s="3"/>
     </row>
-    <row r="578" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -46610,7 +46610,7 @@
       <c r="BX578" s="3"/>
       <c r="BY578" s="3"/>
     </row>
-    <row r="579" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -46689,7 +46689,7 @@
       <c r="BX579" s="3"/>
       <c r="BY579" s="3"/>
     </row>
-    <row r="580" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -46768,7 +46768,7 @@
       <c r="BX580" s="3"/>
       <c r="BY580" s="3"/>
     </row>
-    <row r="581" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -46847,7 +46847,7 @@
       <c r="BX581" s="3"/>
       <c r="BY581" s="3"/>
     </row>
-    <row r="582" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -46926,7 +46926,7 @@
       <c r="BX582" s="3"/>
       <c r="BY582" s="3"/>
     </row>
-    <row r="583" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -47005,7 +47005,7 @@
       <c r="BX583" s="3"/>
       <c r="BY583" s="3"/>
     </row>
-    <row r="584" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -47084,7 +47084,7 @@
       <c r="BX584" s="3"/>
       <c r="BY584" s="3"/>
     </row>
-    <row r="585" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -47163,7 +47163,7 @@
       <c r="BX585" s="3"/>
       <c r="BY585" s="3"/>
     </row>
-    <row r="586" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -47242,7 +47242,7 @@
       <c r="BX586" s="3"/>
       <c r="BY586" s="3"/>
     </row>
-    <row r="587" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -47321,7 +47321,7 @@
       <c r="BX587" s="3"/>
       <c r="BY587" s="3"/>
     </row>
-    <row r="588" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -47400,7 +47400,7 @@
       <c r="BX588" s="3"/>
       <c r="BY588" s="3"/>
     </row>
-    <row r="589" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -47479,7 +47479,7 @@
       <c r="BX589" s="3"/>
       <c r="BY589" s="3"/>
     </row>
-    <row r="590" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -47558,7 +47558,7 @@
       <c r="BX590" s="3"/>
       <c r="BY590" s="3"/>
     </row>
-    <row r="591" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -47637,7 +47637,7 @@
       <c r="BX591" s="3"/>
       <c r="BY591" s="3"/>
     </row>
-    <row r="592" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -47716,7 +47716,7 @@
       <c r="BX592" s="3"/>
       <c r="BY592" s="3"/>
     </row>
-    <row r="593" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -47795,7 +47795,7 @@
       <c r="BX593" s="3"/>
       <c r="BY593" s="3"/>
     </row>
-    <row r="594" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -47874,7 +47874,7 @@
       <c r="BX594" s="3"/>
       <c r="BY594" s="3"/>
     </row>
-    <row r="595" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -47953,7 +47953,7 @@
       <c r="BX595" s="3"/>
       <c r="BY595" s="3"/>
     </row>
-    <row r="596" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -48032,7 +48032,7 @@
       <c r="BX596" s="3"/>
       <c r="BY596" s="3"/>
     </row>
-    <row r="597" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -48111,7 +48111,7 @@
       <c r="BX597" s="3"/>
       <c r="BY597" s="3"/>
     </row>
-    <row r="598" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -48190,7 +48190,7 @@
       <c r="BX598" s="3"/>
       <c r="BY598" s="3"/>
     </row>
-    <row r="599" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -48269,7 +48269,7 @@
       <c r="BX599" s="3"/>
       <c r="BY599" s="3"/>
     </row>
-    <row r="600" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -48348,7 +48348,7 @@
       <c r="BX600" s="3"/>
       <c r="BY600" s="3"/>
     </row>
-    <row r="601" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -48427,7 +48427,7 @@
       <c r="BX601" s="3"/>
       <c r="BY601" s="3"/>
     </row>
-    <row r="602" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -48506,7 +48506,7 @@
       <c r="BX602" s="3"/>
       <c r="BY602" s="3"/>
     </row>
-    <row r="603" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -48585,7 +48585,7 @@
       <c r="BX603" s="3"/>
       <c r="BY603" s="3"/>
     </row>
-    <row r="604" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -48664,7 +48664,7 @@
       <c r="BX604" s="3"/>
       <c r="BY604" s="3"/>
     </row>
-    <row r="605" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -48743,7 +48743,7 @@
       <c r="BX605" s="3"/>
       <c r="BY605" s="3"/>
     </row>
-    <row r="606" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -48822,7 +48822,7 @@
       <c r="BX606" s="3"/>
       <c r="BY606" s="3"/>
     </row>
-    <row r="607" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -48901,7 +48901,7 @@
       <c r="BX607" s="3"/>
       <c r="BY607" s="3"/>
     </row>
-    <row r="608" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -48980,7 +48980,7 @@
       <c r="BX608" s="3"/>
       <c r="BY608" s="3"/>
     </row>
-    <row r="609" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -49059,7 +49059,7 @@
       <c r="BX609" s="3"/>
       <c r="BY609" s="3"/>
     </row>
-    <row r="610" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -49138,7 +49138,7 @@
       <c r="BX610" s="3"/>
       <c r="BY610" s="3"/>
     </row>
-    <row r="611" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -49217,7 +49217,7 @@
       <c r="BX611" s="3"/>
       <c r="BY611" s="3"/>
     </row>
-    <row r="612" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -49296,7 +49296,7 @@
       <c r="BX612" s="3"/>
       <c r="BY612" s="3"/>
     </row>
-    <row r="613" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -49375,7 +49375,7 @@
       <c r="BX613" s="3"/>
       <c r="BY613" s="3"/>
     </row>
-    <row r="614" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -49454,7 +49454,7 @@
       <c r="BX614" s="3"/>
       <c r="BY614" s="3"/>
     </row>
-    <row r="615" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -49533,7 +49533,7 @@
       <c r="BX615" s="3"/>
       <c r="BY615" s="3"/>
     </row>
-    <row r="616" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -49612,7 +49612,7 @@
       <c r="BX616" s="3"/>
       <c r="BY616" s="3"/>
     </row>
-    <row r="617" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -49691,7 +49691,7 @@
       <c r="BX617" s="3"/>
       <c r="BY617" s="3"/>
     </row>
-    <row r="618" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -49770,7 +49770,7 @@
       <c r="BX618" s="3"/>
       <c r="BY618" s="3"/>
     </row>
-    <row r="619" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -49849,7 +49849,7 @@
       <c r="BX619" s="3"/>
       <c r="BY619" s="3"/>
     </row>
-    <row r="620" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -49928,7 +49928,7 @@
       <c r="BX620" s="3"/>
       <c r="BY620" s="3"/>
     </row>
-    <row r="621" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -50007,7 +50007,7 @@
       <c r="BX621" s="3"/>
       <c r="BY621" s="3"/>
     </row>
-    <row r="622" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -50086,7 +50086,7 @@
       <c r="BX622" s="3"/>
       <c r="BY622" s="3"/>
     </row>
-    <row r="623" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -50165,7 +50165,7 @@
       <c r="BX623" s="3"/>
       <c r="BY623" s="3"/>
     </row>
-    <row r="624" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -50244,7 +50244,7 @@
       <c r="BX624" s="3"/>
       <c r="BY624" s="3"/>
     </row>
-    <row r="625" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -50323,7 +50323,7 @@
       <c r="BX625" s="3"/>
       <c r="BY625" s="3"/>
     </row>
-    <row r="626" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -50402,7 +50402,7 @@
       <c r="BX626" s="3"/>
       <c r="BY626" s="3"/>
     </row>
-    <row r="627" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -50481,7 +50481,7 @@
       <c r="BX627" s="3"/>
       <c r="BY627" s="3"/>
     </row>
-    <row r="628" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -50560,7 +50560,7 @@
       <c r="BX628" s="3"/>
       <c r="BY628" s="3"/>
     </row>
-    <row r="629" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -50639,7 +50639,7 @@
       <c r="BX629" s="3"/>
       <c r="BY629" s="3"/>
     </row>
-    <row r="630" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -50718,7 +50718,7 @@
       <c r="BX630" s="3"/>
       <c r="BY630" s="3"/>
     </row>
-    <row r="631" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -50797,7 +50797,7 @@
       <c r="BX631" s="3"/>
       <c r="BY631" s="3"/>
     </row>
-    <row r="632" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -50876,7 +50876,7 @@
       <c r="BX632" s="3"/>
       <c r="BY632" s="3"/>
     </row>
-    <row r="633" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -50955,7 +50955,7 @@
       <c r="BX633" s="3"/>
       <c r="BY633" s="3"/>
     </row>
-    <row r="634" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -51034,7 +51034,7 @@
       <c r="BX634" s="3"/>
       <c r="BY634" s="3"/>
     </row>
-    <row r="635" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -51113,7 +51113,7 @@
       <c r="BX635" s="3"/>
       <c r="BY635" s="3"/>
     </row>
-    <row r="636" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -51192,7 +51192,7 @@
       <c r="BX636" s="3"/>
       <c r="BY636" s="3"/>
     </row>
-    <row r="637" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -51271,7 +51271,7 @@
       <c r="BX637" s="3"/>
       <c r="BY637" s="3"/>
     </row>
-    <row r="638" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -51350,7 +51350,7 @@
       <c r="BX638" s="3"/>
       <c r="BY638" s="3"/>
     </row>
-    <row r="639" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -51429,7 +51429,7 @@
       <c r="BX639" s="3"/>
       <c r="BY639" s="3"/>
     </row>
-    <row r="640" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -51508,7 +51508,7 @@
       <c r="BX640" s="3"/>
       <c r="BY640" s="3"/>
     </row>
-    <row r="641" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -51587,7 +51587,7 @@
       <c r="BX641" s="3"/>
       <c r="BY641" s="3"/>
     </row>
-    <row r="642" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -51666,7 +51666,7 @@
       <c r="BX642" s="3"/>
       <c r="BY642" s="3"/>
     </row>
-    <row r="643" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -51745,7 +51745,7 @@
       <c r="BX643" s="3"/>
       <c r="BY643" s="3"/>
     </row>
-    <row r="644" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -51824,7 +51824,7 @@
       <c r="BX644" s="3"/>
       <c r="BY644" s="3"/>
     </row>
-    <row r="645" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -51903,7 +51903,7 @@
       <c r="BX645" s="3"/>
       <c r="BY645" s="3"/>
     </row>
-    <row r="646" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -51982,7 +51982,7 @@
       <c r="BX646" s="3"/>
       <c r="BY646" s="3"/>
     </row>
-    <row r="647" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -52061,7 +52061,7 @@
       <c r="BX647" s="3"/>
       <c r="BY647" s="3"/>
     </row>
-    <row r="648" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -52140,7 +52140,7 @@
       <c r="BX648" s="3"/>
       <c r="BY648" s="3"/>
     </row>
-    <row r="649" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -52219,7 +52219,7 @@
       <c r="BX649" s="3"/>
       <c r="BY649" s="3"/>
     </row>
-    <row r="650" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -52298,7 +52298,7 @@
       <c r="BX650" s="3"/>
       <c r="BY650" s="3"/>
     </row>
-    <row r="651" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -52377,7 +52377,7 @@
       <c r="BX651" s="3"/>
       <c r="BY651" s="3"/>
     </row>
-    <row r="652" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -52456,7 +52456,7 @@
       <c r="BX652" s="3"/>
       <c r="BY652" s="3"/>
     </row>
-    <row r="653" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -52535,7 +52535,7 @@
       <c r="BX653" s="3"/>
       <c r="BY653" s="3"/>
     </row>
-    <row r="654" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -52614,7 +52614,7 @@
       <c r="BX654" s="3"/>
       <c r="BY654" s="3"/>
     </row>
-    <row r="655" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -52693,7 +52693,7 @@
       <c r="BX655" s="3"/>
       <c r="BY655" s="3"/>
     </row>
-    <row r="656" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -52772,7 +52772,7 @@
       <c r="BX656" s="3"/>
       <c r="BY656" s="3"/>
     </row>
-    <row r="657" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -52851,7 +52851,7 @@
       <c r="BX657" s="3"/>
       <c r="BY657" s="3"/>
     </row>
-    <row r="658" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -52930,7 +52930,7 @@
       <c r="BX658" s="3"/>
       <c r="BY658" s="3"/>
     </row>
-    <row r="659" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -53009,7 +53009,7 @@
       <c r="BX659" s="3"/>
       <c r="BY659" s="3"/>
     </row>
-    <row r="660" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -53088,7 +53088,7 @@
       <c r="BX660" s="3"/>
       <c r="BY660" s="3"/>
     </row>
-    <row r="661" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -53167,7 +53167,7 @@
       <c r="BX661" s="3"/>
       <c r="BY661" s="3"/>
     </row>
-    <row r="662" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -53246,7 +53246,7 @@
       <c r="BX662" s="3"/>
       <c r="BY662" s="3"/>
     </row>
-    <row r="663" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -53325,7 +53325,7 @@
       <c r="BX663" s="3"/>
       <c r="BY663" s="3"/>
     </row>
-    <row r="664" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -53404,7 +53404,7 @@
       <c r="BX664" s="3"/>
       <c r="BY664" s="3"/>
     </row>
-    <row r="665" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -53483,7 +53483,7 @@
       <c r="BX665" s="3"/>
       <c r="BY665" s="3"/>
     </row>
-    <row r="666" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -53562,7 +53562,7 @@
       <c r="BX666" s="3"/>
       <c r="BY666" s="3"/>
     </row>
-    <row r="667" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -53641,7 +53641,7 @@
       <c r="BX667" s="3"/>
       <c r="BY667" s="3"/>
     </row>
-    <row r="668" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -53720,7 +53720,7 @@
       <c r="BX668" s="3"/>
       <c r="BY668" s="3"/>
     </row>
-    <row r="669" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -53799,7 +53799,7 @@
       <c r="BX669" s="3"/>
       <c r="BY669" s="3"/>
     </row>
-    <row r="670" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -53878,7 +53878,7 @@
       <c r="BX670" s="3"/>
       <c r="BY670" s="3"/>
     </row>
-    <row r="671" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -53957,7 +53957,7 @@
       <c r="BX671" s="3"/>
       <c r="BY671" s="3"/>
     </row>
-    <row r="672" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -54036,7 +54036,7 @@
       <c r="BX672" s="3"/>
       <c r="BY672" s="3"/>
     </row>
-    <row r="673" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -54115,7 +54115,7 @@
       <c r="BX673" s="3"/>
       <c r="BY673" s="3"/>
     </row>
-    <row r="674" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -54194,7 +54194,7 @@
       <c r="BX674" s="3"/>
       <c r="BY674" s="3"/>
     </row>
-    <row r="675" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -54273,7 +54273,7 @@
       <c r="BX675" s="3"/>
       <c r="BY675" s="3"/>
     </row>
-    <row r="676" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -54352,7 +54352,7 @@
       <c r="BX676" s="3"/>
       <c r="BY676" s="3"/>
     </row>
-    <row r="677" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -54431,7 +54431,7 @@
       <c r="BX677" s="3"/>
       <c r="BY677" s="3"/>
     </row>
-    <row r="678" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -54510,7 +54510,7 @@
       <c r="BX678" s="3"/>
       <c r="BY678" s="3"/>
     </row>
-    <row r="679" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -54589,7 +54589,7 @@
       <c r="BX679" s="3"/>
       <c r="BY679" s="3"/>
     </row>
-    <row r="680" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -54668,7 +54668,7 @@
       <c r="BX680" s="3"/>
       <c r="BY680" s="3"/>
     </row>
-    <row r="681" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -54747,7 +54747,7 @@
       <c r="BX681" s="3"/>
       <c r="BY681" s="3"/>
     </row>
-    <row r="682" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -54826,7 +54826,7 @@
       <c r="BX682" s="3"/>
       <c r="BY682" s="3"/>
     </row>
-    <row r="683" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -54905,7 +54905,7 @@
       <c r="BX683" s="3"/>
       <c r="BY683" s="3"/>
     </row>
-    <row r="684" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -54984,7 +54984,7 @@
       <c r="BX684" s="3"/>
       <c r="BY684" s="3"/>
     </row>
-    <row r="685" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -55063,7 +55063,7 @@
       <c r="BX685" s="3"/>
       <c r="BY685" s="3"/>
     </row>
-    <row r="686" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -55142,7 +55142,7 @@
       <c r="BX686" s="3"/>
       <c r="BY686" s="3"/>
     </row>
-    <row r="687" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -55221,7 +55221,7 @@
       <c r="BX687" s="3"/>
       <c r="BY687" s="3"/>
     </row>
-    <row r="688" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -55300,7 +55300,7 @@
       <c r="BX688" s="3"/>
       <c r="BY688" s="3"/>
     </row>
-    <row r="689" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -55379,7 +55379,7 @@
       <c r="BX689" s="3"/>
       <c r="BY689" s="3"/>
     </row>
-    <row r="690" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -55458,7 +55458,7 @@
       <c r="BX690" s="3"/>
       <c r="BY690" s="3"/>
     </row>
-    <row r="691" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -55537,7 +55537,7 @@
       <c r="BX691" s="3"/>
       <c r="BY691" s="3"/>
     </row>
-    <row r="692" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -55616,7 +55616,7 @@
       <c r="BX692" s="3"/>
       <c r="BY692" s="3"/>
     </row>
-    <row r="693" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -55695,7 +55695,7 @@
       <c r="BX693" s="3"/>
       <c r="BY693" s="3"/>
     </row>
-    <row r="694" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -55774,7 +55774,7 @@
       <c r="BX694" s="3"/>
       <c r="BY694" s="3"/>
     </row>
-    <row r="695" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -55853,7 +55853,7 @@
       <c r="BX695" s="3"/>
       <c r="BY695" s="3"/>
     </row>
-    <row r="696" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -55932,7 +55932,7 @@
       <c r="BX696" s="3"/>
       <c r="BY696" s="3"/>
     </row>
-    <row r="697" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -56011,7 +56011,7 @@
       <c r="BX697" s="3"/>
       <c r="BY697" s="3"/>
     </row>
-    <row r="698" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -56090,7 +56090,7 @@
       <c r="BX698" s="3"/>
       <c r="BY698" s="3"/>
     </row>
-    <row r="699" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -56169,7 +56169,7 @@
       <c r="BX699" s="3"/>
       <c r="BY699" s="3"/>
     </row>
-    <row r="700" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -56248,7 +56248,7 @@
       <c r="BX700" s="3"/>
       <c r="BY700" s="3"/>
     </row>
-    <row r="701" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -56327,7 +56327,7 @@
       <c r="BX701" s="3"/>
       <c r="BY701" s="3"/>
     </row>
-    <row r="702" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -56406,7 +56406,7 @@
       <c r="BX702" s="3"/>
       <c r="BY702" s="3"/>
     </row>
-    <row r="703" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -56485,7 +56485,7 @@
       <c r="BX703" s="3"/>
       <c r="BY703" s="3"/>
     </row>
-    <row r="704" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -56564,7 +56564,7 @@
       <c r="BX704" s="3"/>
       <c r="BY704" s="3"/>
     </row>
-    <row r="705" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -56643,7 +56643,7 @@
       <c r="BX705" s="3"/>
       <c r="BY705" s="3"/>
     </row>
-    <row r="706" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -56722,7 +56722,7 @@
       <c r="BX706" s="3"/>
       <c r="BY706" s="3"/>
     </row>
-    <row r="707" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -56801,7 +56801,7 @@
       <c r="BX707" s="3"/>
       <c r="BY707" s="3"/>
     </row>
-    <row r="708" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -56880,7 +56880,7 @@
       <c r="BX708" s="3"/>
       <c r="BY708" s="3"/>
     </row>
-    <row r="709" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -56959,7 +56959,7 @@
       <c r="BX709" s="3"/>
       <c r="BY709" s="3"/>
     </row>
-    <row r="710" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -57038,7 +57038,7 @@
       <c r="BX710" s="3"/>
       <c r="BY710" s="3"/>
     </row>
-    <row r="711" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -57117,7 +57117,7 @@
       <c r="BX711" s="3"/>
       <c r="BY711" s="3"/>
     </row>
-    <row r="712" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -57196,7 +57196,7 @@
       <c r="BX712" s="3"/>
       <c r="BY712" s="3"/>
     </row>
-    <row r="713" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -57275,7 +57275,7 @@
       <c r="BX713" s="3"/>
       <c r="BY713" s="3"/>
     </row>
-    <row r="714" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -57354,7 +57354,7 @@
       <c r="BX714" s="3"/>
       <c r="BY714" s="3"/>
     </row>
-    <row r="715" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -57433,7 +57433,7 @@
       <c r="BX715" s="3"/>
       <c r="BY715" s="3"/>
     </row>
-    <row r="716" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -57512,7 +57512,7 @@
       <c r="BX716" s="3"/>
       <c r="BY716" s="3"/>
     </row>
-    <row r="717" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -57591,7 +57591,7 @@
       <c r="BX717" s="3"/>
       <c r="BY717" s="3"/>
     </row>
-    <row r="718" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -57670,7 +57670,7 @@
       <c r="BX718" s="3"/>
       <c r="BY718" s="3"/>
     </row>
-    <row r="719" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -57749,7 +57749,7 @@
       <c r="BX719" s="3"/>
       <c r="BY719" s="3"/>
     </row>
-    <row r="720" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -57828,7 +57828,7 @@
       <c r="BX720" s="3"/>
       <c r="BY720" s="3"/>
     </row>
-    <row r="721" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -57907,7 +57907,7 @@
       <c r="BX721" s="3"/>
       <c r="BY721" s="3"/>
     </row>
-    <row r="722" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -57986,7 +57986,7 @@
       <c r="BX722" s="3"/>
       <c r="BY722" s="3"/>
     </row>
-    <row r="723" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -58065,7 +58065,7 @@
       <c r="BX723" s="3"/>
       <c r="BY723" s="3"/>
     </row>
-    <row r="724" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -58144,7 +58144,7 @@
       <c r="BX724" s="3"/>
       <c r="BY724" s="3"/>
     </row>
-    <row r="725" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -58223,7 +58223,7 @@
       <c r="BX725" s="3"/>
       <c r="BY725" s="3"/>
     </row>
-    <row r="726" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -58302,7 +58302,7 @@
       <c r="BX726" s="3"/>
       <c r="BY726" s="3"/>
     </row>
-    <row r="727" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -58381,7 +58381,7 @@
       <c r="BX727" s="3"/>
       <c r="BY727" s="3"/>
     </row>
-    <row r="728" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -58460,7 +58460,7 @@
       <c r="BX728" s="3"/>
       <c r="BY728" s="3"/>
     </row>
-    <row r="729" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -58539,7 +58539,7 @@
       <c r="BX729" s="3"/>
       <c r="BY729" s="3"/>
     </row>
-    <row r="730" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -58618,7 +58618,7 @@
       <c r="BX730" s="3"/>
       <c r="BY730" s="3"/>
     </row>
-    <row r="731" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -58697,7 +58697,7 @@
       <c r="BX731" s="3"/>
       <c r="BY731" s="3"/>
     </row>
-    <row r="732" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -58776,7 +58776,7 @@
       <c r="BX732" s="3"/>
       <c r="BY732" s="3"/>
     </row>
-    <row r="733" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -58855,7 +58855,7 @@
       <c r="BX733" s="3"/>
       <c r="BY733" s="3"/>
     </row>
-    <row r="734" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -58934,7 +58934,7 @@
       <c r="BX734" s="3"/>
       <c r="BY734" s="3"/>
     </row>
-    <row r="735" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -59013,7 +59013,7 @@
       <c r="BX735" s="3"/>
       <c r="BY735" s="3"/>
     </row>
-    <row r="736" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -59092,7 +59092,7 @@
       <c r="BX736" s="3"/>
       <c r="BY736" s="3"/>
     </row>
-    <row r="737" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -59171,7 +59171,7 @@
       <c r="BX737" s="3"/>
       <c r="BY737" s="3"/>
     </row>
-    <row r="738" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -59250,7 +59250,7 @@
       <c r="BX738" s="3"/>
       <c r="BY738" s="3"/>
     </row>
-    <row r="739" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -59329,7 +59329,7 @@
       <c r="BX739" s="3"/>
       <c r="BY739" s="3"/>
     </row>
-    <row r="740" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -59408,7 +59408,7 @@
       <c r="BX740" s="3"/>
       <c r="BY740" s="3"/>
     </row>
-    <row r="741" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -59487,7 +59487,7 @@
       <c r="BX741" s="3"/>
       <c r="BY741" s="3"/>
     </row>
-    <row r="742" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -59566,7 +59566,7 @@
       <c r="BX742" s="3"/>
       <c r="BY742" s="3"/>
     </row>
-    <row r="743" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -59645,7 +59645,7 @@
       <c r="BX743" s="3"/>
       <c r="BY743" s="3"/>
     </row>
-    <row r="744" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -59724,7 +59724,7 @@
       <c r="BX744" s="3"/>
       <c r="BY744" s="3"/>
     </row>
-    <row r="745" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -59803,7 +59803,7 @@
       <c r="BX745" s="3"/>
       <c r="BY745" s="3"/>
     </row>
-    <row r="746" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -59882,7 +59882,7 @@
       <c r="BX746" s="3"/>
       <c r="BY746" s="3"/>
     </row>
-    <row r="747" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -59961,7 +59961,7 @@
       <c r="BX747" s="3"/>
       <c r="BY747" s="3"/>
     </row>
-    <row r="748" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -60040,7 +60040,7 @@
       <c r="BX748" s="3"/>
       <c r="BY748" s="3"/>
     </row>
-    <row r="749" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -60119,7 +60119,7 @@
       <c r="BX749" s="3"/>
       <c r="BY749" s="3"/>
     </row>
-    <row r="750" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -60198,7 +60198,7 @@
       <c r="BX750" s="3"/>
       <c r="BY750" s="3"/>
     </row>
-    <row r="751" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -60277,7 +60277,7 @@
       <c r="BX751" s="3"/>
       <c r="BY751" s="3"/>
     </row>
-    <row r="752" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -60356,7 +60356,7 @@
       <c r="BX752" s="3"/>
       <c r="BY752" s="3"/>
     </row>
-    <row r="753" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -60435,7 +60435,7 @@
       <c r="BX753" s="3"/>
       <c r="BY753" s="3"/>
     </row>
-    <row r="754" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -60514,7 +60514,7 @@
       <c r="BX754" s="3"/>
       <c r="BY754" s="3"/>
     </row>
-    <row r="755" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -60593,7 +60593,7 @@
       <c r="BX755" s="3"/>
       <c r="BY755" s="3"/>
     </row>
-    <row r="756" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -60672,7 +60672,7 @@
       <c r="BX756" s="3"/>
       <c r="BY756" s="3"/>
     </row>
-    <row r="757" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -60751,7 +60751,7 @@
       <c r="BX757" s="3"/>
       <c r="BY757" s="3"/>
     </row>
-    <row r="758" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -60830,7 +60830,7 @@
       <c r="BX758" s="3"/>
       <c r="BY758" s="3"/>
     </row>
-    <row r="759" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -60909,7 +60909,7 @@
       <c r="BX759" s="3"/>
       <c r="BY759" s="3"/>
     </row>
-    <row r="760" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -60988,7 +60988,7 @@
       <c r="BX760" s="3"/>
       <c r="BY760" s="3"/>
     </row>
-    <row r="761" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -61067,7 +61067,7 @@
       <c r="BX761" s="3"/>
       <c r="BY761" s="3"/>
     </row>
-    <row r="762" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -61146,7 +61146,7 @@
       <c r="BX762" s="3"/>
       <c r="BY762" s="3"/>
     </row>
-    <row r="763" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -61225,7 +61225,7 @@
       <c r="BX763" s="3"/>
       <c r="BY763" s="3"/>
     </row>
-    <row r="764" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -61304,7 +61304,7 @@
       <c r="BX764" s="3"/>
       <c r="BY764" s="3"/>
     </row>
-    <row r="765" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -61383,7 +61383,7 @@
       <c r="BX765" s="3"/>
       <c r="BY765" s="3"/>
     </row>
-    <row r="766" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -61462,7 +61462,7 @@
       <c r="BX766" s="3"/>
       <c r="BY766" s="3"/>
     </row>
-    <row r="767" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -61541,7 +61541,7 @@
       <c r="BX767" s="3"/>
       <c r="BY767" s="3"/>
     </row>
-    <row r="768" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -61620,7 +61620,7 @@
       <c r="BX768" s="3"/>
       <c r="BY768" s="3"/>
     </row>
-    <row r="769" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -61699,7 +61699,7 @@
       <c r="BX769" s="3"/>
       <c r="BY769" s="3"/>
     </row>
-    <row r="770" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -61778,7 +61778,7 @@
       <c r="BX770" s="3"/>
       <c r="BY770" s="3"/>
     </row>
-    <row r="771" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -61857,7 +61857,7 @@
       <c r="BX771" s="3"/>
       <c r="BY771" s="3"/>
     </row>
-    <row r="772" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -61936,7 +61936,7 @@
       <c r="BX772" s="3"/>
       <c r="BY772" s="3"/>
     </row>
-    <row r="773" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -62015,7 +62015,7 @@
       <c r="BX773" s="3"/>
       <c r="BY773" s="3"/>
     </row>
-    <row r="774" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -62094,7 +62094,7 @@
       <c r="BX774" s="3"/>
       <c r="BY774" s="3"/>
     </row>
-    <row r="775" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -62173,7 +62173,7 @@
       <c r="BX775" s="3"/>
       <c r="BY775" s="3"/>
     </row>
-    <row r="776" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -62252,7 +62252,7 @@
       <c r="BX776" s="3"/>
       <c r="BY776" s="3"/>
     </row>
-    <row r="777" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -62331,7 +62331,7 @@
       <c r="BX777" s="3"/>
       <c r="BY777" s="3"/>
     </row>
-    <row r="778" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -62410,7 +62410,7 @@
       <c r="BX778" s="3"/>
       <c r="BY778" s="3"/>
     </row>
-    <row r="779" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -62489,7 +62489,7 @@
       <c r="BX779" s="3"/>
       <c r="BY779" s="3"/>
     </row>
-    <row r="780" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -62568,7 +62568,7 @@
       <c r="BX780" s="3"/>
       <c r="BY780" s="3"/>
     </row>
-    <row r="781" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -62647,7 +62647,7 @@
       <c r="BX781" s="3"/>
       <c r="BY781" s="3"/>
     </row>
-    <row r="782" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -62726,7 +62726,7 @@
       <c r="BX782" s="3"/>
       <c r="BY782" s="3"/>
     </row>
-    <row r="783" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -62805,7 +62805,7 @@
       <c r="BX783" s="3"/>
       <c r="BY783" s="3"/>
     </row>
-    <row r="784" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -62884,7 +62884,7 @@
       <c r="BX784" s="3"/>
       <c r="BY784" s="3"/>
     </row>
-    <row r="785" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -62963,7 +62963,7 @@
       <c r="BX785" s="3"/>
       <c r="BY785" s="3"/>
     </row>
-    <row r="786" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -63042,7 +63042,7 @@
       <c r="BX786" s="3"/>
       <c r="BY786" s="3"/>
     </row>
-    <row r="787" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -63121,7 +63121,7 @@
       <c r="BX787" s="3"/>
       <c r="BY787" s="3"/>
     </row>
-    <row r="788" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -63200,7 +63200,7 @@
       <c r="BX788" s="3"/>
       <c r="BY788" s="3"/>
     </row>
-    <row r="789" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -63279,7 +63279,7 @@
       <c r="BX789" s="3"/>
       <c r="BY789" s="3"/>
     </row>
-    <row r="790" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -63358,7 +63358,7 @@
       <c r="BX790" s="3"/>
       <c r="BY790" s="3"/>
     </row>
-    <row r="791" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -63437,7 +63437,7 @@
       <c r="BX791" s="3"/>
       <c r="BY791" s="3"/>
     </row>
-    <row r="792" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -63516,7 +63516,7 @@
       <c r="BX792" s="3"/>
       <c r="BY792" s="3"/>
     </row>
-    <row r="793" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -63595,7 +63595,7 @@
       <c r="BX793" s="3"/>
       <c r="BY793" s="3"/>
     </row>
-    <row r="794" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -63674,7 +63674,7 @@
       <c r="BX794" s="3"/>
       <c r="BY794" s="3"/>
     </row>
-    <row r="795" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -63753,7 +63753,7 @@
       <c r="BX795" s="3"/>
       <c r="BY795" s="3"/>
     </row>
-    <row r="796" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -63832,7 +63832,7 @@
       <c r="BX796" s="3"/>
       <c r="BY796" s="3"/>
     </row>
-    <row r="797" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -63911,7 +63911,7 @@
       <c r="BX797" s="3"/>
       <c r="BY797" s="3"/>
     </row>
-    <row r="798" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -63990,7 +63990,7 @@
       <c r="BX798" s="3"/>
       <c r="BY798" s="3"/>
     </row>
-    <row r="799" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -64069,7 +64069,7 @@
       <c r="BX799" s="3"/>
       <c r="BY799" s="3"/>
     </row>
-    <row r="800" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -64148,7 +64148,7 @@
       <c r="BX800" s="3"/>
       <c r="BY800" s="3"/>
     </row>
-    <row r="801" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -64227,7 +64227,7 @@
       <c r="BX801" s="3"/>
       <c r="BY801" s="3"/>
     </row>
-    <row r="802" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -64306,7 +64306,7 @@
       <c r="BX802" s="3"/>
       <c r="BY802" s="3"/>
     </row>
-    <row r="803" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -64385,7 +64385,7 @@
       <c r="BX803" s="3"/>
       <c r="BY803" s="3"/>
     </row>
-    <row r="804" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -64464,7 +64464,7 @@
       <c r="BX804" s="3"/>
       <c r="BY804" s="3"/>
     </row>
-    <row r="805" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -64543,7 +64543,7 @@
       <c r="BX805" s="3"/>
       <c r="BY805" s="3"/>
     </row>
-    <row r="806" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -64622,7 +64622,7 @@
       <c r="BX806" s="3"/>
       <c r="BY806" s="3"/>
     </row>
-    <row r="807" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -64701,7 +64701,7 @@
       <c r="BX807" s="3"/>
       <c r="BY807" s="3"/>
     </row>
-    <row r="808" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>

--- a/historico_s10.xlsx
+++ b/historico_s10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF94F282-B58D-44B5-BE8E-72E82E3E91C4}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{C229C72E-47DD-4BDB-8406-E1168178D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AA0032-BE32-472F-BE51-12E9444F75C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F67868-8F64-466B-940A-F9E9555879F9}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:BY808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,10 +901,10 @@
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="B2" s="3">
-        <v>3.8546</v>
+        <v>3.6250999999999998</v>
       </c>
       <c r="C2" s="3">
         <v>3.8678000000000003</v>
@@ -1008,7 +1008,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="3">
-        <v>3.8214999999999999</v>
+        <v>3.8655999999999997</v>
       </c>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3">
